--- a/07 Cronograma de Trabajo/Cronograma_actividades.xlsx
+++ b/07 Cronograma de Trabajo/Cronograma_actividades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiantello/Documents/University/documentacion-construccion-evolucion/07 Cronograma de Trabajo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\construccion\documentacion-construccion-evolucion\07 Cronograma de Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D194B-261A-3247-AB92-E23FD7B20863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85157E4-CC5D-426C-897C-42D2A1597CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="19580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="3732" windowWidth="17280" windowHeight="10500" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma de Actividades" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Matriz de Comunicaciones" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="301">
   <si>
     <t>TÍTULO DEL PROYECTO</t>
   </si>
@@ -873,9 +870,6 @@
     <t>Cliente, Equipo Técnico</t>
   </si>
   <si>
-    <t>Todo el equipo</t>
-  </si>
-  <si>
     <t>Chat/Correo</t>
   </si>
   <si>
@@ -937,6 +931,12 @@
   </si>
   <si>
     <t>Semanal</t>
+  </si>
+  <si>
+    <t>Equipo involucrado</t>
+  </si>
+  <si>
+    <t>Equipo de Desarrollo</t>
   </si>
 </sst>
 </file>
@@ -2297,6 +2297,64 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2320,70 +2378,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2400,11 +2405,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2632,18 +2632,18 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.796875" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="113" width="4.1640625" customWidth="1"/>
+    <col min="9" max="113" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:113" s="34" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:113" s="34" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>59</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="R1" s="36"/>
       <c r="S1" s="36"/>
     </row>
-    <row r="2" spans="2:113" s="1" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:113" s="1" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:113" s="1" customFormat="1" ht="35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:113" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="59" t="s">
         <v>61</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:113" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:113" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
@@ -2686,10 +2686,10 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="5" spans="2:113" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:113" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:113" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2697,127 +2697,127 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="148" t="s">
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="147"/>
-      <c r="AM6" s="149" t="s">
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="127"/>
+      <c r="AM6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="146"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="146"/>
-      <c r="AZ6" s="146"/>
-      <c r="BA6" s="147"/>
-      <c r="BB6" s="150" t="s">
+      <c r="AN6" s="126"/>
+      <c r="AO6" s="126"/>
+      <c r="AP6" s="126"/>
+      <c r="AQ6" s="126"/>
+      <c r="AR6" s="126"/>
+      <c r="AS6" s="126"/>
+      <c r="AT6" s="126"/>
+      <c r="AU6" s="126"/>
+      <c r="AV6" s="126"/>
+      <c r="AW6" s="126"/>
+      <c r="AX6" s="126"/>
+      <c r="AY6" s="126"/>
+      <c r="AZ6" s="126"/>
+      <c r="BA6" s="127"/>
+      <c r="BB6" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="BC6" s="146"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="146"/>
-      <c r="BG6" s="146"/>
-      <c r="BH6" s="146"/>
-      <c r="BI6" s="146"/>
-      <c r="BJ6" s="146"/>
-      <c r="BK6" s="146"/>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="146"/>
-      <c r="BN6" s="146"/>
-      <c r="BO6" s="146"/>
-      <c r="BP6" s="147"/>
-      <c r="BQ6" s="135" t="s">
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="126"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="126"/>
+      <c r="BI6" s="126"/>
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="126"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="126"/>
+      <c r="BN6" s="126"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="127"/>
+      <c r="BQ6" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="BR6" s="136"/>
-      <c r="BS6" s="136"/>
-      <c r="BT6" s="136"/>
-      <c r="BU6" s="136"/>
-      <c r="BV6" s="136"/>
-      <c r="BW6" s="136"/>
-      <c r="BX6" s="136"/>
-      <c r="BY6" s="136"/>
-      <c r="BZ6" s="136"/>
-      <c r="CA6" s="136"/>
-      <c r="CB6" s="136"/>
-      <c r="CC6" s="136"/>
-      <c r="CD6" s="136"/>
-      <c r="CE6" s="137"/>
-      <c r="CF6" s="122" t="s">
+      <c r="BR6" s="142"/>
+      <c r="BS6" s="142"/>
+      <c r="BT6" s="142"/>
+      <c r="BU6" s="142"/>
+      <c r="BV6" s="142"/>
+      <c r="BW6" s="142"/>
+      <c r="BX6" s="142"/>
+      <c r="BY6" s="142"/>
+      <c r="BZ6" s="142"/>
+      <c r="CA6" s="142"/>
+      <c r="CB6" s="142"/>
+      <c r="CC6" s="142"/>
+      <c r="CD6" s="142"/>
+      <c r="CE6" s="143"/>
+      <c r="CF6" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="CG6" s="123"/>
-      <c r="CH6" s="123"/>
-      <c r="CI6" s="123"/>
-      <c r="CJ6" s="123"/>
-      <c r="CK6" s="123"/>
-      <c r="CL6" s="123"/>
-      <c r="CM6" s="123"/>
-      <c r="CN6" s="123"/>
-      <c r="CO6" s="123"/>
-      <c r="CP6" s="123"/>
-      <c r="CQ6" s="123"/>
-      <c r="CR6" s="123"/>
-      <c r="CS6" s="123"/>
-      <c r="CT6" s="124"/>
-      <c r="CU6" s="129" t="s">
+      <c r="CG6" s="149"/>
+      <c r="CH6" s="149"/>
+      <c r="CI6" s="149"/>
+      <c r="CJ6" s="149"/>
+      <c r="CK6" s="149"/>
+      <c r="CL6" s="149"/>
+      <c r="CM6" s="149"/>
+      <c r="CN6" s="149"/>
+      <c r="CO6" s="149"/>
+      <c r="CP6" s="149"/>
+      <c r="CQ6" s="149"/>
+      <c r="CR6" s="149"/>
+      <c r="CS6" s="149"/>
+      <c r="CT6" s="150"/>
+      <c r="CU6" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="CV6" s="130"/>
-      <c r="CW6" s="130"/>
-      <c r="CX6" s="130"/>
-      <c r="CY6" s="130"/>
-      <c r="CZ6" s="130"/>
-      <c r="DA6" s="130"/>
-      <c r="DB6" s="130"/>
-      <c r="DC6" s="130"/>
-      <c r="DD6" s="130"/>
-      <c r="DE6" s="130"/>
-      <c r="DF6" s="130"/>
-      <c r="DG6" s="130"/>
-      <c r="DH6" s="130"/>
-      <c r="DI6" s="131"/>
-    </row>
-    <row r="7" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CV6" s="156"/>
+      <c r="CW6" s="156"/>
+      <c r="CX6" s="156"/>
+      <c r="CY6" s="156"/>
+      <c r="CZ6" s="156"/>
+      <c r="DA6" s="156"/>
+      <c r="DB6" s="156"/>
+      <c r="DC6" s="156"/>
+      <c r="DD6" s="156"/>
+      <c r="DE6" s="156"/>
+      <c r="DF6" s="156"/>
+      <c r="DG6" s="156"/>
+      <c r="DH6" s="156"/>
+      <c r="DI6" s="157"/>
+    </row>
+    <row r="7" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2839,155 +2839,155 @@
       <c r="H7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="152" t="s">
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="152" t="s">
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="153" t="s">
+      <c r="T7" s="132"/>
+      <c r="U7" s="132"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="154" t="s">
+      <c r="Y7" s="132"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="132"/>
+      <c r="AB7" s="133"/>
+      <c r="AC7" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="143"/>
-      <c r="AG7" s="144"/>
-      <c r="AH7" s="154" t="s">
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="133"/>
+      <c r="AH7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="AI7" s="143"/>
-      <c r="AJ7" s="143"/>
-      <c r="AK7" s="143"/>
-      <c r="AL7" s="144"/>
-      <c r="AM7" s="155" t="s">
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="133"/>
+      <c r="AM7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="143"/>
-      <c r="AP7" s="143"/>
-      <c r="AQ7" s="144"/>
-      <c r="AR7" s="156" t="s">
+      <c r="AN7" s="132"/>
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="133"/>
+      <c r="AR7" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="144"/>
-      <c r="AW7" s="156" t="s">
+      <c r="AS7" s="132"/>
+      <c r="AT7" s="132"/>
+      <c r="AU7" s="132"/>
+      <c r="AV7" s="133"/>
+      <c r="AW7" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AX7" s="143"/>
-      <c r="AY7" s="143"/>
-      <c r="AZ7" s="143"/>
-      <c r="BA7" s="144"/>
-      <c r="BB7" s="157" t="s">
+      <c r="AX7" s="132"/>
+      <c r="AY7" s="132"/>
+      <c r="AZ7" s="132"/>
+      <c r="BA7" s="133"/>
+      <c r="BB7" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="BC7" s="143"/>
-      <c r="BD7" s="143"/>
-      <c r="BE7" s="143"/>
-      <c r="BF7" s="144"/>
-      <c r="BG7" s="142" t="s">
+      <c r="BC7" s="132"/>
+      <c r="BD7" s="132"/>
+      <c r="BE7" s="132"/>
+      <c r="BF7" s="133"/>
+      <c r="BG7" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="BH7" s="143"/>
-      <c r="BI7" s="143"/>
-      <c r="BJ7" s="143"/>
-      <c r="BK7" s="144"/>
-      <c r="BL7" s="142" t="s">
+      <c r="BH7" s="132"/>
+      <c r="BI7" s="132"/>
+      <c r="BJ7" s="132"/>
+      <c r="BK7" s="133"/>
+      <c r="BL7" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="143"/>
-      <c r="BN7" s="143"/>
-      <c r="BO7" s="143"/>
-      <c r="BP7" s="144"/>
-      <c r="BQ7" s="138" t="s">
+      <c r="BM7" s="132"/>
+      <c r="BN7" s="132"/>
+      <c r="BO7" s="132"/>
+      <c r="BP7" s="133"/>
+      <c r="BQ7" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="BR7" s="139"/>
-      <c r="BS7" s="139"/>
-      <c r="BT7" s="139"/>
-      <c r="BU7" s="140"/>
-      <c r="BV7" s="141" t="s">
+      <c r="BR7" s="145"/>
+      <c r="BS7" s="145"/>
+      <c r="BT7" s="145"/>
+      <c r="BU7" s="146"/>
+      <c r="BV7" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="BW7" s="139"/>
-      <c r="BX7" s="139"/>
-      <c r="BY7" s="139"/>
-      <c r="BZ7" s="140"/>
-      <c r="CA7" s="141" t="s">
+      <c r="BW7" s="145"/>
+      <c r="BX7" s="145"/>
+      <c r="BY7" s="145"/>
+      <c r="BZ7" s="146"/>
+      <c r="CA7" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="CB7" s="139"/>
-      <c r="CC7" s="139"/>
-      <c r="CD7" s="139"/>
-      <c r="CE7" s="140"/>
-      <c r="CF7" s="125" t="s">
+      <c r="CB7" s="145"/>
+      <c r="CC7" s="145"/>
+      <c r="CD7" s="145"/>
+      <c r="CE7" s="146"/>
+      <c r="CF7" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="126"/>
-      <c r="CH7" s="126"/>
-      <c r="CI7" s="126"/>
-      <c r="CJ7" s="127"/>
-      <c r="CK7" s="128" t="s">
+      <c r="CG7" s="152"/>
+      <c r="CH7" s="152"/>
+      <c r="CI7" s="152"/>
+      <c r="CJ7" s="153"/>
+      <c r="CK7" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="CL7" s="126"/>
-      <c r="CM7" s="126"/>
-      <c r="CN7" s="126"/>
-      <c r="CO7" s="127"/>
-      <c r="CP7" s="128" t="s">
+      <c r="CL7" s="152"/>
+      <c r="CM7" s="152"/>
+      <c r="CN7" s="152"/>
+      <c r="CO7" s="153"/>
+      <c r="CP7" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="CQ7" s="126"/>
-      <c r="CR7" s="126"/>
-      <c r="CS7" s="126"/>
-      <c r="CT7" s="127"/>
-      <c r="CU7" s="132" t="s">
+      <c r="CQ7" s="152"/>
+      <c r="CR7" s="152"/>
+      <c r="CS7" s="152"/>
+      <c r="CT7" s="153"/>
+      <c r="CU7" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="CV7" s="133"/>
-      <c r="CW7" s="133"/>
-      <c r="CX7" s="133"/>
-      <c r="CY7" s="134"/>
-      <c r="CZ7" s="132" t="s">
+      <c r="CV7" s="159"/>
+      <c r="CW7" s="159"/>
+      <c r="CX7" s="159"/>
+      <c r="CY7" s="160"/>
+      <c r="CZ7" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="DA7" s="133"/>
-      <c r="DB7" s="133"/>
-      <c r="DC7" s="133"/>
-      <c r="DD7" s="134"/>
-      <c r="DE7" s="132" t="s">
+      <c r="DA7" s="159"/>
+      <c r="DB7" s="159"/>
+      <c r="DC7" s="159"/>
+      <c r="DD7" s="160"/>
+      <c r="DE7" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="DF7" s="133"/>
-      <c r="DG7" s="133"/>
-      <c r="DH7" s="133"/>
-      <c r="DI7" s="134"/>
-    </row>
-    <row r="8" spans="2:113" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DF7" s="159"/>
+      <c r="DG7" s="159"/>
+      <c r="DH7" s="159"/>
+      <c r="DI7" s="160"/>
+    </row>
+    <row r="8" spans="2:113" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>Wed</v>
       </c>
     </row>
-    <row r="9" spans="2:113" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:113" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="37">
         <v>1</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="10" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:113" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="DH10" s="18"/>
       <c r="DI10" s="23"/>
     </row>
-    <row r="11" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:113" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="41">
         <v>1.2</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="DH11" s="18"/>
       <c r="DI11" s="23"/>
     </row>
-    <row r="12" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
         <v>1.3</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="DH12" s="18"/>
       <c r="DI12" s="23"/>
     </row>
-    <row r="13" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
         <v>1.4</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="DH13" s="18"/>
       <c r="DI13" s="23"/>
     </row>
-    <row r="14" spans="2:113" ht="28" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:113" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B14" s="41">
         <v>1.5</v>
       </c>
@@ -4511,7 +4511,7 @@
       <c r="DH14" s="18"/>
       <c r="DI14" s="23"/>
     </row>
-    <row r="15" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41">
         <v>2</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="DH15" s="14"/>
       <c r="DI15" s="16"/>
     </row>
-    <row r="16" spans="2:113" ht="28" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:113" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
         <v>2.1</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="DH16" s="18"/>
       <c r="DI16" s="23"/>
     </row>
-    <row r="17" spans="2:113" ht="28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:113" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>2.2000000000000002</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="DH17" s="18"/>
       <c r="DI17" s="23"/>
     </row>
-    <row r="18" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>2.2999999999999998</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="DH18" s="18"/>
       <c r="DI18" s="23"/>
     </row>
-    <row r="19" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>3</v>
       </c>
@@ -5140,7 +5140,7 @@
       <c r="DH19" s="14"/>
       <c r="DI19" s="16"/>
     </row>
-    <row r="20" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>3.1</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="DH20" s="18"/>
       <c r="DI20" s="23"/>
     </row>
-    <row r="21" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>3.2</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="DH21" s="91"/>
       <c r="DI21" s="23"/>
     </row>
-    <row r="22" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>3.3</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="DH22" s="18"/>
       <c r="DI22" s="23"/>
     </row>
-    <row r="23" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>4</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="DH23" s="14"/>
       <c r="DI23" s="16"/>
     </row>
-    <row r="24" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>4.0999999999999996</v>
       </c>
@@ -5781,7 +5781,7 @@
       <c r="DH24" s="18"/>
       <c r="DI24" s="18"/>
     </row>
-    <row r="25" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>4.2</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="DH25" s="18"/>
       <c r="DI25" s="18"/>
     </row>
-    <row r="26" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>4.3</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="DH26" s="18"/>
       <c r="DI26" s="18"/>
     </row>
-    <row r="27" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:113" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="82">
         <v>4.4000000000000004</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="DH27" s="18"/>
       <c r="DI27" s="18"/>
     </row>
-    <row r="28" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="83">
         <v>5</v>
       </c>
@@ -6294,7 +6294,7 @@
       <c r="DH28" s="14"/>
       <c r="DI28" s="16"/>
     </row>
-    <row r="29" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:113" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="83">
         <v>5.0999999999999996</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="DH29" s="26"/>
       <c r="DI29" s="31"/>
     </row>
-    <row r="30" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:113" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="83">
         <v>5.2</v>
       </c>
@@ -6556,11 +6556,24 @@
       <c r="DH30" s="26"/>
       <c r="DI30" s="31"/>
     </row>
-    <row r="35" spans="3:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="CF6:CT6"/>
+    <mergeCell ref="CF7:CJ7"/>
+    <mergeCell ref="CK7:CO7"/>
+    <mergeCell ref="CP7:CT7"/>
+    <mergeCell ref="CU6:DI6"/>
+    <mergeCell ref="CU7:CY7"/>
+    <mergeCell ref="CZ7:DD7"/>
+    <mergeCell ref="DE7:DI7"/>
+    <mergeCell ref="BQ6:CE6"/>
+    <mergeCell ref="BQ7:BU7"/>
+    <mergeCell ref="BV7:BZ7"/>
+    <mergeCell ref="CA7:CE7"/>
+    <mergeCell ref="BL7:BP7"/>
     <mergeCell ref="I6:W6"/>
     <mergeCell ref="X6:AL6"/>
     <mergeCell ref="AM6:BA6"/>
@@ -6576,19 +6589,6 @@
     <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="BB7:BF7"/>
     <mergeCell ref="BG7:BK7"/>
-    <mergeCell ref="BQ6:CE6"/>
-    <mergeCell ref="BQ7:BU7"/>
-    <mergeCell ref="BV7:BZ7"/>
-    <mergeCell ref="CA7:CE7"/>
-    <mergeCell ref="BL7:BP7"/>
-    <mergeCell ref="CF6:CT6"/>
-    <mergeCell ref="CF7:CJ7"/>
-    <mergeCell ref="CK7:CO7"/>
-    <mergeCell ref="CP7:CT7"/>
-    <mergeCell ref="CU6:DI6"/>
-    <mergeCell ref="CU7:CY7"/>
-    <mergeCell ref="CZ7:DD7"/>
-    <mergeCell ref="DE7:DI7"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H30">
     <cfRule type="dataBar" priority="12">
@@ -6611,25 +6611,25 @@
   </sheetPr>
   <dimension ref="B2:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="57.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="57.796875" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="M2" s="106" t="s">
         <v>63</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="98" t="s">
         <v>63</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="99" t="s">
         <v>71</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="100"/>
       <c r="C5" s="98" t="s">
         <v>78</v>
@@ -6786,16 +6786,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="160"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="101" t="s">
         <v>190</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="M7" s="107" t="s">
         <v>101</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="98" t="s">
         <v>63</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="99" t="s">
         <v>83</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="100"/>
       <c r="C10" s="98" t="s">
         <v>78</v>
@@ -6980,16 +6980,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
       <c r="G11" s="101" t="s">
         <v>190</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="M12" s="107" t="s">
         <v>126</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="98" t="s">
         <v>63</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="99" t="s">
         <v>89</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="100"/>
       <c r="C15" s="98" t="s">
         <v>78</v>
@@ -7152,16 +7152,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="164" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="160"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
       <c r="G16" s="101" t="s">
         <v>190</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="98" t="s">
         <v>63</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="99" t="s">
         <v>95</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="100"/>
       <c r="C20" s="98" t="s">
         <v>78</v>
@@ -7234,16 +7234,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="160"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
       <c r="G21" s="101" t="s">
         <v>190</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="98" t="s">
         <v>63</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="99" t="s">
         <v>101</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="100"/>
       <c r="C27" s="98" t="s">
         <v>78</v>
@@ -7316,16 +7316,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="160"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="163"/>
       <c r="G28" s="103" t="s">
         <v>191</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="98" t="s">
         <v>63</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="99" t="s">
         <v>107</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="100"/>
       <c r="C32" s="98" t="s">
         <v>78</v>
@@ -7398,16 +7398,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="102" t="s">
         <v>111</v>
       </c>
       <c r="C33" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="160"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="163"/>
       <c r="G33" s="103" t="s">
         <v>191</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="98" t="s">
         <v>63</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="99" t="s">
         <v>113</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="100"/>
       <c r="C37" s="98" t="s">
         <v>78</v>
@@ -7480,16 +7480,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="102" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="160"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="163"/>
       <c r="G38" s="103" t="s">
         <v>191</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="98" t="s">
         <v>63</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="99" t="s">
         <v>119</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="100"/>
       <c r="C42" s="98" t="s">
         <v>78</v>
@@ -7562,16 +7562,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="102" t="s">
         <v>120</v>
       </c>
       <c r="C43" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="159"/>
-      <c r="E43" s="159"/>
-      <c r="F43" s="160"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="163"/>
       <c r="G43" s="103" t="s">
         <v>191</v>
       </c>
@@ -7579,16 +7579,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="102" t="s">
         <v>122</v>
       </c>
       <c r="C44" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="159"/>
-      <c r="E44" s="159"/>
-      <c r="F44" s="160"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="163"/>
       <c r="G44" s="103" t="s">
         <v>191</v>
       </c>
@@ -7596,16 +7596,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="102" t="s">
         <v>124</v>
       </c>
       <c r="C45" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="159"/>
-      <c r="E45" s="159"/>
-      <c r="F45" s="160"/>
+      <c r="D45" s="162"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="163"/>
       <c r="G45" s="103" t="s">
         <v>191</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="98" t="s">
         <v>63</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="99" t="s">
         <v>126</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="100"/>
       <c r="C51" s="98" t="s">
         <v>78</v>
@@ -7678,16 +7678,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="158" t="s">
+      <c r="C52" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="159"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="160"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="162"/>
+      <c r="F52" s="163"/>
       <c r="G52" s="105" t="s">
         <v>192</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="98" t="s">
         <v>63</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="99" t="s">
         <v>132</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="100"/>
       <c r="C56" s="98" t="s">
         <v>78</v>
@@ -7760,16 +7760,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="158" t="s">
+      <c r="C57" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="160"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="163"/>
       <c r="G57" s="105" t="s">
         <v>193</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="98" t="s">
         <v>63</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="99" t="s">
         <v>138</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="100"/>
       <c r="C61" s="98" t="s">
         <v>78</v>
@@ -7842,16 +7842,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="158" t="s">
+      <c r="C62" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="160"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="162"/>
+      <c r="F62" s="163"/>
       <c r="G62" s="105" t="s">
         <v>193</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="98" t="s">
         <v>63</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="99" t="s">
         <v>144</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="100"/>
       <c r="C66" s="98" t="s">
         <v>78</v>
@@ -7924,16 +7924,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="158" t="s">
+      <c r="C67" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="160"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="163"/>
       <c r="G67" s="105" t="s">
         <v>193</v>
       </c>
@@ -7941,16 +7941,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="158" t="s">
+      <c r="C68" s="165" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="159"/>
-      <c r="E68" s="159"/>
-      <c r="F68" s="160"/>
+      <c r="D68" s="162"/>
+      <c r="E68" s="162"/>
+      <c r="F68" s="163"/>
       <c r="G68" s="105" t="s">
         <v>193</v>
       </c>
@@ -7958,16 +7958,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="158" t="s">
+      <c r="C69" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="D69" s="159"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="160"/>
+      <c r="D69" s="162"/>
+      <c r="E69" s="162"/>
+      <c r="F69" s="163"/>
       <c r="G69" s="105" t="s">
         <v>193</v>
       </c>
@@ -7977,12 +7977,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C67:F67"/>
     <mergeCell ref="C68:F68"/>
@@ -7993,6 +7987,12 @@
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8010,23 +8010,23 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="112" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="114" t="s">
         <v>194</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="115">
         <v>1</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="115">
         <v>2</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="115">
         <v>3</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="115">
         <v>4</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="115">
         <v>5</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="115">
         <v>6</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="115">
         <v>7</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="115">
         <v>8</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="115">
         <v>9</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="115">
         <v>10</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="115">
         <v>11</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="115">
         <v>12</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="115">
         <v>13</v>
       </c>
@@ -8306,14 +8306,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="112"/>
       <c r="D17" s="112"/>
       <c r="E17" s="112"/>
       <c r="F17" s="112"/>
     </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="114" t="s">
         <v>27</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="114" t="s">
         <v>209</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="114" t="s">
         <v>210</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="114" t="s">
         <v>204</v>
       </c>
@@ -8358,92 +8358,92 @@
   </sheetPr>
   <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.296875" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="169"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="169"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-    </row>
-    <row r="6" spans="1:13" ht="25" x14ac:dyDescent="0.2">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="165" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="122"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="122"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="122"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="168" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-    </row>
-    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-    </row>
-    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="122"/>
+      <c r="B7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="122"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="113" t="s">
         <v>220</v>
       </c>
@@ -8457,12 +8457,12 @@
       <c r="I8" s="117"/>
       <c r="J8" s="117"/>
       <c r="K8" s="118"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="113"/>
       <c r="D9" s="116"/>
       <c r="E9" s="117"/>
@@ -8472,12 +8472,12 @@
       <c r="I9" s="117"/>
       <c r="J9" s="117"/>
       <c r="K9" s="118"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="169"/>
-    </row>
-    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="169"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="122"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="119"/>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
@@ -8487,83 +8487,83 @@
       <c r="I10" s="120"/>
       <c r="J10" s="120"/>
       <c r="K10" s="120"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="163" t="s">
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="166" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="167" t="s">
+      <c r="D11" s="170" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="167" t="s">
+      <c r="E11" s="171"/>
+      <c r="F11" s="170" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="168"/>
-      <c r="H11" s="167" t="s">
+      <c r="G11" s="171"/>
+      <c r="H11" s="170" t="s">
         <v>224</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="167" t="s">
+      <c r="I11" s="171"/>
+      <c r="J11" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="168"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="163" t="s">
+      <c r="K11" s="171"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="163" t="s">
+      <c r="F12" s="166" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="166" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="163" t="s">
+      <c r="H12" s="166" t="s">
         <v>233</v>
       </c>
-      <c r="I12" s="163" t="s">
+      <c r="I12" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="J12" s="163" t="s">
+      <c r="J12" s="166" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="163" t="s">
+      <c r="K12" s="166" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
-    </row>
-    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.2">
-      <c r="A14" s="169"/>
-      <c r="B14" s="169"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+    </row>
+    <row r="14" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="122"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="121" t="s">
         <v>237</v>
       </c>
@@ -8574,10 +8574,10 @@
         <v>260</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H14" s="121" t="s">
         <v>35</v>
@@ -8586,17 +8586,17 @@
         <v>35</v>
       </c>
       <c r="J14" s="121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K14" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-    </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
+        <v>287</v>
+      </c>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+    </row>
+    <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="122"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="121" t="s">
         <v>235</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>277</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H15" s="121" t="s">
         <v>36</v>
@@ -8619,17 +8619,17 @@
         <v>36</v>
       </c>
       <c r="J15" s="121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K15" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-    </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
+        <v>296</v>
+      </c>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+    </row>
+    <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="122"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="121" t="s">
         <v>236</v>
       </c>
@@ -8640,10 +8640,10 @@
         <v>261</v>
       </c>
       <c r="F16" s="121" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="G16" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H16" s="121" t="s">
         <v>36</v>
@@ -8651,18 +8651,18 @@
       <c r="I16" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="171">
+      <c r="J16" s="124">
         <v>45058</v>
       </c>
       <c r="K16" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
-    </row>
-    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="169"/>
-      <c r="B17" s="169"/>
+        <v>287</v>
+      </c>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+    </row>
+    <row r="17" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="122"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="121" t="s">
         <v>239</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>276</v>
       </c>
       <c r="G17" s="121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H17" s="121" t="s">
         <v>41</v>
@@ -8684,18 +8684,18 @@
       <c r="I17" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="171">
+      <c r="J17" s="124">
         <v>45150</v>
       </c>
       <c r="K17" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-    </row>
-    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="169"/>
-      <c r="B18" s="169"/>
+        <v>298</v>
+      </c>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+    </row>
+    <row r="18" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="122"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="121" t="s">
         <v>240</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>275</v>
       </c>
       <c r="G18" s="121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H18" s="121" t="s">
         <v>42</v>
@@ -8717,18 +8717,18 @@
       <c r="I18" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="171" t="s">
-        <v>292</v>
+      <c r="J18" s="124" t="s">
+        <v>291</v>
       </c>
       <c r="K18" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-    </row>
-    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="169"/>
-      <c r="B19" s="169"/>
+        <v>287</v>
+      </c>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+    </row>
+    <row r="19" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="122"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="121" t="s">
         <v>241</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>274</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H19" s="121" t="s">
         <v>43</v>
@@ -8750,18 +8750,18 @@
       <c r="I19" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="171" t="s">
-        <v>293</v>
+      <c r="J19" s="124" t="s">
+        <v>292</v>
       </c>
       <c r="K19" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169"/>
-    </row>
-    <row r="20" spans="1:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="A20" s="169"/>
-      <c r="B20" s="169"/>
+        <v>287</v>
+      </c>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+    </row>
+    <row r="20" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="121" t="s">
         <v>242</v>
       </c>
@@ -8775,26 +8775,26 @@
         <v>35</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H20" s="121" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I20" s="121" t="s">
-        <v>289</v>
-      </c>
-      <c r="J20" s="171">
+        <v>288</v>
+      </c>
+      <c r="J20" s="124">
         <v>45324</v>
       </c>
       <c r="K20" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-    </row>
-    <row r="21" spans="1:13" ht="120" x14ac:dyDescent="0.2">
-      <c r="A21" s="169"/>
-      <c r="B21" s="169"/>
+        <v>297</v>
+      </c>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+    </row>
+    <row r="21" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="122"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="121" t="s">
         <v>243</v>
       </c>
@@ -8808,26 +8808,26 @@
         <v>35</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H21" s="121" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I21" s="121" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21" s="171">
+        <v>288</v>
+      </c>
+      <c r="J21" s="124">
         <v>45567</v>
       </c>
       <c r="K21" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-    </row>
-    <row r="22" spans="1:13" ht="120" x14ac:dyDescent="0.2">
-      <c r="A22" s="169"/>
-      <c r="B22" s="169"/>
+        <v>297</v>
+      </c>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+    </row>
+    <row r="22" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="122"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="121" t="s">
         <v>244</v>
       </c>
@@ -8841,26 +8841,26 @@
         <v>35</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H22" s="121" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I22" s="121" t="s">
-        <v>289</v>
-      </c>
-      <c r="J22" s="171" t="s">
-        <v>294</v>
+        <v>288</v>
+      </c>
+      <c r="J22" s="124" t="s">
+        <v>293</v>
       </c>
       <c r="K22" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-    </row>
-    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.2">
-      <c r="A23" s="169"/>
-      <c r="B23" s="169"/>
+        <v>297</v>
+      </c>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+    </row>
+    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="121" t="s">
         <v>245</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>273</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H23" s="121" t="s">
         <v>57</v>
@@ -8882,16 +8882,16 @@
       <c r="I23" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="171" t="s">
-        <v>295</v>
+      <c r="J23" s="124" t="s">
+        <v>294</v>
       </c>
       <c r="K23" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-    </row>
-    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+    </row>
+    <row r="24" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="C24" s="121" t="s">
         <v>246</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>272</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H24" s="121" t="s">
         <v>48</v>
@@ -8913,16 +8913,16 @@
       <c r="I24" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="171">
+      <c r="J24" s="124">
         <v>45507</v>
       </c>
       <c r="K24" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
-    </row>
-    <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+    </row>
+    <row r="25" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="C25" s="121" t="s">
         <v>247</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>197</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H25" s="121" t="s">
         <v>35</v>
@@ -8944,14 +8944,14 @@
       <c r="I25" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="171" t="s">
-        <v>296</v>
+      <c r="J25" s="124" t="s">
+        <v>295</v>
       </c>
       <c r="K25" s="121" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="C26" s="121" t="s">
         <v>238</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>197</v>
       </c>
       <c r="G26" s="121" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H26" s="121" t="s">
         <v>56</v>
@@ -8973,11 +8973,11 @@
       <c r="I26" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="171" t="s">
+      <c r="J26" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="121" t="s">
         <v>287</v>
-      </c>
-      <c r="K26" s="121" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/07 Cronograma de Trabajo/Cronograma_actividades.xlsx
+++ b/07 Cronograma de Trabajo/Cronograma_actividades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\construccion\documentacion-construccion-evolucion\07 Cronograma de Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiantello/Documents/University/documentacion-construccion-evolucion/07 Cronograma de Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48098F30-3514-4125-940A-9B615FF8B72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D003AF39-29E3-1C4D-974A-65A8DDAC99FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28080" yWindow="12800" windowWidth="17060" windowHeight="19400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma de Actividades" sheetId="2" r:id="rId1"/>
-    <sheet name="Sprints de Desarrollo" sheetId="4" r:id="rId2"/>
-    <sheet name="Matriz RACI" sheetId="5" r:id="rId3"/>
-    <sheet name="Matriz de Comunicaciones" sheetId="6" r:id="rId4"/>
+    <sheet name="Cronograma de Actividades con S" sheetId="7" r:id="rId2"/>
+    <sheet name="Sprints de Desarrollo" sheetId="4" r:id="rId3"/>
+    <sheet name="Matriz RACI" sheetId="5" r:id="rId4"/>
+    <sheet name="Matriz de Comunicaciones" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="318">
   <si>
     <t>TÍTULO DEL PROYECTO</t>
   </si>
@@ -720,6 +723,9 @@
     <t>¿Por qué?</t>
   </si>
   <si>
+    <t>Destinatario</t>
+  </si>
+  <si>
     <t>Método de Comunicación</t>
   </si>
   <si>
@@ -867,6 +873,9 @@
     <t>Cliente, Equipo Técnico</t>
   </si>
   <si>
+    <t>Todo el equipo</t>
+  </si>
+  <si>
     <t>Chat/Correo</t>
   </si>
   <si>
@@ -930,13 +939,58 @@
     <t>Semanal</t>
   </si>
   <si>
-    <t>Equipo involucrado</t>
-  </si>
-  <si>
-    <t>Equipo de Desarrollo</t>
-  </si>
-  <si>
-    <t>¿A quién va dirigido?</t>
+    <t>Análisis de Requisitos de Clientes</t>
+  </si>
+  <si>
+    <t>Identificación de las Historias de Usuario de Clientes</t>
+  </si>
+  <si>
+    <t>Diseño de la Interfaz del Usuario para Clientes</t>
+  </si>
+  <si>
+    <t>Desarrollo e Implementación CRUD para clientes</t>
+  </si>
+  <si>
+    <t>Creación de Casos de Prueba para Gestión de Clientes</t>
+  </si>
+  <si>
+    <t>Corrección de Errores y Validación de Gestión de Clientes</t>
+  </si>
+  <si>
+    <t>Análisis de Requisitos de Productos</t>
+  </si>
+  <si>
+    <t>Identificación de las Historias de Usuario de Productos</t>
+  </si>
+  <si>
+    <t>Diseño de la Interfaz del Usuario para Productos</t>
+  </si>
+  <si>
+    <t>Desarrollo e Implementación CRUD para Productos</t>
+  </si>
+  <si>
+    <t>Creación de Casos de Prueba para Gestión de Productos</t>
+  </si>
+  <si>
+    <t>Corrección de Errores y Validación de Gestión de Productos</t>
+  </si>
+  <si>
+    <t>Análisis de Requisitos de Proveedores</t>
+  </si>
+  <si>
+    <t>Identificación de las Historias de Usuario de Proveedores</t>
+  </si>
+  <si>
+    <t>Diseño de la Interfaz del Usuario para Proveedores</t>
+  </si>
+  <si>
+    <t>Desarrollo e Implementación CRUD para Proveedores</t>
+  </si>
+  <si>
+    <t>Creación de Casos de Prueba para Gestión de Proveedores</t>
+  </si>
+  <si>
+    <t>Corrección de Errores y Validación de Gestión de Proveedores</t>
   </si>
 </sst>
 </file>
@@ -947,7 +1001,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1079,8 +1133,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1303,8 +1371,26 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44546A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF161616"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -2014,13 +2100,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2297,10 +2411,62 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2325,68 +2491,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2407,6 +2520,12 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2632,18 +2751,18 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="30.296875" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.796875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="113" width="4.19921875" customWidth="1"/>
+    <col min="9" max="113" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:113" s="34" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:113" s="34" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="35" t="s">
         <v>59</v>
       </c>
@@ -2662,7 +2781,7 @@
       <c r="R1" s="36"/>
       <c r="S1" s="36"/>
     </row>
-    <row r="2" spans="2:113" s="1" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:113" s="1" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:113" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:113" s="1" customFormat="1" ht="35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>61</v>
       </c>
@@ -2678,7 +2797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:113" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:113" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
@@ -2686,10 +2805,10 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="5" spans="2:113" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:113" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="2:113" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2697,127 +2816,127 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="148" t="s">
+      <c r="I6" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="151" t="s">
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="149"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="149"/>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="149"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="149"/>
-      <c r="AJ6" s="149"/>
-      <c r="AK6" s="149"/>
-      <c r="AL6" s="150"/>
-      <c r="AM6" s="152" t="s">
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125"/>
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="AN6" s="149"/>
-      <c r="AO6" s="149"/>
-      <c r="AP6" s="149"/>
-      <c r="AQ6" s="149"/>
-      <c r="AR6" s="149"/>
-      <c r="AS6" s="149"/>
-      <c r="AT6" s="149"/>
-      <c r="AU6" s="149"/>
-      <c r="AV6" s="149"/>
-      <c r="AW6" s="149"/>
-      <c r="AX6" s="149"/>
-      <c r="AY6" s="149"/>
-      <c r="AZ6" s="149"/>
-      <c r="BA6" s="150"/>
-      <c r="BB6" s="153" t="s">
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125"/>
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125"/>
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125"/>
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="126"/>
+      <c r="BB6" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="BC6" s="149"/>
-      <c r="BD6" s="149"/>
-      <c r="BE6" s="149"/>
-      <c r="BF6" s="149"/>
-      <c r="BG6" s="149"/>
-      <c r="BH6" s="149"/>
-      <c r="BI6" s="149"/>
-      <c r="BJ6" s="149"/>
-      <c r="BK6" s="149"/>
-      <c r="BL6" s="149"/>
-      <c r="BM6" s="149"/>
-      <c r="BN6" s="149"/>
-      <c r="BO6" s="149"/>
-      <c r="BP6" s="150"/>
-      <c r="BQ6" s="138" t="s">
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125"/>
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="125"/>
+      <c r="BJ6" s="125"/>
+      <c r="BK6" s="125"/>
+      <c r="BL6" s="125"/>
+      <c r="BM6" s="125"/>
+      <c r="BN6" s="125"/>
+      <c r="BO6" s="125"/>
+      <c r="BP6" s="126"/>
+      <c r="BQ6" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="BR6" s="139"/>
-      <c r="BS6" s="139"/>
-      <c r="BT6" s="139"/>
-      <c r="BU6" s="139"/>
-      <c r="BV6" s="139"/>
-      <c r="BW6" s="139"/>
-      <c r="BX6" s="139"/>
-      <c r="BY6" s="139"/>
-      <c r="BZ6" s="139"/>
-      <c r="CA6" s="139"/>
-      <c r="CB6" s="139"/>
-      <c r="CC6" s="139"/>
-      <c r="CD6" s="139"/>
-      <c r="CE6" s="140"/>
-      <c r="CF6" s="125" t="s">
+      <c r="BR6" s="141"/>
+      <c r="BS6" s="141"/>
+      <c r="BT6" s="141"/>
+      <c r="BU6" s="141"/>
+      <c r="BV6" s="141"/>
+      <c r="BW6" s="141"/>
+      <c r="BX6" s="141"/>
+      <c r="BY6" s="141"/>
+      <c r="BZ6" s="141"/>
+      <c r="CA6" s="141"/>
+      <c r="CB6" s="141"/>
+      <c r="CC6" s="141"/>
+      <c r="CD6" s="141"/>
+      <c r="CE6" s="142"/>
+      <c r="CF6" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="CG6" s="126"/>
-      <c r="CH6" s="126"/>
-      <c r="CI6" s="126"/>
-      <c r="CJ6" s="126"/>
-      <c r="CK6" s="126"/>
-      <c r="CL6" s="126"/>
-      <c r="CM6" s="126"/>
-      <c r="CN6" s="126"/>
-      <c r="CO6" s="126"/>
-      <c r="CP6" s="126"/>
-      <c r="CQ6" s="126"/>
-      <c r="CR6" s="126"/>
-      <c r="CS6" s="126"/>
-      <c r="CT6" s="127"/>
-      <c r="CU6" s="132" t="s">
+      <c r="CG6" s="148"/>
+      <c r="CH6" s="148"/>
+      <c r="CI6" s="148"/>
+      <c r="CJ6" s="148"/>
+      <c r="CK6" s="148"/>
+      <c r="CL6" s="148"/>
+      <c r="CM6" s="148"/>
+      <c r="CN6" s="148"/>
+      <c r="CO6" s="148"/>
+      <c r="CP6" s="148"/>
+      <c r="CQ6" s="148"/>
+      <c r="CR6" s="148"/>
+      <c r="CS6" s="148"/>
+      <c r="CT6" s="149"/>
+      <c r="CU6" s="154" t="s">
         <v>218</v>
       </c>
-      <c r="CV6" s="133"/>
-      <c r="CW6" s="133"/>
-      <c r="CX6" s="133"/>
-      <c r="CY6" s="133"/>
-      <c r="CZ6" s="133"/>
-      <c r="DA6" s="133"/>
-      <c r="DB6" s="133"/>
-      <c r="DC6" s="133"/>
-      <c r="DD6" s="133"/>
-      <c r="DE6" s="133"/>
-      <c r="DF6" s="133"/>
-      <c r="DG6" s="133"/>
-      <c r="DH6" s="133"/>
-      <c r="DI6" s="134"/>
-    </row>
-    <row r="7" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CV6" s="155"/>
+      <c r="CW6" s="155"/>
+      <c r="CX6" s="155"/>
+      <c r="CY6" s="155"/>
+      <c r="CZ6" s="155"/>
+      <c r="DA6" s="155"/>
+      <c r="DB6" s="155"/>
+      <c r="DC6" s="155"/>
+      <c r="DD6" s="155"/>
+      <c r="DE6" s="155"/>
+      <c r="DF6" s="155"/>
+      <c r="DG6" s="155"/>
+      <c r="DH6" s="155"/>
+      <c r="DI6" s="156"/>
+    </row>
+    <row r="7" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2839,155 +2958,155 @@
       <c r="H7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="155" t="s">
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="155" t="s">
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="156" t="s">
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="157" t="s">
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="147"/>
-      <c r="AH7" s="157" t="s">
+      <c r="AD7" s="131"/>
+      <c r="AE7" s="131"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="132"/>
+      <c r="AH7" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="147"/>
-      <c r="AM7" s="158" t="s">
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="146"/>
-      <c r="AO7" s="146"/>
-      <c r="AP7" s="146"/>
-      <c r="AQ7" s="147"/>
-      <c r="AR7" s="159" t="s">
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="132"/>
+      <c r="AR7" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="AS7" s="146"/>
-      <c r="AT7" s="146"/>
-      <c r="AU7" s="146"/>
-      <c r="AV7" s="147"/>
-      <c r="AW7" s="159" t="s">
+      <c r="AS7" s="131"/>
+      <c r="AT7" s="131"/>
+      <c r="AU7" s="131"/>
+      <c r="AV7" s="132"/>
+      <c r="AW7" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="AX7" s="146"/>
-      <c r="AY7" s="146"/>
-      <c r="AZ7" s="146"/>
-      <c r="BA7" s="147"/>
-      <c r="BB7" s="160" t="s">
+      <c r="AX7" s="131"/>
+      <c r="AY7" s="131"/>
+      <c r="AZ7" s="131"/>
+      <c r="BA7" s="132"/>
+      <c r="BB7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="BC7" s="146"/>
-      <c r="BD7" s="146"/>
-      <c r="BE7" s="146"/>
-      <c r="BF7" s="147"/>
-      <c r="BG7" s="145" t="s">
+      <c r="BC7" s="131"/>
+      <c r="BD7" s="131"/>
+      <c r="BE7" s="131"/>
+      <c r="BF7" s="132"/>
+      <c r="BG7" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="BH7" s="146"/>
-      <c r="BI7" s="146"/>
-      <c r="BJ7" s="146"/>
-      <c r="BK7" s="147"/>
-      <c r="BL7" s="145" t="s">
+      <c r="BH7" s="131"/>
+      <c r="BI7" s="131"/>
+      <c r="BJ7" s="131"/>
+      <c r="BK7" s="132"/>
+      <c r="BL7" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="146"/>
-      <c r="BN7" s="146"/>
-      <c r="BO7" s="146"/>
-      <c r="BP7" s="147"/>
-      <c r="BQ7" s="141" t="s">
+      <c r="BM7" s="131"/>
+      <c r="BN7" s="131"/>
+      <c r="BO7" s="131"/>
+      <c r="BP7" s="132"/>
+      <c r="BQ7" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="BR7" s="142"/>
-      <c r="BS7" s="142"/>
-      <c r="BT7" s="142"/>
-      <c r="BU7" s="143"/>
-      <c r="BV7" s="144" t="s">
+      <c r="BR7" s="144"/>
+      <c r="BS7" s="144"/>
+      <c r="BT7" s="144"/>
+      <c r="BU7" s="145"/>
+      <c r="BV7" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="BW7" s="142"/>
-      <c r="BX7" s="142"/>
-      <c r="BY7" s="142"/>
-      <c r="BZ7" s="143"/>
-      <c r="CA7" s="144" t="s">
+      <c r="BW7" s="144"/>
+      <c r="BX7" s="144"/>
+      <c r="BY7" s="144"/>
+      <c r="BZ7" s="145"/>
+      <c r="CA7" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="CB7" s="142"/>
-      <c r="CC7" s="142"/>
-      <c r="CD7" s="142"/>
-      <c r="CE7" s="143"/>
-      <c r="CF7" s="128" t="s">
+      <c r="CB7" s="144"/>
+      <c r="CC7" s="144"/>
+      <c r="CD7" s="144"/>
+      <c r="CE7" s="145"/>
+      <c r="CF7" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="129"/>
-      <c r="CH7" s="129"/>
-      <c r="CI7" s="129"/>
-      <c r="CJ7" s="130"/>
-      <c r="CK7" s="131" t="s">
+      <c r="CG7" s="151"/>
+      <c r="CH7" s="151"/>
+      <c r="CI7" s="151"/>
+      <c r="CJ7" s="152"/>
+      <c r="CK7" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="CL7" s="129"/>
-      <c r="CM7" s="129"/>
-      <c r="CN7" s="129"/>
-      <c r="CO7" s="130"/>
-      <c r="CP7" s="131" t="s">
+      <c r="CL7" s="151"/>
+      <c r="CM7" s="151"/>
+      <c r="CN7" s="151"/>
+      <c r="CO7" s="152"/>
+      <c r="CP7" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="CQ7" s="129"/>
-      <c r="CR7" s="129"/>
-      <c r="CS7" s="129"/>
-      <c r="CT7" s="130"/>
-      <c r="CU7" s="135" t="s">
+      <c r="CQ7" s="151"/>
+      <c r="CR7" s="151"/>
+      <c r="CS7" s="151"/>
+      <c r="CT7" s="152"/>
+      <c r="CU7" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="CV7" s="136"/>
-      <c r="CW7" s="136"/>
-      <c r="CX7" s="136"/>
-      <c r="CY7" s="137"/>
-      <c r="CZ7" s="135" t="s">
+      <c r="CV7" s="158"/>
+      <c r="CW7" s="158"/>
+      <c r="CX7" s="158"/>
+      <c r="CY7" s="159"/>
+      <c r="CZ7" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="DA7" s="136"/>
-      <c r="DB7" s="136"/>
-      <c r="DC7" s="136"/>
-      <c r="DD7" s="137"/>
-      <c r="DE7" s="135" t="s">
+      <c r="DA7" s="158"/>
+      <c r="DB7" s="158"/>
+      <c r="DC7" s="158"/>
+      <c r="DD7" s="159"/>
+      <c r="DE7" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="DF7" s="136"/>
-      <c r="DG7" s="136"/>
-      <c r="DH7" s="136"/>
-      <c r="DI7" s="137"/>
-    </row>
-    <row r="8" spans="2:113" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="DF7" s="158"/>
+      <c r="DG7" s="158"/>
+      <c r="DH7" s="158"/>
+      <c r="DI7" s="159"/>
+    </row>
+    <row r="8" spans="2:113" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
@@ -3430,7 +3549,7 @@
         <v>Wed</v>
       </c>
     </row>
-    <row r="9" spans="2:113" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:113" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="37">
         <v>1</v>
       </c>
@@ -3866,7 +3985,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="10" spans="2:113" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -3995,7 +4114,7 @@
       <c r="DH10" s="18"/>
       <c r="DI10" s="23"/>
     </row>
-    <row r="11" spans="2:113" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41">
         <v>1.2</v>
       </c>
@@ -4124,7 +4243,7 @@
       <c r="DH11" s="18"/>
       <c r="DI11" s="23"/>
     </row>
-    <row r="12" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="41">
         <v>1.3</v>
       </c>
@@ -4253,7 +4372,7 @@
       <c r="DH12" s="18"/>
       <c r="DI12" s="23"/>
     </row>
-    <row r="13" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="41">
         <v>1.4</v>
       </c>
@@ -4382,7 +4501,7 @@
       <c r="DH13" s="18"/>
       <c r="DI13" s="23"/>
     </row>
-    <row r="14" spans="2:113" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:113" ht="28" x14ac:dyDescent="0.2">
       <c r="B14" s="41">
         <v>1.5</v>
       </c>
@@ -4511,7 +4630,7 @@
       <c r="DH14" s="18"/>
       <c r="DI14" s="23"/>
     </row>
-    <row r="15" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="41">
         <v>2</v>
       </c>
@@ -4632,7 +4751,7 @@
       <c r="DH15" s="14"/>
       <c r="DI15" s="16"/>
     </row>
-    <row r="16" spans="2:113" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:113" ht="28" x14ac:dyDescent="0.2">
       <c r="B16" s="41">
         <v>2.1</v>
       </c>
@@ -4761,7 +4880,7 @@
       <c r="DH16" s="18"/>
       <c r="DI16" s="23"/>
     </row>
-    <row r="17" spans="2:113" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:113" ht="28" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>2.2000000000000002</v>
       </c>
@@ -4890,7 +5009,7 @@
       <c r="DH17" s="18"/>
       <c r="DI17" s="23"/>
     </row>
-    <row r="18" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>2.2999999999999998</v>
       </c>
@@ -5019,7 +5138,7 @@
       <c r="DH18" s="18"/>
       <c r="DI18" s="23"/>
     </row>
-    <row r="19" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>3</v>
       </c>
@@ -5140,7 +5259,7 @@
       <c r="DH19" s="14"/>
       <c r="DI19" s="16"/>
     </row>
-    <row r="20" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>3.1</v>
       </c>
@@ -5269,7 +5388,7 @@
       <c r="DH20" s="18"/>
       <c r="DI20" s="23"/>
     </row>
-    <row r="21" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>3.2</v>
       </c>
@@ -5400,7 +5519,7 @@
       <c r="DH21" s="91"/>
       <c r="DI21" s="23"/>
     </row>
-    <row r="22" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>3.3</v>
       </c>
@@ -5531,7 +5650,7 @@
       <c r="DH22" s="18"/>
       <c r="DI22" s="23"/>
     </row>
-    <row r="23" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>4</v>
       </c>
@@ -5652,7 +5771,7 @@
       <c r="DH23" s="14"/>
       <c r="DI23" s="16"/>
     </row>
-    <row r="24" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>4.0999999999999996</v>
       </c>
@@ -5781,7 +5900,7 @@
       <c r="DH24" s="18"/>
       <c r="DI24" s="18"/>
     </row>
-    <row r="25" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>4.2</v>
       </c>
@@ -5911,7 +6030,7 @@
       <c r="DH25" s="18"/>
       <c r="DI25" s="18"/>
     </row>
-    <row r="26" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>4.3</v>
       </c>
@@ -6042,7 +6161,7 @@
       <c r="DH26" s="18"/>
       <c r="DI26" s="18"/>
     </row>
-    <row r="27" spans="2:113" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="82">
         <v>4.4000000000000004</v>
       </c>
@@ -6173,7 +6292,7 @@
       <c r="DH27" s="18"/>
       <c r="DI27" s="18"/>
     </row>
-    <row r="28" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="83">
         <v>5</v>
       </c>
@@ -6294,7 +6413,7 @@
       <c r="DH28" s="14"/>
       <c r="DI28" s="16"/>
     </row>
-    <row r="29" spans="2:113" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="83">
         <v>5.0999999999999996</v>
       </c>
@@ -6425,7 +6544,7 @@
       <c r="DH29" s="26"/>
       <c r="DI29" s="31"/>
     </row>
-    <row r="30" spans="2:113" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="83">
         <v>5.2</v>
       </c>
@@ -6556,11 +6675,24 @@
       <c r="DH30" s="26"/>
       <c r="DI30" s="31"/>
     </row>
-    <row r="35" spans="3:3" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="CF6:CT6"/>
+    <mergeCell ref="CF7:CJ7"/>
+    <mergeCell ref="CK7:CO7"/>
+    <mergeCell ref="CP7:CT7"/>
+    <mergeCell ref="CU6:DI6"/>
+    <mergeCell ref="CU7:CY7"/>
+    <mergeCell ref="CZ7:DD7"/>
+    <mergeCell ref="DE7:DI7"/>
+    <mergeCell ref="BQ6:CE6"/>
+    <mergeCell ref="BQ7:BU7"/>
+    <mergeCell ref="BV7:BZ7"/>
+    <mergeCell ref="CA7:CE7"/>
+    <mergeCell ref="BL7:BP7"/>
     <mergeCell ref="I6:W6"/>
     <mergeCell ref="X6:AL6"/>
     <mergeCell ref="AM6:BA6"/>
@@ -6576,19 +6708,6 @@
     <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="BB7:BF7"/>
     <mergeCell ref="BG7:BK7"/>
-    <mergeCell ref="BQ6:CE6"/>
-    <mergeCell ref="BQ7:BU7"/>
-    <mergeCell ref="BV7:BZ7"/>
-    <mergeCell ref="CA7:CE7"/>
-    <mergeCell ref="BL7:BP7"/>
-    <mergeCell ref="CF6:CT6"/>
-    <mergeCell ref="CF7:CJ7"/>
-    <mergeCell ref="CK7:CO7"/>
-    <mergeCell ref="CP7:CT7"/>
-    <mergeCell ref="CU6:DI6"/>
-    <mergeCell ref="CU7:CY7"/>
-    <mergeCell ref="CZ7:DD7"/>
-    <mergeCell ref="DE7:DI7"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H30">
     <cfRule type="dataBar" priority="12">
@@ -6605,6 +6724,5803 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F25DFBA-7E06-B242-A142-3575F2BB62A3}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:DI49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CY44" sqref="CY44:DA44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="113" width="4.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:113" s="34" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+    </row>
+    <row r="2" spans="2:113" s="1" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:113" s="1" customFormat="1" ht="35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:113" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="66">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:113" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125"/>
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125"/>
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125"/>
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125"/>
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="126"/>
+      <c r="BB6" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125"/>
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="125"/>
+      <c r="BJ6" s="125"/>
+      <c r="BK6" s="125"/>
+      <c r="BL6" s="125"/>
+      <c r="BM6" s="125"/>
+      <c r="BN6" s="125"/>
+      <c r="BO6" s="125"/>
+      <c r="BP6" s="126"/>
+      <c r="BQ6" s="140" t="s">
+        <v>216</v>
+      </c>
+      <c r="BR6" s="141"/>
+      <c r="BS6" s="141"/>
+      <c r="BT6" s="141"/>
+      <c r="BU6" s="141"/>
+      <c r="BV6" s="141"/>
+      <c r="BW6" s="141"/>
+      <c r="BX6" s="141"/>
+      <c r="BY6" s="141"/>
+      <c r="BZ6" s="141"/>
+      <c r="CA6" s="141"/>
+      <c r="CB6" s="141"/>
+      <c r="CC6" s="141"/>
+      <c r="CD6" s="141"/>
+      <c r="CE6" s="142"/>
+      <c r="CF6" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="CG6" s="148"/>
+      <c r="CH6" s="148"/>
+      <c r="CI6" s="148"/>
+      <c r="CJ6" s="148"/>
+      <c r="CK6" s="148"/>
+      <c r="CL6" s="148"/>
+      <c r="CM6" s="148"/>
+      <c r="CN6" s="148"/>
+      <c r="CO6" s="148"/>
+      <c r="CP6" s="148"/>
+      <c r="CQ6" s="148"/>
+      <c r="CR6" s="148"/>
+      <c r="CS6" s="148"/>
+      <c r="CT6" s="149"/>
+      <c r="CU6" s="154" t="s">
+        <v>218</v>
+      </c>
+      <c r="CV6" s="155"/>
+      <c r="CW6" s="155"/>
+      <c r="CX6" s="155"/>
+      <c r="CY6" s="155"/>
+      <c r="CZ6" s="155"/>
+      <c r="DA6" s="155"/>
+      <c r="DB6" s="155"/>
+      <c r="DC6" s="155"/>
+      <c r="DD6" s="155"/>
+      <c r="DE6" s="155"/>
+      <c r="DF6" s="155"/>
+      <c r="DG6" s="155"/>
+      <c r="DH6" s="155"/>
+      <c r="DI6" s="156"/>
+    </row>
+    <row r="7" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="133" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="131"/>
+      <c r="AE7" s="131"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="132"/>
+      <c r="AH7" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="132"/>
+      <c r="AR7" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS7" s="131"/>
+      <c r="AT7" s="131"/>
+      <c r="AU7" s="131"/>
+      <c r="AV7" s="132"/>
+      <c r="AW7" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="131"/>
+      <c r="AY7" s="131"/>
+      <c r="AZ7" s="131"/>
+      <c r="BA7" s="132"/>
+      <c r="BB7" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC7" s="131"/>
+      <c r="BD7" s="131"/>
+      <c r="BE7" s="131"/>
+      <c r="BF7" s="132"/>
+      <c r="BG7" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH7" s="131"/>
+      <c r="BI7" s="131"/>
+      <c r="BJ7" s="131"/>
+      <c r="BK7" s="132"/>
+      <c r="BL7" s="139" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM7" s="131"/>
+      <c r="BN7" s="131"/>
+      <c r="BO7" s="131"/>
+      <c r="BP7" s="132"/>
+      <c r="BQ7" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR7" s="144"/>
+      <c r="BS7" s="144"/>
+      <c r="BT7" s="144"/>
+      <c r="BU7" s="145"/>
+      <c r="BV7" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW7" s="144"/>
+      <c r="BX7" s="144"/>
+      <c r="BY7" s="144"/>
+      <c r="BZ7" s="145"/>
+      <c r="CA7" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="CB7" s="144"/>
+      <c r="CC7" s="144"/>
+      <c r="CD7" s="144"/>
+      <c r="CE7" s="145"/>
+      <c r="CF7" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="CG7" s="151"/>
+      <c r="CH7" s="151"/>
+      <c r="CI7" s="151"/>
+      <c r="CJ7" s="152"/>
+      <c r="CK7" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="CL7" s="151"/>
+      <c r="CM7" s="151"/>
+      <c r="CN7" s="151"/>
+      <c r="CO7" s="152"/>
+      <c r="CP7" s="153" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ7" s="151"/>
+      <c r="CR7" s="151"/>
+      <c r="CS7" s="151"/>
+      <c r="CT7" s="152"/>
+      <c r="CU7" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="CV7" s="158"/>
+      <c r="CW7" s="158"/>
+      <c r="CX7" s="158"/>
+      <c r="CY7" s="159"/>
+      <c r="CZ7" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="DA7" s="158"/>
+      <c r="DB7" s="158"/>
+      <c r="DC7" s="158"/>
+      <c r="DD7" s="159"/>
+      <c r="DE7" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF7" s="158"/>
+      <c r="DG7" s="158"/>
+      <c r="DH7" s="158"/>
+      <c r="DI7" s="159"/>
+    </row>
+    <row r="8" spans="2:113" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="12" t="str">
+        <f>TEXT(I9,"ddd")</f>
+        <v>Thu</v>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f t="shared" ref="J8:BU8" si="0">TEXT(J9,"ddd")</f>
+        <v>Fri</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="P8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="Q8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="R8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="S8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="U8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="V8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="W8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="X8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="Y8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="Z8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="AA8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="AB8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="AC8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="AD8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="AE8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="AF8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="AG8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="AH8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="AI8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="AJ8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="AK8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="AL8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="AM8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="AN8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="AO8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="AP8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="AQ8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="AR8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="AS8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="AT8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="AU8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="AV8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="AW8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="AX8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="AY8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="AZ8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="BA8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="BB8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="BC8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="BD8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="BE8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="BF8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="BG8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="BH8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="BI8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="BJ8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="BK8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="BL8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="BM8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="BN8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="BO8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="BP8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="BQ8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="BR8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="BS8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="BT8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="BU8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="BV8" s="12" t="str">
+        <f t="shared" ref="BV8:DI8" si="1">TEXT(BV9,"ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="BW8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sun</v>
+      </c>
+      <c r="BX8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Mon</v>
+      </c>
+      <c r="BY8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tue</v>
+      </c>
+      <c r="BZ8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Wed</v>
+      </c>
+      <c r="CA8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Thu</v>
+      </c>
+      <c r="CB8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Fri</v>
+      </c>
+      <c r="CC8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sat</v>
+      </c>
+      <c r="CD8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sun</v>
+      </c>
+      <c r="CE8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Mon</v>
+      </c>
+      <c r="CF8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tue</v>
+      </c>
+      <c r="CG8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Wed</v>
+      </c>
+      <c r="CH8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Thu</v>
+      </c>
+      <c r="CI8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Fri</v>
+      </c>
+      <c r="CJ8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sat</v>
+      </c>
+      <c r="CK8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sun</v>
+      </c>
+      <c r="CL8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Mon</v>
+      </c>
+      <c r="CM8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tue</v>
+      </c>
+      <c r="CN8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Wed</v>
+      </c>
+      <c r="CO8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Thu</v>
+      </c>
+      <c r="CP8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Fri</v>
+      </c>
+      <c r="CQ8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sat</v>
+      </c>
+      <c r="CR8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sun</v>
+      </c>
+      <c r="CS8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Mon</v>
+      </c>
+      <c r="CT8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tue</v>
+      </c>
+      <c r="CU8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Wed</v>
+      </c>
+      <c r="CV8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Thu</v>
+      </c>
+      <c r="CW8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Fri</v>
+      </c>
+      <c r="CX8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sat</v>
+      </c>
+      <c r="CY8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sun</v>
+      </c>
+      <c r="CZ8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Mon</v>
+      </c>
+      <c r="DA8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tue</v>
+      </c>
+      <c r="DB8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Wed</v>
+      </c>
+      <c r="DC8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Thu</v>
+      </c>
+      <c r="DD8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Fri</v>
+      </c>
+      <c r="DE8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sat</v>
+      </c>
+      <c r="DF8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sun</v>
+      </c>
+      <c r="DG8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Mon</v>
+      </c>
+      <c r="DH8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tue</v>
+      </c>
+      <c r="DI8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Wed</v>
+      </c>
+    </row>
+    <row r="9" spans="2:113" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <v>1</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="40" t="str">
+        <f t="shared" ref="G9:G17" si="2">IF(F9-E9=0,"",F9-E9)</f>
+        <v/>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="78">
+        <f>E10</f>
+        <v>45246</v>
+      </c>
+      <c r="J9" s="79">
+        <f>I9+1</f>
+        <v>45247</v>
+      </c>
+      <c r="K9" s="79">
+        <f t="shared" ref="K9:BV9" si="3">J9+1</f>
+        <v>45248</v>
+      </c>
+      <c r="L9" s="79">
+        <f t="shared" si="3"/>
+        <v>45249</v>
+      </c>
+      <c r="M9" s="79">
+        <f t="shared" si="3"/>
+        <v>45250</v>
+      </c>
+      <c r="N9" s="79">
+        <f t="shared" si="3"/>
+        <v>45251</v>
+      </c>
+      <c r="O9" s="79">
+        <f t="shared" si="3"/>
+        <v>45252</v>
+      </c>
+      <c r="P9" s="79">
+        <f t="shared" si="3"/>
+        <v>45253</v>
+      </c>
+      <c r="Q9" s="79">
+        <f t="shared" si="3"/>
+        <v>45254</v>
+      </c>
+      <c r="R9" s="79">
+        <f t="shared" si="3"/>
+        <v>45255</v>
+      </c>
+      <c r="S9" s="79">
+        <f t="shared" si="3"/>
+        <v>45256</v>
+      </c>
+      <c r="T9" s="79">
+        <f t="shared" si="3"/>
+        <v>45257</v>
+      </c>
+      <c r="U9" s="79">
+        <f t="shared" si="3"/>
+        <v>45258</v>
+      </c>
+      <c r="V9" s="79">
+        <f t="shared" si="3"/>
+        <v>45259</v>
+      </c>
+      <c r="W9" s="79">
+        <f t="shared" si="3"/>
+        <v>45260</v>
+      </c>
+      <c r="X9" s="79">
+        <f t="shared" si="3"/>
+        <v>45261</v>
+      </c>
+      <c r="Y9" s="79">
+        <f t="shared" si="3"/>
+        <v>45262</v>
+      </c>
+      <c r="Z9" s="79">
+        <f t="shared" si="3"/>
+        <v>45263</v>
+      </c>
+      <c r="AA9" s="79">
+        <f t="shared" si="3"/>
+        <v>45264</v>
+      </c>
+      <c r="AB9" s="79">
+        <f t="shared" si="3"/>
+        <v>45265</v>
+      </c>
+      <c r="AC9" s="79">
+        <f t="shared" si="3"/>
+        <v>45266</v>
+      </c>
+      <c r="AD9" s="79">
+        <f t="shared" si="3"/>
+        <v>45267</v>
+      </c>
+      <c r="AE9" s="79">
+        <f t="shared" si="3"/>
+        <v>45268</v>
+      </c>
+      <c r="AF9" s="79">
+        <f t="shared" si="3"/>
+        <v>45269</v>
+      </c>
+      <c r="AG9" s="79">
+        <f t="shared" si="3"/>
+        <v>45270</v>
+      </c>
+      <c r="AH9" s="79">
+        <f t="shared" si="3"/>
+        <v>45271</v>
+      </c>
+      <c r="AI9" s="79">
+        <f t="shared" si="3"/>
+        <v>45272</v>
+      </c>
+      <c r="AJ9" s="79">
+        <f t="shared" si="3"/>
+        <v>45273</v>
+      </c>
+      <c r="AK9" s="79">
+        <f t="shared" si="3"/>
+        <v>45274</v>
+      </c>
+      <c r="AL9" s="79">
+        <f t="shared" si="3"/>
+        <v>45275</v>
+      </c>
+      <c r="AM9" s="79">
+        <f t="shared" si="3"/>
+        <v>45276</v>
+      </c>
+      <c r="AN9" s="79">
+        <f t="shared" si="3"/>
+        <v>45277</v>
+      </c>
+      <c r="AO9" s="79">
+        <f t="shared" si="3"/>
+        <v>45278</v>
+      </c>
+      <c r="AP9" s="79">
+        <f t="shared" si="3"/>
+        <v>45279</v>
+      </c>
+      <c r="AQ9" s="79">
+        <f t="shared" si="3"/>
+        <v>45280</v>
+      </c>
+      <c r="AR9" s="79">
+        <f t="shared" si="3"/>
+        <v>45281</v>
+      </c>
+      <c r="AS9" s="79">
+        <f t="shared" si="3"/>
+        <v>45282</v>
+      </c>
+      <c r="AT9" s="79">
+        <f t="shared" si="3"/>
+        <v>45283</v>
+      </c>
+      <c r="AU9" s="79">
+        <f t="shared" si="3"/>
+        <v>45284</v>
+      </c>
+      <c r="AV9" s="79">
+        <f t="shared" si="3"/>
+        <v>45285</v>
+      </c>
+      <c r="AW9" s="79">
+        <f t="shared" si="3"/>
+        <v>45286</v>
+      </c>
+      <c r="AX9" s="79">
+        <f t="shared" si="3"/>
+        <v>45287</v>
+      </c>
+      <c r="AY9" s="79">
+        <f t="shared" si="3"/>
+        <v>45288</v>
+      </c>
+      <c r="AZ9" s="79">
+        <f t="shared" si="3"/>
+        <v>45289</v>
+      </c>
+      <c r="BA9" s="79">
+        <f t="shared" si="3"/>
+        <v>45290</v>
+      </c>
+      <c r="BB9" s="79">
+        <f t="shared" si="3"/>
+        <v>45291</v>
+      </c>
+      <c r="BC9" s="79">
+        <f t="shared" si="3"/>
+        <v>45292</v>
+      </c>
+      <c r="BD9" s="79">
+        <f t="shared" si="3"/>
+        <v>45293</v>
+      </c>
+      <c r="BE9" s="79">
+        <f t="shared" si="3"/>
+        <v>45294</v>
+      </c>
+      <c r="BF9" s="79">
+        <f t="shared" si="3"/>
+        <v>45295</v>
+      </c>
+      <c r="BG9" s="79">
+        <f t="shared" si="3"/>
+        <v>45296</v>
+      </c>
+      <c r="BH9" s="79">
+        <f t="shared" si="3"/>
+        <v>45297</v>
+      </c>
+      <c r="BI9" s="79">
+        <f t="shared" si="3"/>
+        <v>45298</v>
+      </c>
+      <c r="BJ9" s="79">
+        <f t="shared" si="3"/>
+        <v>45299</v>
+      </c>
+      <c r="BK9" s="79">
+        <f t="shared" si="3"/>
+        <v>45300</v>
+      </c>
+      <c r="BL9" s="79">
+        <f t="shared" si="3"/>
+        <v>45301</v>
+      </c>
+      <c r="BM9" s="79">
+        <f t="shared" si="3"/>
+        <v>45302</v>
+      </c>
+      <c r="BN9" s="79">
+        <f t="shared" si="3"/>
+        <v>45303</v>
+      </c>
+      <c r="BO9" s="79">
+        <f t="shared" si="3"/>
+        <v>45304</v>
+      </c>
+      <c r="BP9" s="79">
+        <f t="shared" si="3"/>
+        <v>45305</v>
+      </c>
+      <c r="BQ9" s="79">
+        <f t="shared" si="3"/>
+        <v>45306</v>
+      </c>
+      <c r="BR9" s="79">
+        <f t="shared" si="3"/>
+        <v>45307</v>
+      </c>
+      <c r="BS9" s="79">
+        <f t="shared" si="3"/>
+        <v>45308</v>
+      </c>
+      <c r="BT9" s="79">
+        <f t="shared" si="3"/>
+        <v>45309</v>
+      </c>
+      <c r="BU9" s="79">
+        <f t="shared" si="3"/>
+        <v>45310</v>
+      </c>
+      <c r="BV9" s="79">
+        <f t="shared" si="3"/>
+        <v>45311</v>
+      </c>
+      <c r="BW9" s="79">
+        <f t="shared" ref="BW9:DI9" si="4">BV9+1</f>
+        <v>45312</v>
+      </c>
+      <c r="BX9" s="79">
+        <f t="shared" si="4"/>
+        <v>45313</v>
+      </c>
+      <c r="BY9" s="79">
+        <f t="shared" si="4"/>
+        <v>45314</v>
+      </c>
+      <c r="BZ9" s="79">
+        <f t="shared" si="4"/>
+        <v>45315</v>
+      </c>
+      <c r="CA9" s="79">
+        <f t="shared" si="4"/>
+        <v>45316</v>
+      </c>
+      <c r="CB9" s="79">
+        <f t="shared" si="4"/>
+        <v>45317</v>
+      </c>
+      <c r="CC9" s="79">
+        <f t="shared" si="4"/>
+        <v>45318</v>
+      </c>
+      <c r="CD9" s="79">
+        <f t="shared" si="4"/>
+        <v>45319</v>
+      </c>
+      <c r="CE9" s="79">
+        <f t="shared" si="4"/>
+        <v>45320</v>
+      </c>
+      <c r="CF9" s="79">
+        <f t="shared" si="4"/>
+        <v>45321</v>
+      </c>
+      <c r="CG9" s="79">
+        <f t="shared" si="4"/>
+        <v>45322</v>
+      </c>
+      <c r="CH9" s="79">
+        <f t="shared" si="4"/>
+        <v>45323</v>
+      </c>
+      <c r="CI9" s="79">
+        <f t="shared" si="4"/>
+        <v>45324</v>
+      </c>
+      <c r="CJ9" s="79">
+        <f t="shared" si="4"/>
+        <v>45325</v>
+      </c>
+      <c r="CK9" s="79">
+        <f t="shared" si="4"/>
+        <v>45326</v>
+      </c>
+      <c r="CL9" s="79">
+        <f t="shared" si="4"/>
+        <v>45327</v>
+      </c>
+      <c r="CM9" s="79">
+        <f t="shared" si="4"/>
+        <v>45328</v>
+      </c>
+      <c r="CN9" s="79">
+        <f t="shared" si="4"/>
+        <v>45329</v>
+      </c>
+      <c r="CO9" s="79">
+        <f t="shared" si="4"/>
+        <v>45330</v>
+      </c>
+      <c r="CP9" s="79">
+        <f t="shared" si="4"/>
+        <v>45331</v>
+      </c>
+      <c r="CQ9" s="79">
+        <f t="shared" si="4"/>
+        <v>45332</v>
+      </c>
+      <c r="CR9" s="79">
+        <f t="shared" si="4"/>
+        <v>45333</v>
+      </c>
+      <c r="CS9" s="79">
+        <f t="shared" si="4"/>
+        <v>45334</v>
+      </c>
+      <c r="CT9" s="79">
+        <f t="shared" si="4"/>
+        <v>45335</v>
+      </c>
+      <c r="CU9" s="79">
+        <f t="shared" si="4"/>
+        <v>45336</v>
+      </c>
+      <c r="CV9" s="79">
+        <f t="shared" si="4"/>
+        <v>45337</v>
+      </c>
+      <c r="CW9" s="79">
+        <f t="shared" si="4"/>
+        <v>45338</v>
+      </c>
+      <c r="CX9" s="79">
+        <f t="shared" si="4"/>
+        <v>45339</v>
+      </c>
+      <c r="CY9" s="79">
+        <f t="shared" si="4"/>
+        <v>45340</v>
+      </c>
+      <c r="CZ9" s="79">
+        <f t="shared" si="4"/>
+        <v>45341</v>
+      </c>
+      <c r="DA9" s="79">
+        <f t="shared" si="4"/>
+        <v>45342</v>
+      </c>
+      <c r="DB9" s="79">
+        <f t="shared" si="4"/>
+        <v>45343</v>
+      </c>
+      <c r="DC9" s="79">
+        <f t="shared" si="4"/>
+        <v>45344</v>
+      </c>
+      <c r="DD9" s="79">
+        <f t="shared" si="4"/>
+        <v>45345</v>
+      </c>
+      <c r="DE9" s="79">
+        <f t="shared" si="4"/>
+        <v>45346</v>
+      </c>
+      <c r="DF9" s="79">
+        <f t="shared" si="4"/>
+        <v>45347</v>
+      </c>
+      <c r="DG9" s="79">
+        <f t="shared" si="4"/>
+        <v>45348</v>
+      </c>
+      <c r="DH9" s="79">
+        <f t="shared" si="4"/>
+        <v>45349</v>
+      </c>
+      <c r="DI9" s="79">
+        <f t="shared" si="4"/>
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="66">
+        <v>45246</v>
+      </c>
+      <c r="F10" s="69">
+        <v>45250</v>
+      </c>
+      <c r="G10" s="71">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="54">
+        <v>1</v>
+      </c>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22"/>
+      <c r="BL10" s="18"/>
+      <c r="BM10" s="18"/>
+      <c r="BN10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="23"/>
+      <c r="BQ10" s="17"/>
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="18"/>
+      <c r="BT10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="85"/>
+      <c r="BW10" s="85"/>
+      <c r="BX10" s="85"/>
+      <c r="BY10" s="85"/>
+      <c r="BZ10" s="85"/>
+      <c r="CA10" s="18"/>
+      <c r="CB10" s="18"/>
+      <c r="CC10" s="18"/>
+      <c r="CD10" s="18"/>
+      <c r="CE10" s="23"/>
+      <c r="CF10" s="17"/>
+      <c r="CG10" s="18"/>
+      <c r="CH10" s="18"/>
+      <c r="CI10" s="18"/>
+      <c r="CJ10" s="18"/>
+      <c r="CK10" s="88"/>
+      <c r="CL10" s="88"/>
+      <c r="CM10" s="88"/>
+      <c r="CN10" s="88"/>
+      <c r="CO10" s="88"/>
+      <c r="CP10" s="18"/>
+      <c r="CQ10" s="18"/>
+      <c r="CR10" s="18"/>
+      <c r="CS10" s="18"/>
+      <c r="CT10" s="23"/>
+      <c r="CU10" s="17"/>
+      <c r="CV10" s="18"/>
+      <c r="CW10" s="18"/>
+      <c r="CX10" s="18"/>
+      <c r="CY10" s="18"/>
+      <c r="CZ10" s="93"/>
+      <c r="DA10" s="93"/>
+      <c r="DB10" s="93"/>
+      <c r="DC10" s="93"/>
+      <c r="DD10" s="93"/>
+      <c r="DE10" s="18"/>
+      <c r="DF10" s="18"/>
+      <c r="DG10" s="18"/>
+      <c r="DH10" s="18"/>
+      <c r="DI10" s="23"/>
+    </row>
+    <row r="11" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="66">
+        <f>F10</f>
+        <v>45250</v>
+      </c>
+      <c r="F11" s="69">
+        <f>E11+G11</f>
+        <v>45253</v>
+      </c>
+      <c r="G11" s="71">
+        <v>3</v>
+      </c>
+      <c r="H11" s="54">
+        <v>1</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="22"/>
+      <c r="BH11" s="22"/>
+      <c r="BI11" s="22"/>
+      <c r="BJ11" s="22"/>
+      <c r="BK11" s="22"/>
+      <c r="BL11" s="18"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="18"/>
+      <c r="BO11" s="18"/>
+      <c r="BP11" s="23"/>
+      <c r="BQ11" s="17"/>
+      <c r="BR11" s="18"/>
+      <c r="BS11" s="18"/>
+      <c r="BT11" s="18"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="85"/>
+      <c r="BW11" s="85"/>
+      <c r="BX11" s="85"/>
+      <c r="BY11" s="85"/>
+      <c r="BZ11" s="85"/>
+      <c r="CA11" s="18"/>
+      <c r="CB11" s="18"/>
+      <c r="CC11" s="18"/>
+      <c r="CD11" s="18"/>
+      <c r="CE11" s="23"/>
+      <c r="CF11" s="17"/>
+      <c r="CG11" s="18"/>
+      <c r="CH11" s="18"/>
+      <c r="CI11" s="18"/>
+      <c r="CJ11" s="18"/>
+      <c r="CK11" s="88"/>
+      <c r="CL11" s="88"/>
+      <c r="CM11" s="88"/>
+      <c r="CN11" s="88"/>
+      <c r="CO11" s="88"/>
+      <c r="CP11" s="18"/>
+      <c r="CQ11" s="18"/>
+      <c r="CR11" s="18"/>
+      <c r="CS11" s="18"/>
+      <c r="CT11" s="23"/>
+      <c r="CU11" s="17"/>
+      <c r="CV11" s="18"/>
+      <c r="CW11" s="18"/>
+      <c r="CX11" s="18"/>
+      <c r="CY11" s="18"/>
+      <c r="CZ11" s="93"/>
+      <c r="DA11" s="93"/>
+      <c r="DB11" s="93"/>
+      <c r="DC11" s="93"/>
+      <c r="DD11" s="93"/>
+      <c r="DE11" s="18"/>
+      <c r="DF11" s="18"/>
+      <c r="DG11" s="18"/>
+      <c r="DH11" s="18"/>
+      <c r="DI11" s="23"/>
+    </row>
+    <row r="12" spans="2:113" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="66">
+        <f>F11</f>
+        <v>45253</v>
+      </c>
+      <c r="F12" s="69">
+        <f t="shared" ref="F12:F14" si="5">E12+G12</f>
+        <v>45255</v>
+      </c>
+      <c r="G12" s="71">
+        <v>2</v>
+      </c>
+      <c r="H12" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="22"/>
+      <c r="BL12" s="18"/>
+      <c r="BM12" s="18"/>
+      <c r="BN12" s="18"/>
+      <c r="BO12" s="18"/>
+      <c r="BP12" s="23"/>
+      <c r="BQ12" s="17"/>
+      <c r="BR12" s="18"/>
+      <c r="BS12" s="18"/>
+      <c r="BT12" s="18"/>
+      <c r="BU12" s="18"/>
+      <c r="BV12" s="85"/>
+      <c r="BW12" s="85"/>
+      <c r="BX12" s="85"/>
+      <c r="BY12" s="85"/>
+      <c r="BZ12" s="85"/>
+      <c r="CA12" s="18"/>
+      <c r="CB12" s="18"/>
+      <c r="CC12" s="18"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="23"/>
+      <c r="CF12" s="17"/>
+      <c r="CG12" s="18"/>
+      <c r="CH12" s="18"/>
+      <c r="CI12" s="18"/>
+      <c r="CJ12" s="18"/>
+      <c r="CK12" s="88"/>
+      <c r="CL12" s="88"/>
+      <c r="CM12" s="88"/>
+      <c r="CN12" s="88"/>
+      <c r="CO12" s="88"/>
+      <c r="CP12" s="18"/>
+      <c r="CQ12" s="18"/>
+      <c r="CR12" s="18"/>
+      <c r="CS12" s="18"/>
+      <c r="CT12" s="23"/>
+      <c r="CU12" s="17"/>
+      <c r="CV12" s="18"/>
+      <c r="CW12" s="18"/>
+      <c r="CX12" s="18"/>
+      <c r="CY12" s="18"/>
+      <c r="CZ12" s="93"/>
+      <c r="DA12" s="93"/>
+      <c r="DB12" s="93"/>
+      <c r="DC12" s="93"/>
+      <c r="DD12" s="93"/>
+      <c r="DE12" s="18"/>
+      <c r="DF12" s="18"/>
+      <c r="DG12" s="18"/>
+      <c r="DH12" s="18"/>
+      <c r="DI12" s="23"/>
+    </row>
+    <row r="13" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="66">
+        <f>F12</f>
+        <v>45255</v>
+      </c>
+      <c r="F13" s="69">
+        <f t="shared" si="5"/>
+        <v>45258</v>
+      </c>
+      <c r="G13" s="71">
+        <v>3</v>
+      </c>
+      <c r="H13" s="54">
+        <v>1</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="22"/>
+      <c r="BH13" s="22"/>
+      <c r="BI13" s="22"/>
+      <c r="BJ13" s="22"/>
+      <c r="BK13" s="22"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="23"/>
+      <c r="BQ13" s="17"/>
+      <c r="BR13" s="18"/>
+      <c r="BS13" s="18"/>
+      <c r="BT13" s="18"/>
+      <c r="BU13" s="18"/>
+      <c r="BV13" s="85"/>
+      <c r="BW13" s="85"/>
+      <c r="BX13" s="85"/>
+      <c r="BY13" s="85"/>
+      <c r="BZ13" s="85"/>
+      <c r="CA13" s="18"/>
+      <c r="CB13" s="18"/>
+      <c r="CC13" s="18"/>
+      <c r="CD13" s="18"/>
+      <c r="CE13" s="23"/>
+      <c r="CF13" s="17"/>
+      <c r="CG13" s="18"/>
+      <c r="CH13" s="18"/>
+      <c r="CI13" s="18"/>
+      <c r="CJ13" s="18"/>
+      <c r="CK13" s="88"/>
+      <c r="CL13" s="88"/>
+      <c r="CM13" s="88"/>
+      <c r="CN13" s="88"/>
+      <c r="CO13" s="88"/>
+      <c r="CP13" s="18"/>
+      <c r="CQ13" s="18"/>
+      <c r="CR13" s="18"/>
+      <c r="CS13" s="18"/>
+      <c r="CT13" s="23"/>
+      <c r="CU13" s="17"/>
+      <c r="CV13" s="18"/>
+      <c r="CW13" s="18"/>
+      <c r="CX13" s="18"/>
+      <c r="CY13" s="18"/>
+      <c r="CZ13" s="93"/>
+      <c r="DA13" s="93"/>
+      <c r="DB13" s="93"/>
+      <c r="DC13" s="93"/>
+      <c r="DD13" s="93"/>
+      <c r="DE13" s="18"/>
+      <c r="DF13" s="18"/>
+      <c r="DG13" s="18"/>
+      <c r="DH13" s="18"/>
+      <c r="DI13" s="23"/>
+    </row>
+    <row r="14" spans="2:113" ht="28" x14ac:dyDescent="0.2">
+      <c r="B14" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="66">
+        <f>F13</f>
+        <v>45258</v>
+      </c>
+      <c r="F14" s="69">
+        <f t="shared" si="5"/>
+        <v>45261</v>
+      </c>
+      <c r="G14" s="71">
+        <v>3</v>
+      </c>
+      <c r="H14" s="54">
+        <v>1</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="22"/>
+      <c r="BI14" s="22"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="22"/>
+      <c r="BL14" s="18"/>
+      <c r="BM14" s="18"/>
+      <c r="BN14" s="18"/>
+      <c r="BO14" s="18"/>
+      <c r="BP14" s="23"/>
+      <c r="BQ14" s="17"/>
+      <c r="BR14" s="18"/>
+      <c r="BS14" s="18"/>
+      <c r="BT14" s="18"/>
+      <c r="BU14" s="18"/>
+      <c r="BV14" s="85"/>
+      <c r="BW14" s="85"/>
+      <c r="BX14" s="85"/>
+      <c r="BY14" s="85"/>
+      <c r="BZ14" s="85"/>
+      <c r="CA14" s="18"/>
+      <c r="CB14" s="18"/>
+      <c r="CC14" s="18"/>
+      <c r="CD14" s="18"/>
+      <c r="CE14" s="23"/>
+      <c r="CF14" s="17"/>
+      <c r="CG14" s="18"/>
+      <c r="CH14" s="18"/>
+      <c r="CI14" s="18"/>
+      <c r="CJ14" s="18"/>
+      <c r="CK14" s="88"/>
+      <c r="CL14" s="88"/>
+      <c r="CM14" s="88"/>
+      <c r="CN14" s="88"/>
+      <c r="CO14" s="88"/>
+      <c r="CP14" s="18"/>
+      <c r="CQ14" s="18"/>
+      <c r="CR14" s="18"/>
+      <c r="CS14" s="18"/>
+      <c r="CT14" s="23"/>
+      <c r="CU14" s="17"/>
+      <c r="CV14" s="18"/>
+      <c r="CW14" s="18"/>
+      <c r="CX14" s="18"/>
+      <c r="CY14" s="18"/>
+      <c r="CZ14" s="93"/>
+      <c r="DA14" s="93"/>
+      <c r="DB14" s="93"/>
+      <c r="DC14" s="93"/>
+      <c r="DD14" s="93"/>
+      <c r="DE14" s="18"/>
+      <c r="DF14" s="18"/>
+      <c r="DG14" s="18"/>
+      <c r="DH14" s="18"/>
+      <c r="DI14" s="23"/>
+    </row>
+    <row r="15" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="41">
+        <v>2</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="46">
+        <f>SUM(G16:G23)</f>
+        <v>13</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="16"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="14"/>
+      <c r="BS15" s="14"/>
+      <c r="BT15" s="14"/>
+      <c r="BU15" s="14"/>
+      <c r="BV15" s="14"/>
+      <c r="BW15" s="14"/>
+      <c r="BX15" s="14"/>
+      <c r="BY15" s="14"/>
+      <c r="BZ15" s="14"/>
+      <c r="CA15" s="14"/>
+      <c r="CB15" s="14"/>
+      <c r="CC15" s="14"/>
+      <c r="CD15" s="14"/>
+      <c r="CE15" s="16"/>
+      <c r="CF15" s="13"/>
+      <c r="CG15" s="14"/>
+      <c r="CH15" s="14"/>
+      <c r="CI15" s="14"/>
+      <c r="CJ15" s="14"/>
+      <c r="CK15" s="88"/>
+      <c r="CL15" s="88"/>
+      <c r="CM15" s="88"/>
+      <c r="CN15" s="88"/>
+      <c r="CO15" s="88"/>
+      <c r="CP15" s="14"/>
+      <c r="CQ15" s="14"/>
+      <c r="CR15" s="14"/>
+      <c r="CS15" s="14"/>
+      <c r="CT15" s="16"/>
+      <c r="CU15" s="13"/>
+      <c r="CV15" s="14"/>
+      <c r="CW15" s="14"/>
+      <c r="CX15" s="14"/>
+      <c r="CY15" s="14"/>
+      <c r="CZ15" s="14"/>
+      <c r="DA15" s="14"/>
+      <c r="DB15" s="14"/>
+      <c r="DC15" s="14"/>
+      <c r="DD15" s="14"/>
+      <c r="DE15" s="14"/>
+      <c r="DF15" s="14"/>
+      <c r="DG15" s="14"/>
+      <c r="DH15" s="14"/>
+      <c r="DI15" s="16"/>
+    </row>
+    <row r="16" spans="2:113" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="41">
+        <v>1.4</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="66">
+        <v>45261</v>
+      </c>
+      <c r="F16" s="69">
+        <f>E16+G16</f>
+        <v>45262</v>
+      </c>
+      <c r="G16" s="71">
+        <v>1</v>
+      </c>
+      <c r="H16" s="54">
+        <v>1</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="22"/>
+      <c r="BJ16" s="22"/>
+      <c r="BK16" s="22"/>
+      <c r="BL16" s="18"/>
+      <c r="BM16" s="18"/>
+      <c r="BN16" s="18"/>
+      <c r="BO16" s="18"/>
+      <c r="BP16" s="23"/>
+      <c r="BQ16" s="17"/>
+      <c r="BR16" s="18"/>
+      <c r="BS16" s="18"/>
+      <c r="BT16" s="18"/>
+      <c r="BU16" s="18"/>
+      <c r="BV16" s="85"/>
+      <c r="BW16" s="85"/>
+      <c r="BX16" s="85"/>
+      <c r="BY16" s="85"/>
+      <c r="BZ16" s="85"/>
+      <c r="CA16" s="18"/>
+      <c r="CB16" s="18"/>
+      <c r="CC16" s="18"/>
+      <c r="CD16" s="18"/>
+      <c r="CE16" s="23"/>
+      <c r="CF16" s="17"/>
+      <c r="CG16" s="18"/>
+      <c r="CH16" s="18"/>
+      <c r="CI16" s="18"/>
+      <c r="CJ16" s="18"/>
+      <c r="CK16" s="88"/>
+      <c r="CL16" s="88"/>
+      <c r="CM16" s="88"/>
+      <c r="CN16" s="88"/>
+      <c r="CO16" s="88"/>
+      <c r="CP16" s="18"/>
+      <c r="CQ16" s="18"/>
+      <c r="CR16" s="18"/>
+      <c r="CS16" s="18"/>
+      <c r="CT16" s="23"/>
+      <c r="CU16" s="17"/>
+      <c r="CV16" s="18"/>
+      <c r="CW16" s="18"/>
+      <c r="CX16" s="18"/>
+      <c r="CY16" s="18"/>
+      <c r="CZ16" s="93"/>
+      <c r="DA16" s="93"/>
+      <c r="DB16" s="93"/>
+      <c r="DC16" s="93"/>
+      <c r="DD16" s="93"/>
+      <c r="DE16" s="18"/>
+      <c r="DF16" s="18"/>
+      <c r="DG16" s="18"/>
+      <c r="DH16" s="18"/>
+      <c r="DI16" s="23"/>
+    </row>
+    <row r="17" spans="2:113" ht="28" x14ac:dyDescent="0.2">
+      <c r="B17" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="66">
+        <v>45265</v>
+      </c>
+      <c r="F17" s="69">
+        <f t="shared" ref="F17:F23" si="6">E17+G17</f>
+        <v>45266</v>
+      </c>
+      <c r="G17" s="71">
+        <v>1</v>
+      </c>
+      <c r="H17" s="54">
+        <v>1</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="18"/>
+      <c r="BD17" s="18"/>
+      <c r="BE17" s="18"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="22"/>
+      <c r="BL17" s="18"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="18"/>
+      <c r="BO17" s="18"/>
+      <c r="BP17" s="23"/>
+      <c r="BQ17" s="17"/>
+      <c r="BR17" s="18"/>
+      <c r="BS17" s="18"/>
+      <c r="BT17" s="18"/>
+      <c r="BU17" s="18"/>
+      <c r="BV17" s="85"/>
+      <c r="BW17" s="85"/>
+      <c r="BX17" s="85"/>
+      <c r="BY17" s="85"/>
+      <c r="BZ17" s="85"/>
+      <c r="CA17" s="18"/>
+      <c r="CB17" s="18"/>
+      <c r="CC17" s="18"/>
+      <c r="CD17" s="18"/>
+      <c r="CE17" s="23"/>
+      <c r="CF17" s="17"/>
+      <c r="CG17" s="18"/>
+      <c r="CH17" s="18"/>
+      <c r="CI17" s="18"/>
+      <c r="CJ17" s="18"/>
+      <c r="CK17" s="88"/>
+      <c r="CL17" s="88"/>
+      <c r="CM17" s="88"/>
+      <c r="CN17" s="88"/>
+      <c r="CO17" s="88"/>
+      <c r="CP17" s="18"/>
+      <c r="CQ17" s="18"/>
+      <c r="CR17" s="18"/>
+      <c r="CS17" s="18"/>
+      <c r="CT17" s="23"/>
+      <c r="CU17" s="17"/>
+      <c r="CV17" s="18"/>
+      <c r="CW17" s="18"/>
+      <c r="CX17" s="18"/>
+      <c r="CY17" s="18"/>
+      <c r="CZ17" s="93"/>
+      <c r="DA17" s="93"/>
+      <c r="DB17" s="93"/>
+      <c r="DC17" s="93"/>
+      <c r="DD17" s="93"/>
+      <c r="DE17" s="18"/>
+      <c r="DF17" s="18"/>
+      <c r="DG17" s="18"/>
+      <c r="DH17" s="18"/>
+      <c r="DI17" s="23"/>
+    </row>
+    <row r="18" spans="2:113" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="66">
+        <f>F17+1</f>
+        <v>45267</v>
+      </c>
+      <c r="F18" s="69">
+        <f t="shared" si="6"/>
+        <v>45268</v>
+      </c>
+      <c r="G18" s="71">
+        <v>1</v>
+      </c>
+      <c r="H18" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="22"/>
+      <c r="BH18" s="22"/>
+      <c r="BI18" s="22"/>
+      <c r="BJ18" s="22"/>
+      <c r="BK18" s="22"/>
+      <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="18"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="23"/>
+      <c r="BQ18" s="17"/>
+      <c r="BR18" s="18"/>
+      <c r="BS18" s="18"/>
+      <c r="BT18" s="18"/>
+      <c r="BU18" s="18"/>
+      <c r="BV18" s="85"/>
+      <c r="BW18" s="85"/>
+      <c r="BX18" s="85"/>
+      <c r="BY18" s="85"/>
+      <c r="BZ18" s="85"/>
+      <c r="CA18" s="18"/>
+      <c r="CB18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="23"/>
+      <c r="CF18" s="17"/>
+      <c r="CG18" s="18"/>
+      <c r="CH18" s="18"/>
+      <c r="CI18" s="18"/>
+      <c r="CJ18" s="18"/>
+      <c r="CK18" s="88"/>
+      <c r="CL18" s="88"/>
+      <c r="CM18" s="88"/>
+      <c r="CN18" s="88"/>
+      <c r="CO18" s="88"/>
+      <c r="CP18" s="18"/>
+      <c r="CQ18" s="18"/>
+      <c r="CR18" s="18"/>
+      <c r="CS18" s="18"/>
+      <c r="CT18" s="23"/>
+      <c r="CU18" s="17"/>
+      <c r="CV18" s="18"/>
+      <c r="CW18" s="18"/>
+      <c r="CX18" s="18"/>
+      <c r="CY18" s="18"/>
+      <c r="CZ18" s="93"/>
+      <c r="DA18" s="93"/>
+      <c r="DB18" s="93"/>
+      <c r="DC18" s="93"/>
+      <c r="DD18" s="93"/>
+      <c r="DE18" s="18"/>
+      <c r="DF18" s="18"/>
+      <c r="DG18" s="18"/>
+      <c r="DH18" s="18"/>
+      <c r="DI18" s="23"/>
+    </row>
+    <row r="19" spans="2:113" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="41">
+        <v>3.1</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="66">
+        <f t="shared" ref="E19:E23" si="7">F18+1</f>
+        <v>45269</v>
+      </c>
+      <c r="F19" s="69">
+        <f t="shared" si="6"/>
+        <v>45275</v>
+      </c>
+      <c r="G19" s="71">
+        <v>6</v>
+      </c>
+      <c r="H19" s="54">
+        <v>1</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="22"/>
+      <c r="BH19" s="22"/>
+      <c r="BI19" s="22"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="22"/>
+      <c r="BL19" s="18"/>
+      <c r="BM19" s="18"/>
+      <c r="BN19" s="18"/>
+      <c r="BO19" s="18"/>
+      <c r="BP19" s="23"/>
+      <c r="BQ19" s="17"/>
+      <c r="BR19" s="18"/>
+      <c r="BS19" s="18"/>
+      <c r="BT19" s="18"/>
+      <c r="BU19" s="18"/>
+      <c r="BV19" s="85"/>
+      <c r="BW19" s="85"/>
+      <c r="BX19" s="85"/>
+      <c r="BY19" s="85"/>
+      <c r="BZ19" s="85"/>
+      <c r="CA19" s="18"/>
+      <c r="CB19" s="18"/>
+      <c r="CC19" s="18"/>
+      <c r="CD19" s="18"/>
+      <c r="CE19" s="23"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="18"/>
+      <c r="CH19" s="18"/>
+      <c r="CI19" s="18"/>
+      <c r="CJ19" s="18"/>
+      <c r="CK19" s="88"/>
+      <c r="CL19" s="88"/>
+      <c r="CM19" s="88"/>
+      <c r="CN19" s="88"/>
+      <c r="CO19" s="88"/>
+      <c r="CP19" s="18"/>
+      <c r="CQ19" s="18"/>
+      <c r="CR19" s="18"/>
+      <c r="CS19" s="18"/>
+      <c r="CT19" s="23"/>
+      <c r="CU19" s="17"/>
+      <c r="CV19" s="18"/>
+      <c r="CW19" s="18"/>
+      <c r="CX19" s="18"/>
+      <c r="CY19" s="18"/>
+      <c r="CZ19" s="93"/>
+      <c r="DA19" s="93"/>
+      <c r="DB19" s="93"/>
+      <c r="DC19" s="93"/>
+      <c r="DD19" s="93"/>
+      <c r="DE19" s="18"/>
+      <c r="DF19" s="18"/>
+      <c r="DG19" s="18"/>
+      <c r="DH19" s="18"/>
+      <c r="DI19" s="23"/>
+    </row>
+    <row r="20" spans="2:113" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="66">
+        <f t="shared" si="7"/>
+        <v>45276</v>
+      </c>
+      <c r="F20" s="69">
+        <f t="shared" si="6"/>
+        <v>45277</v>
+      </c>
+      <c r="G20" s="71">
+        <v>1</v>
+      </c>
+      <c r="H20" s="54">
+        <v>1</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="22"/>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="22"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="23"/>
+      <c r="BQ20" s="17"/>
+      <c r="BS20" s="18"/>
+      <c r="BT20" s="18"/>
+      <c r="BU20" s="18"/>
+      <c r="BV20" s="85"/>
+      <c r="BW20" s="85"/>
+      <c r="BX20" s="85"/>
+      <c r="BY20" s="85"/>
+      <c r="BZ20" s="85"/>
+      <c r="CA20" s="18"/>
+      <c r="CB20" s="18"/>
+      <c r="CC20" s="18"/>
+      <c r="CD20" s="18"/>
+      <c r="CF20" s="17"/>
+      <c r="CG20" s="18"/>
+      <c r="CH20" s="18"/>
+      <c r="CI20" s="18"/>
+      <c r="CJ20" s="18"/>
+      <c r="CK20" s="88"/>
+      <c r="CL20" s="88"/>
+      <c r="CM20" s="88"/>
+      <c r="CN20" s="88"/>
+      <c r="CO20" s="88"/>
+      <c r="CP20" s="18"/>
+      <c r="CQ20" s="18"/>
+      <c r="CR20" s="18"/>
+      <c r="CS20" s="18"/>
+      <c r="CT20" s="18"/>
+      <c r="CU20" s="17"/>
+      <c r="CV20" s="18"/>
+      <c r="CW20" s="18"/>
+      <c r="CX20" s="18"/>
+      <c r="CY20" s="18"/>
+      <c r="CZ20" s="93"/>
+      <c r="DA20" s="93"/>
+      <c r="DB20" s="93"/>
+      <c r="DC20" s="93"/>
+      <c r="DD20" s="93"/>
+      <c r="DE20" s="18"/>
+      <c r="DF20" s="18"/>
+      <c r="DG20" s="18"/>
+      <c r="DH20" s="18"/>
+      <c r="DI20" s="18"/>
+    </row>
+    <row r="21" spans="2:113" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="41">
+        <v>4.2</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="66">
+        <f t="shared" si="7"/>
+        <v>45278</v>
+      </c>
+      <c r="F21" s="69">
+        <f t="shared" si="6"/>
+        <v>45279</v>
+      </c>
+      <c r="G21" s="71">
+        <v>1</v>
+      </c>
+      <c r="H21" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="23"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="18"/>
+      <c r="BS21" s="18"/>
+      <c r="BT21" s="18"/>
+      <c r="BU21" s="18"/>
+      <c r="BV21" s="85"/>
+      <c r="BW21" s="85"/>
+      <c r="BX21" s="85"/>
+      <c r="BY21" s="85"/>
+      <c r="BZ21" s="85"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="18"/>
+      <c r="CE21" s="23"/>
+      <c r="CG21" s="18"/>
+      <c r="CH21" s="18"/>
+      <c r="CI21" s="18"/>
+      <c r="CJ21" s="18"/>
+      <c r="CK21" s="88"/>
+      <c r="CL21" s="88"/>
+      <c r="CM21" s="88"/>
+      <c r="CN21" s="88"/>
+      <c r="CO21" s="88"/>
+      <c r="CP21" s="18"/>
+      <c r="CQ21" s="18"/>
+      <c r="CR21" s="18"/>
+      <c r="CS21" s="18"/>
+      <c r="CT21" s="23"/>
+      <c r="CU21" s="18"/>
+      <c r="CV21" s="18"/>
+      <c r="CW21" s="18"/>
+      <c r="CX21" s="18"/>
+      <c r="CY21" s="18"/>
+      <c r="CZ21" s="93"/>
+      <c r="DA21" s="93"/>
+      <c r="DB21" s="93"/>
+      <c r="DC21" s="93"/>
+      <c r="DD21" s="93"/>
+      <c r="DE21" s="18"/>
+      <c r="DF21" s="18"/>
+      <c r="DG21" s="18"/>
+      <c r="DH21" s="18"/>
+      <c r="DI21" s="18"/>
+    </row>
+    <row r="22" spans="2:113" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="66">
+        <f t="shared" si="7"/>
+        <v>45280</v>
+      </c>
+      <c r="F22" s="69">
+        <f t="shared" si="6"/>
+        <v>45281</v>
+      </c>
+      <c r="G22" s="71">
+        <v>1</v>
+      </c>
+      <c r="H22" s="54">
+        <v>1</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="22"/>
+      <c r="BI22" s="22"/>
+      <c r="BJ22" s="22"/>
+      <c r="BK22" s="22"/>
+      <c r="BL22" s="18"/>
+      <c r="BM22" s="18"/>
+      <c r="BN22" s="18"/>
+      <c r="BO22" s="18"/>
+      <c r="BP22" s="23"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="18"/>
+      <c r="BS22" s="18"/>
+      <c r="BT22" s="18"/>
+      <c r="BU22" s="18"/>
+      <c r="BV22" s="85"/>
+      <c r="BW22" s="85"/>
+      <c r="BX22" s="85"/>
+      <c r="BY22" s="85"/>
+      <c r="BZ22" s="85"/>
+      <c r="CA22" s="18"/>
+      <c r="CB22" s="18"/>
+      <c r="CC22" s="18"/>
+      <c r="CD22" s="18"/>
+      <c r="CE22" s="23"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="18"/>
+      <c r="CH22" s="18"/>
+      <c r="CI22" s="18"/>
+      <c r="CJ22" s="18"/>
+      <c r="CK22" s="88"/>
+      <c r="CL22" s="88"/>
+      <c r="CM22" s="88"/>
+      <c r="CN22" s="88"/>
+      <c r="CO22" s="88"/>
+      <c r="CP22" s="18"/>
+      <c r="CQ22" s="18"/>
+      <c r="CR22" s="18"/>
+      <c r="CS22" s="18"/>
+      <c r="CT22" s="23"/>
+      <c r="CU22" s="17"/>
+      <c r="CV22" s="18"/>
+      <c r="CW22" s="18"/>
+      <c r="CX22" s="18"/>
+      <c r="CY22" s="18"/>
+      <c r="CZ22" s="93"/>
+      <c r="DA22" s="93"/>
+      <c r="DB22" s="93"/>
+      <c r="DC22" s="93"/>
+      <c r="DD22" s="93"/>
+      <c r="DE22" s="18"/>
+      <c r="DF22" s="18"/>
+      <c r="DG22" s="18"/>
+      <c r="DH22" s="18"/>
+      <c r="DI22" s="18"/>
+    </row>
+    <row r="23" spans="2:113" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="66">
+        <f t="shared" si="7"/>
+        <v>45282</v>
+      </c>
+      <c r="F23" s="69">
+        <f t="shared" si="6"/>
+        <v>45283</v>
+      </c>
+      <c r="G23" s="72">
+        <v>1</v>
+      </c>
+      <c r="H23" s="56">
+        <v>0.97</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="61"/>
+      <c r="AT23" s="61"/>
+      <c r="AU23" s="33"/>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="28"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="30"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="26"/>
+      <c r="BM23" s="26"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23" s="26"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="25"/>
+      <c r="BR23" s="26"/>
+      <c r="BS23" s="26"/>
+      <c r="BT23" s="26"/>
+      <c r="BU23" s="26"/>
+      <c r="BV23" s="86"/>
+      <c r="BW23" s="86"/>
+      <c r="BX23" s="86"/>
+      <c r="BY23" s="86"/>
+      <c r="BZ23" s="86"/>
+      <c r="CA23" s="26"/>
+      <c r="CB23" s="26"/>
+      <c r="CC23" s="26"/>
+      <c r="CD23" s="26"/>
+      <c r="CE23" s="31"/>
+      <c r="CF23" s="25"/>
+      <c r="CG23" s="26"/>
+      <c r="CH23" s="26"/>
+      <c r="CI23" s="26"/>
+      <c r="CJ23" s="26"/>
+      <c r="CK23" s="88"/>
+      <c r="CL23" s="88"/>
+      <c r="CM23" s="88"/>
+      <c r="CN23" s="88"/>
+      <c r="CO23" s="88"/>
+      <c r="CP23" s="18"/>
+      <c r="CQ23" s="18"/>
+      <c r="CR23" s="18"/>
+      <c r="CS23" s="18"/>
+      <c r="CT23" s="23"/>
+      <c r="CU23" s="25"/>
+      <c r="CV23" s="26"/>
+      <c r="CW23" s="26"/>
+      <c r="CX23" s="26"/>
+      <c r="CY23" s="26"/>
+      <c r="CZ23" s="93"/>
+      <c r="DA23" s="93"/>
+      <c r="DB23" s="93"/>
+      <c r="DC23" s="93"/>
+      <c r="DD23" s="93"/>
+      <c r="DE23" s="18"/>
+      <c r="DF23" s="18"/>
+      <c r="DG23" s="18"/>
+      <c r="DH23" s="18"/>
+      <c r="DI23" s="18"/>
+    </row>
+    <row r="24" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="41">
+        <v>2</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="46">
+        <f>SUM(G25:G32)</f>
+        <v>15</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
+      <c r="BL24" s="14"/>
+      <c r="BM24" s="14"/>
+      <c r="BN24" s="14"/>
+      <c r="BO24" s="14"/>
+      <c r="BP24" s="16"/>
+      <c r="BQ24" s="13"/>
+      <c r="BR24" s="14"/>
+      <c r="BS24" s="14"/>
+      <c r="BT24" s="14"/>
+      <c r="BU24" s="14"/>
+      <c r="BV24" s="14"/>
+      <c r="BW24" s="14"/>
+      <c r="BX24" s="14"/>
+      <c r="BY24" s="14"/>
+      <c r="BZ24" s="14"/>
+      <c r="CA24" s="14"/>
+      <c r="CB24" s="14"/>
+      <c r="CC24" s="14"/>
+      <c r="CD24" s="14"/>
+      <c r="CE24" s="16"/>
+      <c r="CF24" s="13"/>
+      <c r="CG24" s="14"/>
+      <c r="CH24" s="14"/>
+      <c r="CI24" s="14"/>
+      <c r="CJ24" s="14"/>
+      <c r="CK24" s="88"/>
+      <c r="CL24" s="88"/>
+      <c r="CM24" s="88"/>
+      <c r="CN24" s="88"/>
+      <c r="CO24" s="88"/>
+      <c r="CP24" s="14"/>
+      <c r="CQ24" s="14"/>
+      <c r="CR24" s="14"/>
+      <c r="CS24" s="14"/>
+      <c r="CT24" s="16"/>
+      <c r="CU24" s="13"/>
+      <c r="CV24" s="14"/>
+      <c r="CW24" s="14"/>
+      <c r="CX24" s="14"/>
+      <c r="CY24" s="14"/>
+      <c r="CZ24" s="14"/>
+      <c r="DA24" s="14"/>
+      <c r="DB24" s="14"/>
+      <c r="DC24" s="14"/>
+      <c r="DD24" s="14"/>
+      <c r="DE24" s="14"/>
+      <c r="DF24" s="14"/>
+      <c r="DG24" s="14"/>
+      <c r="DH24" s="14"/>
+      <c r="DI24" s="16"/>
+    </row>
+    <row r="25" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="41">
+        <v>1.4</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="66">
+        <v>45293</v>
+      </c>
+      <c r="F25" s="69">
+        <f>E25+G25</f>
+        <v>45294</v>
+      </c>
+      <c r="G25" s="71">
+        <v>1</v>
+      </c>
+      <c r="H25" s="54">
+        <v>1</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
+      <c r="AZ25" s="18"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="18"/>
+      <c r="BD25" s="62"/>
+      <c r="BE25" s="62"/>
+      <c r="BF25" s="18"/>
+      <c r="BG25" s="22"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="22"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="22"/>
+      <c r="BL25" s="18"/>
+      <c r="BM25" s="18"/>
+      <c r="BN25" s="18"/>
+      <c r="BO25" s="18"/>
+      <c r="BP25" s="23"/>
+      <c r="BQ25" s="17"/>
+      <c r="BR25" s="18"/>
+      <c r="BS25" s="18"/>
+      <c r="BT25" s="18"/>
+      <c r="BU25" s="18"/>
+      <c r="BV25" s="85"/>
+      <c r="BW25" s="85"/>
+      <c r="BX25" s="85"/>
+      <c r="BY25" s="85"/>
+      <c r="BZ25" s="85"/>
+      <c r="CA25" s="18"/>
+      <c r="CB25" s="18"/>
+      <c r="CC25" s="18"/>
+      <c r="CD25" s="18"/>
+      <c r="CE25" s="23"/>
+      <c r="CF25" s="17"/>
+      <c r="CG25" s="18"/>
+      <c r="CH25" s="18"/>
+      <c r="CI25" s="18"/>
+      <c r="CJ25" s="18"/>
+      <c r="CK25" s="88"/>
+      <c r="CL25" s="88"/>
+      <c r="CM25" s="88"/>
+      <c r="CN25" s="88"/>
+      <c r="CO25" s="88"/>
+      <c r="CP25" s="18"/>
+      <c r="CQ25" s="18"/>
+      <c r="CR25" s="18"/>
+      <c r="CS25" s="18"/>
+      <c r="CT25" s="23"/>
+      <c r="CU25" s="17"/>
+      <c r="CV25" s="18"/>
+      <c r="CW25" s="18"/>
+      <c r="CX25" s="18"/>
+      <c r="CY25" s="18"/>
+      <c r="CZ25" s="93"/>
+      <c r="DA25" s="93"/>
+      <c r="DB25" s="93"/>
+      <c r="DC25" s="93"/>
+      <c r="DD25" s="93"/>
+      <c r="DE25" s="18"/>
+      <c r="DF25" s="18"/>
+      <c r="DG25" s="18"/>
+      <c r="DH25" s="18"/>
+      <c r="DI25" s="23"/>
+    </row>
+    <row r="26" spans="2:113" ht="28" x14ac:dyDescent="0.2">
+      <c r="B26" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="66">
+        <f>F25+1</f>
+        <v>45295</v>
+      </c>
+      <c r="F26" s="69">
+        <f t="shared" ref="F26:F32" si="8">E26+G26</f>
+        <v>45296</v>
+      </c>
+      <c r="G26" s="71">
+        <v>1</v>
+      </c>
+      <c r="H26" s="54">
+        <v>1</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="18"/>
+      <c r="BD26" s="18"/>
+      <c r="BE26" s="18"/>
+      <c r="BF26" s="62"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="22"/>
+      <c r="BI26" s="22"/>
+      <c r="BJ26" s="22"/>
+      <c r="BK26" s="22"/>
+      <c r="BL26" s="18"/>
+      <c r="BM26" s="18"/>
+      <c r="BN26" s="18"/>
+      <c r="BO26" s="18"/>
+      <c r="BP26" s="23"/>
+      <c r="BQ26" s="17"/>
+      <c r="BR26" s="18"/>
+      <c r="BS26" s="18"/>
+      <c r="BT26" s="18"/>
+      <c r="BU26" s="18"/>
+      <c r="BV26" s="85"/>
+      <c r="BW26" s="85"/>
+      <c r="BX26" s="85"/>
+      <c r="BY26" s="85"/>
+      <c r="BZ26" s="85"/>
+      <c r="CA26" s="18"/>
+      <c r="CB26" s="18"/>
+      <c r="CC26" s="18"/>
+      <c r="CD26" s="18"/>
+      <c r="CE26" s="23"/>
+      <c r="CF26" s="17"/>
+      <c r="CG26" s="18"/>
+      <c r="CH26" s="18"/>
+      <c r="CI26" s="18"/>
+      <c r="CJ26" s="18"/>
+      <c r="CK26" s="88"/>
+      <c r="CL26" s="88"/>
+      <c r="CM26" s="88"/>
+      <c r="CN26" s="88"/>
+      <c r="CO26" s="88"/>
+      <c r="CP26" s="18"/>
+      <c r="CQ26" s="18"/>
+      <c r="CR26" s="18"/>
+      <c r="CS26" s="18"/>
+      <c r="CT26" s="23"/>
+      <c r="CU26" s="17"/>
+      <c r="CV26" s="18"/>
+      <c r="CW26" s="18"/>
+      <c r="CX26" s="18"/>
+      <c r="CY26" s="18"/>
+      <c r="CZ26" s="93"/>
+      <c r="DA26" s="93"/>
+      <c r="DB26" s="93"/>
+      <c r="DC26" s="93"/>
+      <c r="DD26" s="93"/>
+      <c r="DE26" s="18"/>
+      <c r="DF26" s="18"/>
+      <c r="DG26" s="18"/>
+      <c r="DH26" s="18"/>
+      <c r="DI26" s="23"/>
+    </row>
+    <row r="27" spans="2:113" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="66">
+        <f t="shared" ref="E27:E32" si="9">F26+1</f>
+        <v>45297</v>
+      </c>
+      <c r="F27" s="69">
+        <f t="shared" si="8"/>
+        <v>45298</v>
+      </c>
+      <c r="G27" s="71">
+        <v>1</v>
+      </c>
+      <c r="H27" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="I27" s="49"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="18"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="18"/>
+      <c r="BD27" s="18"/>
+      <c r="BE27" s="18"/>
+      <c r="BF27" s="18"/>
+      <c r="BG27" s="22"/>
+      <c r="BH27" s="62"/>
+      <c r="BI27" s="62"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="18"/>
+      <c r="BM27" s="18"/>
+      <c r="BN27" s="18"/>
+      <c r="BO27" s="18"/>
+      <c r="BP27" s="23"/>
+      <c r="BQ27" s="17"/>
+      <c r="BR27" s="18"/>
+      <c r="BS27" s="18"/>
+      <c r="BT27" s="18"/>
+      <c r="BU27" s="18"/>
+      <c r="BV27" s="85"/>
+      <c r="BW27" s="85"/>
+      <c r="BX27" s="85"/>
+      <c r="BY27" s="85"/>
+      <c r="BZ27" s="85"/>
+      <c r="CA27" s="18"/>
+      <c r="CB27" s="18"/>
+      <c r="CC27" s="18"/>
+      <c r="CD27" s="18"/>
+      <c r="CE27" s="23"/>
+      <c r="CF27" s="17"/>
+      <c r="CG27" s="18"/>
+      <c r="CH27" s="18"/>
+      <c r="CI27" s="18"/>
+      <c r="CJ27" s="18"/>
+      <c r="CK27" s="88"/>
+      <c r="CL27" s="88"/>
+      <c r="CM27" s="88"/>
+      <c r="CN27" s="88"/>
+      <c r="CO27" s="88"/>
+      <c r="CP27" s="18"/>
+      <c r="CQ27" s="18"/>
+      <c r="CR27" s="18"/>
+      <c r="CS27" s="18"/>
+      <c r="CT27" s="23"/>
+      <c r="CU27" s="17"/>
+      <c r="CV27" s="18"/>
+      <c r="CW27" s="18"/>
+      <c r="CX27" s="18"/>
+      <c r="CY27" s="18"/>
+      <c r="CZ27" s="93"/>
+      <c r="DA27" s="93"/>
+      <c r="DB27" s="93"/>
+      <c r="DC27" s="93"/>
+      <c r="DD27" s="93"/>
+      <c r="DE27" s="18"/>
+      <c r="DF27" s="18"/>
+      <c r="DG27" s="18"/>
+      <c r="DH27" s="18"/>
+      <c r="DI27" s="23"/>
+    </row>
+    <row r="28" spans="2:113" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="41">
+        <v>3.1</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="66">
+        <f t="shared" si="9"/>
+        <v>45299</v>
+      </c>
+      <c r="F28" s="69">
+        <f t="shared" si="8"/>
+        <v>45306</v>
+      </c>
+      <c r="G28" s="71">
+        <v>7</v>
+      </c>
+      <c r="H28" s="54">
+        <v>1</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="18"/>
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="18"/>
+      <c r="BD28" s="18"/>
+      <c r="BE28" s="18"/>
+      <c r="BF28" s="18"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="62"/>
+      <c r="BK28" s="62"/>
+      <c r="BL28" s="62"/>
+      <c r="BM28" s="62"/>
+      <c r="BN28" s="62"/>
+      <c r="BO28" s="62"/>
+      <c r="BP28" s="62"/>
+      <c r="BQ28" s="87"/>
+      <c r="BR28" s="18"/>
+      <c r="BS28" s="18"/>
+      <c r="BT28" s="18"/>
+      <c r="BU28" s="18"/>
+      <c r="BV28" s="85"/>
+      <c r="BW28" s="85"/>
+      <c r="BX28" s="85"/>
+      <c r="BY28" s="85"/>
+      <c r="BZ28" s="85"/>
+      <c r="CA28" s="18"/>
+      <c r="CB28" s="18"/>
+      <c r="CC28" s="18"/>
+      <c r="CD28" s="18"/>
+      <c r="CE28" s="23"/>
+      <c r="CF28" s="17"/>
+      <c r="CG28" s="18"/>
+      <c r="CH28" s="18"/>
+      <c r="CI28" s="18"/>
+      <c r="CJ28" s="18"/>
+      <c r="CK28" s="88"/>
+      <c r="CL28" s="88"/>
+      <c r="CM28" s="88"/>
+      <c r="CN28" s="88"/>
+      <c r="CO28" s="88"/>
+      <c r="CP28" s="18"/>
+      <c r="CQ28" s="18"/>
+      <c r="CR28" s="18"/>
+      <c r="CS28" s="18"/>
+      <c r="CT28" s="23"/>
+      <c r="CU28" s="17"/>
+      <c r="CV28" s="18"/>
+      <c r="CW28" s="18"/>
+      <c r="CX28" s="18"/>
+      <c r="CY28" s="18"/>
+      <c r="CZ28" s="93"/>
+      <c r="DA28" s="93"/>
+      <c r="DB28" s="93"/>
+      <c r="DC28" s="93"/>
+      <c r="DD28" s="93"/>
+      <c r="DE28" s="18"/>
+      <c r="DF28" s="18"/>
+      <c r="DG28" s="18"/>
+      <c r="DH28" s="18"/>
+      <c r="DI28" s="23"/>
+    </row>
+    <row r="29" spans="2:113" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="66">
+        <f t="shared" si="9"/>
+        <v>45307</v>
+      </c>
+      <c r="F29" s="69">
+        <f t="shared" si="8"/>
+        <v>45308</v>
+      </c>
+      <c r="G29" s="71">
+        <v>1</v>
+      </c>
+      <c r="H29" s="54">
+        <v>1</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="20"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="18"/>
+      <c r="BD29" s="18"/>
+      <c r="BE29" s="18"/>
+      <c r="BF29" s="18"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="18"/>
+      <c r="BM29" s="18"/>
+      <c r="BN29" s="18"/>
+      <c r="BO29" s="18"/>
+      <c r="BP29" s="23"/>
+      <c r="BQ29" s="17"/>
+      <c r="BR29" s="87"/>
+      <c r="BS29" s="87"/>
+      <c r="BT29" s="18"/>
+      <c r="BU29" s="18"/>
+      <c r="BV29" s="85"/>
+      <c r="BW29" s="85"/>
+      <c r="BX29" s="85"/>
+      <c r="BY29" s="85"/>
+      <c r="BZ29" s="85"/>
+      <c r="CA29" s="18"/>
+      <c r="CB29" s="18"/>
+      <c r="CC29" s="18"/>
+      <c r="CD29" s="18"/>
+      <c r="CE29" s="18"/>
+      <c r="CF29" s="17"/>
+      <c r="CG29" s="18"/>
+      <c r="CH29" s="18"/>
+      <c r="CI29" s="18"/>
+      <c r="CJ29" s="18"/>
+      <c r="CK29" s="88"/>
+      <c r="CL29" s="88"/>
+      <c r="CM29" s="88"/>
+      <c r="CN29" s="88"/>
+      <c r="CO29" s="88"/>
+      <c r="CP29" s="18"/>
+      <c r="CQ29" s="18"/>
+      <c r="CR29" s="18"/>
+      <c r="CS29" s="18"/>
+      <c r="CT29" s="18"/>
+      <c r="CU29" s="17"/>
+      <c r="CV29" s="18"/>
+      <c r="CW29" s="18"/>
+      <c r="CX29" s="18"/>
+      <c r="CY29" s="18"/>
+      <c r="CZ29" s="93"/>
+      <c r="DA29" s="93"/>
+      <c r="DB29" s="93"/>
+      <c r="DC29" s="93"/>
+      <c r="DD29" s="93"/>
+      <c r="DE29" s="18"/>
+      <c r="DF29" s="18"/>
+      <c r="DG29" s="18"/>
+      <c r="DH29" s="18"/>
+      <c r="DI29" s="18"/>
+    </row>
+    <row r="30" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="41">
+        <v>4.2</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="66">
+        <f t="shared" si="9"/>
+        <v>45309</v>
+      </c>
+      <c r="F30" s="69">
+        <f t="shared" si="8"/>
+        <v>45310</v>
+      </c>
+      <c r="G30" s="71">
+        <v>1</v>
+      </c>
+      <c r="H30" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="I30" s="49"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="20"/>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="18"/>
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="22"/>
+      <c r="BJ30" s="22"/>
+      <c r="BK30" s="22"/>
+      <c r="BL30" s="18"/>
+      <c r="BM30" s="18"/>
+      <c r="BN30" s="18"/>
+      <c r="BO30" s="18"/>
+      <c r="BP30" s="23"/>
+      <c r="BQ30" s="17"/>
+      <c r="BR30" s="18"/>
+      <c r="BS30" s="18"/>
+      <c r="BT30" s="172"/>
+      <c r="BU30" s="172"/>
+      <c r="BV30" s="85"/>
+      <c r="BW30" s="85"/>
+      <c r="BX30" s="85"/>
+      <c r="BY30" s="85"/>
+      <c r="BZ30" s="85"/>
+      <c r="CA30" s="18"/>
+      <c r="CB30" s="18"/>
+      <c r="CD30" s="18"/>
+      <c r="CE30" s="23"/>
+      <c r="CG30" s="18"/>
+      <c r="CH30" s="18"/>
+      <c r="CI30" s="18"/>
+      <c r="CJ30" s="18"/>
+      <c r="CK30" s="88"/>
+      <c r="CL30" s="88"/>
+      <c r="CM30" s="88"/>
+      <c r="CN30" s="88"/>
+      <c r="CO30" s="88"/>
+      <c r="CP30" s="18"/>
+      <c r="CQ30" s="18"/>
+      <c r="CR30" s="18"/>
+      <c r="CS30" s="18"/>
+      <c r="CT30" s="23"/>
+      <c r="CU30" s="18"/>
+      <c r="CV30" s="18"/>
+      <c r="CW30" s="18"/>
+      <c r="CX30" s="18"/>
+      <c r="CY30" s="18"/>
+      <c r="CZ30" s="93"/>
+      <c r="DA30" s="93"/>
+      <c r="DB30" s="93"/>
+      <c r="DC30" s="93"/>
+      <c r="DD30" s="93"/>
+      <c r="DE30" s="18"/>
+      <c r="DF30" s="18"/>
+      <c r="DG30" s="18"/>
+      <c r="DH30" s="18"/>
+      <c r="DI30" s="18"/>
+    </row>
+    <row r="31" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="66">
+        <f t="shared" si="9"/>
+        <v>45311</v>
+      </c>
+      <c r="F31" s="69">
+        <f t="shared" si="8"/>
+        <v>45312</v>
+      </c>
+      <c r="G31" s="71">
+        <v>1</v>
+      </c>
+      <c r="H31" s="54">
+        <v>1</v>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="32"/>
+      <c r="AS31" s="32"/>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="32"/>
+      <c r="AW31" s="18"/>
+      <c r="AX31" s="18"/>
+      <c r="AY31" s="18"/>
+      <c r="AZ31" s="18"/>
+      <c r="BA31" s="20"/>
+      <c r="BB31" s="17"/>
+      <c r="BC31" s="18"/>
+      <c r="BD31" s="18"/>
+      <c r="BE31" s="18"/>
+      <c r="BF31" s="18"/>
+      <c r="BG31" s="22"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="22"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="22"/>
+      <c r="BL31" s="18"/>
+      <c r="BM31" s="18"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="18"/>
+      <c r="BP31" s="23"/>
+      <c r="BQ31" s="17"/>
+      <c r="BR31" s="18"/>
+      <c r="BS31" s="18"/>
+      <c r="BT31" s="18"/>
+      <c r="BU31" s="18"/>
+      <c r="BV31" s="173"/>
+      <c r="BW31" s="173"/>
+      <c r="BX31" s="85"/>
+      <c r="BY31" s="85"/>
+      <c r="BZ31" s="85"/>
+      <c r="CA31" s="18"/>
+      <c r="CB31" s="18"/>
+      <c r="CC31" s="18"/>
+      <c r="CD31" s="18"/>
+      <c r="CE31" s="23"/>
+      <c r="CF31" s="17"/>
+      <c r="CG31" s="18"/>
+      <c r="CH31" s="18"/>
+      <c r="CI31" s="18"/>
+      <c r="CJ31" s="18"/>
+      <c r="CK31" s="88"/>
+      <c r="CL31" s="88"/>
+      <c r="CM31" s="88"/>
+      <c r="CN31" s="88"/>
+      <c r="CO31" s="88"/>
+      <c r="CP31" s="18"/>
+      <c r="CQ31" s="18"/>
+      <c r="CR31" s="18"/>
+      <c r="CS31" s="18"/>
+      <c r="CT31" s="23"/>
+      <c r="CU31" s="17"/>
+      <c r="CV31" s="18"/>
+      <c r="CW31" s="18"/>
+      <c r="CX31" s="18"/>
+      <c r="CY31" s="18"/>
+      <c r="CZ31" s="93"/>
+      <c r="DA31" s="93"/>
+      <c r="DB31" s="93"/>
+      <c r="DC31" s="93"/>
+      <c r="DD31" s="93"/>
+      <c r="DE31" s="18"/>
+      <c r="DF31" s="18"/>
+      <c r="DG31" s="18"/>
+      <c r="DH31" s="18"/>
+      <c r="DI31" s="18"/>
+    </row>
+    <row r="32" spans="2:113" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="66">
+        <f t="shared" si="9"/>
+        <v>45313</v>
+      </c>
+      <c r="F32" s="69">
+        <f t="shared" si="8"/>
+        <v>45315</v>
+      </c>
+      <c r="G32" s="72">
+        <v>2</v>
+      </c>
+      <c r="H32" s="56">
+        <v>0.97</v>
+      </c>
+      <c r="I32" s="50"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33"/>
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="26"/>
+      <c r="BA32" s="28"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="26"/>
+      <c r="BF32" s="26"/>
+      <c r="BG32" s="30"/>
+      <c r="BH32" s="30"/>
+      <c r="BI32" s="30"/>
+      <c r="BJ32" s="30"/>
+      <c r="BK32" s="30"/>
+      <c r="BL32" s="26"/>
+      <c r="BM32" s="26"/>
+      <c r="BN32" s="26"/>
+      <c r="BO32" s="26"/>
+      <c r="BP32" s="31"/>
+      <c r="BQ32" s="25"/>
+      <c r="BR32" s="26"/>
+      <c r="BS32" s="26"/>
+      <c r="BT32" s="26"/>
+      <c r="BU32" s="26"/>
+      <c r="BV32" s="86"/>
+      <c r="BW32" s="86"/>
+      <c r="BX32" s="172"/>
+      <c r="BY32" s="172"/>
+      <c r="BZ32" s="172"/>
+      <c r="CA32" s="26"/>
+      <c r="CB32" s="26"/>
+      <c r="CC32" s="26"/>
+      <c r="CD32" s="26"/>
+      <c r="CE32" s="31"/>
+      <c r="CF32" s="25"/>
+      <c r="CG32" s="18"/>
+      <c r="CH32" s="18"/>
+      <c r="CI32" s="18"/>
+      <c r="CJ32" s="18"/>
+      <c r="CK32" s="88"/>
+      <c r="CL32" s="88"/>
+      <c r="CM32" s="88"/>
+      <c r="CN32" s="88"/>
+      <c r="CO32" s="88"/>
+      <c r="CP32" s="18"/>
+      <c r="CQ32" s="18"/>
+      <c r="CR32" s="18"/>
+      <c r="CS32" s="18"/>
+      <c r="CT32" s="23"/>
+      <c r="CU32" s="25"/>
+      <c r="CV32" s="26"/>
+      <c r="CW32" s="26"/>
+      <c r="CX32" s="26"/>
+      <c r="CY32" s="26"/>
+      <c r="CZ32" s="93"/>
+      <c r="DA32" s="93"/>
+      <c r="DB32" s="93"/>
+      <c r="DC32" s="93"/>
+      <c r="DD32" s="93"/>
+      <c r="DE32" s="18"/>
+      <c r="DF32" s="18"/>
+      <c r="DG32" s="18"/>
+      <c r="DH32" s="18"/>
+      <c r="DI32" s="18"/>
+    </row>
+    <row r="33" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="41">
+        <v>2</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="46">
+        <f>SUM(G34:G41)</f>
+        <v>14</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="14"/>
+      <c r="BH33" s="14"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="14"/>
+      <c r="BN33" s="14"/>
+      <c r="BO33" s="14"/>
+      <c r="BP33" s="16"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="14"/>
+      <c r="BS33" s="14"/>
+      <c r="BT33" s="14"/>
+      <c r="BU33" s="14"/>
+      <c r="BV33" s="14"/>
+      <c r="BW33" s="14"/>
+      <c r="BX33" s="14"/>
+      <c r="BY33" s="14"/>
+      <c r="BZ33" s="14"/>
+      <c r="CA33" s="14"/>
+      <c r="CB33" s="14"/>
+      <c r="CC33" s="14"/>
+      <c r="CD33" s="14"/>
+      <c r="CE33" s="16"/>
+      <c r="CF33" s="13"/>
+      <c r="CG33" s="14"/>
+      <c r="CH33" s="14"/>
+      <c r="CI33" s="14"/>
+      <c r="CJ33" s="14"/>
+      <c r="CK33" s="88"/>
+      <c r="CL33" s="88"/>
+      <c r="CM33" s="88"/>
+      <c r="CN33" s="88"/>
+      <c r="CO33" s="88"/>
+      <c r="CP33" s="14"/>
+      <c r="CQ33" s="14"/>
+      <c r="CR33" s="14"/>
+      <c r="CS33" s="14"/>
+      <c r="CT33" s="16"/>
+      <c r="CU33" s="13"/>
+      <c r="CV33" s="14"/>
+      <c r="CW33" s="14"/>
+      <c r="CX33" s="14"/>
+      <c r="CY33" s="14"/>
+      <c r="CZ33" s="14"/>
+      <c r="DA33" s="14"/>
+      <c r="DB33" s="14"/>
+      <c r="DC33" s="14"/>
+      <c r="DD33" s="14"/>
+      <c r="DE33" s="14"/>
+      <c r="DF33" s="14"/>
+      <c r="DG33" s="14"/>
+      <c r="DH33" s="14"/>
+      <c r="DI33" s="16"/>
+    </row>
+    <row r="34" spans="2:113" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="41">
+        <v>1.4</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="66">
+        <f>F32+1</f>
+        <v>45316</v>
+      </c>
+      <c r="F34" s="69">
+        <f>E34+G34</f>
+        <v>45317</v>
+      </c>
+      <c r="G34" s="71">
+        <v>1</v>
+      </c>
+      <c r="H34" s="54">
+        <v>1</v>
+      </c>
+      <c r="I34" s="49"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+      <c r="AP34" s="18"/>
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32"/>
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="32"/>
+      <c r="AW34" s="18"/>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="18"/>
+      <c r="BA34" s="20"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="18"/>
+      <c r="BD34" s="18"/>
+      <c r="BE34" s="18"/>
+      <c r="BF34" s="18"/>
+      <c r="BG34" s="22"/>
+      <c r="BH34" s="22"/>
+      <c r="BI34" s="22"/>
+      <c r="BJ34" s="22"/>
+      <c r="BK34" s="22"/>
+      <c r="BL34" s="18"/>
+      <c r="BM34" s="18"/>
+      <c r="BN34" s="18"/>
+      <c r="BO34" s="18"/>
+      <c r="BP34" s="23"/>
+      <c r="BQ34" s="17"/>
+      <c r="BR34" s="18"/>
+      <c r="BS34" s="18"/>
+      <c r="BT34" s="18"/>
+      <c r="BU34" s="18"/>
+      <c r="BV34" s="85"/>
+      <c r="BW34" s="85"/>
+      <c r="BX34" s="85"/>
+      <c r="BY34" s="85"/>
+      <c r="BZ34" s="85"/>
+      <c r="CA34" s="172"/>
+      <c r="CB34" s="172"/>
+      <c r="CC34" s="18"/>
+      <c r="CD34" s="18"/>
+      <c r="CE34" s="23"/>
+      <c r="CF34" s="17"/>
+      <c r="CG34" s="18"/>
+      <c r="CH34" s="18"/>
+      <c r="CI34" s="18"/>
+      <c r="CJ34" s="18"/>
+      <c r="CK34" s="88"/>
+      <c r="CL34" s="88"/>
+      <c r="CM34" s="88"/>
+      <c r="CN34" s="88"/>
+      <c r="CO34" s="88"/>
+      <c r="CP34" s="18"/>
+      <c r="CQ34" s="18"/>
+      <c r="CR34" s="18"/>
+      <c r="CS34" s="18"/>
+      <c r="CT34" s="23"/>
+      <c r="CU34" s="17"/>
+      <c r="CV34" s="18"/>
+      <c r="CW34" s="18"/>
+      <c r="CX34" s="18"/>
+      <c r="CY34" s="18"/>
+      <c r="CZ34" s="93"/>
+      <c r="DA34" s="93"/>
+      <c r="DB34" s="93"/>
+      <c r="DC34" s="93"/>
+      <c r="DD34" s="93"/>
+      <c r="DE34" s="18"/>
+      <c r="DF34" s="18"/>
+      <c r="DG34" s="18"/>
+      <c r="DH34" s="18"/>
+      <c r="DI34" s="23"/>
+    </row>
+    <row r="35" spans="2:113" ht="28" x14ac:dyDescent="0.2">
+      <c r="B35" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="66">
+        <f>F34+1</f>
+        <v>45318</v>
+      </c>
+      <c r="F35" s="69">
+        <f t="shared" ref="F35:F41" si="10">E35+G35</f>
+        <v>45319</v>
+      </c>
+      <c r="G35" s="71">
+        <v>1</v>
+      </c>
+      <c r="H35" s="54">
+        <v>1</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="32"/>
+      <c r="AW35" s="18"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="18"/>
+      <c r="BA35" s="20"/>
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="18"/>
+      <c r="BD35" s="18"/>
+      <c r="BE35" s="18"/>
+      <c r="BF35" s="18"/>
+      <c r="BG35" s="22"/>
+      <c r="BH35" s="22"/>
+      <c r="BI35" s="22"/>
+      <c r="BJ35" s="22"/>
+      <c r="BK35" s="22"/>
+      <c r="BL35" s="18"/>
+      <c r="BM35" s="18"/>
+      <c r="BN35" s="18"/>
+      <c r="BO35" s="18"/>
+      <c r="BP35" s="23"/>
+      <c r="BQ35" s="17"/>
+      <c r="BR35" s="18"/>
+      <c r="BS35" s="18"/>
+      <c r="BT35" s="18"/>
+      <c r="BU35" s="18"/>
+      <c r="BV35" s="85"/>
+      <c r="BW35" s="85"/>
+      <c r="BX35" s="85"/>
+      <c r="BY35" s="85"/>
+      <c r="BZ35" s="85"/>
+      <c r="CA35" s="18"/>
+      <c r="CB35" s="18"/>
+      <c r="CC35" s="172"/>
+      <c r="CD35" s="172"/>
+      <c r="CE35" s="23"/>
+      <c r="CF35" s="17"/>
+      <c r="CG35" s="18"/>
+      <c r="CH35" s="18"/>
+      <c r="CI35" s="18"/>
+      <c r="CJ35" s="18"/>
+      <c r="CK35" s="88"/>
+      <c r="CL35" s="88"/>
+      <c r="CM35" s="88"/>
+      <c r="CN35" s="88"/>
+      <c r="CO35" s="88"/>
+      <c r="CP35" s="18"/>
+      <c r="CQ35" s="18"/>
+      <c r="CR35" s="18"/>
+      <c r="CS35" s="18"/>
+      <c r="CT35" s="23"/>
+      <c r="CU35" s="17"/>
+      <c r="CV35" s="18"/>
+      <c r="CW35" s="18"/>
+      <c r="CX35" s="18"/>
+      <c r="CY35" s="18"/>
+      <c r="CZ35" s="93"/>
+      <c r="DA35" s="93"/>
+      <c r="DB35" s="93"/>
+      <c r="DC35" s="93"/>
+      <c r="DD35" s="93"/>
+      <c r="DE35" s="18"/>
+      <c r="DF35" s="18"/>
+      <c r="DG35" s="18"/>
+      <c r="DH35" s="18"/>
+      <c r="DI35" s="23"/>
+    </row>
+    <row r="36" spans="2:113" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="66">
+        <f t="shared" ref="E36:E41" si="11">F35+1</f>
+        <v>45320</v>
+      </c>
+      <c r="F36" s="69">
+        <f t="shared" si="10"/>
+        <v>45321</v>
+      </c>
+      <c r="G36" s="71">
+        <v>1</v>
+      </c>
+      <c r="H36" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="32"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
+      <c r="AZ36" s="18"/>
+      <c r="BA36" s="20"/>
+      <c r="BB36" s="17"/>
+      <c r="BC36" s="18"/>
+      <c r="BD36" s="18"/>
+      <c r="BE36" s="18"/>
+      <c r="BF36" s="18"/>
+      <c r="BG36" s="22"/>
+      <c r="BH36" s="22"/>
+      <c r="BI36" s="22"/>
+      <c r="BJ36" s="22"/>
+      <c r="BK36" s="22"/>
+      <c r="BL36" s="18"/>
+      <c r="BM36" s="18"/>
+      <c r="BN36" s="18"/>
+      <c r="BO36" s="18"/>
+      <c r="BP36" s="23"/>
+      <c r="BQ36" s="17"/>
+      <c r="BR36" s="18"/>
+      <c r="BS36" s="18"/>
+      <c r="BT36" s="18"/>
+      <c r="BU36" s="18"/>
+      <c r="BV36" s="85"/>
+      <c r="BW36" s="85"/>
+      <c r="BX36" s="85"/>
+      <c r="BY36" s="85"/>
+      <c r="BZ36" s="85"/>
+      <c r="CA36" s="18"/>
+      <c r="CB36" s="18"/>
+      <c r="CC36" s="18"/>
+      <c r="CD36" s="18"/>
+      <c r="CE36" s="172"/>
+      <c r="CF36" s="172"/>
+      <c r="CG36" s="18"/>
+      <c r="CH36" s="18"/>
+      <c r="CI36" s="18"/>
+      <c r="CJ36" s="18"/>
+      <c r="CK36" s="88"/>
+      <c r="CL36" s="88"/>
+      <c r="CM36" s="88"/>
+      <c r="CN36" s="88"/>
+      <c r="CO36" s="88"/>
+      <c r="CP36" s="18"/>
+      <c r="CQ36" s="18"/>
+      <c r="CR36" s="18"/>
+      <c r="CS36" s="18"/>
+      <c r="CT36" s="23"/>
+      <c r="CU36" s="17"/>
+      <c r="CV36" s="18"/>
+      <c r="CW36" s="18"/>
+      <c r="CX36" s="18"/>
+      <c r="CY36" s="18"/>
+      <c r="CZ36" s="93"/>
+      <c r="DA36" s="93"/>
+      <c r="DB36" s="93"/>
+      <c r="DC36" s="93"/>
+      <c r="DD36" s="93"/>
+      <c r="DE36" s="18"/>
+      <c r="DF36" s="18"/>
+      <c r="DG36" s="18"/>
+      <c r="DH36" s="18"/>
+      <c r="DI36" s="23"/>
+    </row>
+    <row r="37" spans="2:113" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="41">
+        <v>3.1</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="66">
+        <f t="shared" si="11"/>
+        <v>45322</v>
+      </c>
+      <c r="F37" s="69">
+        <f t="shared" si="10"/>
+        <v>45329</v>
+      </c>
+      <c r="G37" s="71">
+        <v>7</v>
+      </c>
+      <c r="H37" s="54">
+        <v>1</v>
+      </c>
+      <c r="I37" s="49"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="32"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="32"/>
+      <c r="AU37" s="32"/>
+      <c r="AV37" s="32"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="18"/>
+      <c r="BA37" s="20"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="18"/>
+      <c r="BD37" s="18"/>
+      <c r="BE37" s="18"/>
+      <c r="BF37" s="18"/>
+      <c r="BG37" s="22"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37" s="22"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="22"/>
+      <c r="BL37" s="18"/>
+      <c r="BM37" s="18"/>
+      <c r="BN37" s="18"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="23"/>
+      <c r="BQ37" s="17"/>
+      <c r="BR37" s="18"/>
+      <c r="BS37" s="18"/>
+      <c r="BT37" s="18"/>
+      <c r="BU37" s="18"/>
+      <c r="BV37" s="85"/>
+      <c r="BW37" s="85"/>
+      <c r="BX37" s="85"/>
+      <c r="BY37" s="85"/>
+      <c r="BZ37" s="85"/>
+      <c r="CA37" s="18"/>
+      <c r="CB37" s="18"/>
+      <c r="CC37" s="18"/>
+      <c r="CD37" s="18"/>
+      <c r="CE37" s="23"/>
+      <c r="CF37" s="17"/>
+      <c r="CG37" s="92"/>
+      <c r="CH37" s="92"/>
+      <c r="CI37" s="92"/>
+      <c r="CJ37" s="92"/>
+      <c r="CK37" s="92"/>
+      <c r="CL37" s="92"/>
+      <c r="CM37" s="92"/>
+      <c r="CN37" s="92"/>
+      <c r="CO37" s="88"/>
+      <c r="CP37" s="18"/>
+      <c r="CQ37" s="18"/>
+      <c r="CR37" s="18"/>
+      <c r="CS37" s="18"/>
+      <c r="CT37" s="23"/>
+      <c r="CU37" s="17"/>
+      <c r="CV37" s="18"/>
+      <c r="CW37" s="18"/>
+      <c r="CX37" s="18"/>
+      <c r="CY37" s="18"/>
+      <c r="CZ37" s="93"/>
+      <c r="DA37" s="93"/>
+      <c r="DB37" s="93"/>
+      <c r="DC37" s="93"/>
+      <c r="DD37" s="93"/>
+      <c r="DE37" s="18"/>
+      <c r="DF37" s="18"/>
+      <c r="DG37" s="18"/>
+      <c r="DH37" s="18"/>
+      <c r="DI37" s="23"/>
+    </row>
+    <row r="38" spans="2:113" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="66">
+        <f t="shared" si="11"/>
+        <v>45330</v>
+      </c>
+      <c r="F38" s="69">
+        <f t="shared" si="10"/>
+        <v>45331</v>
+      </c>
+      <c r="G38" s="71">
+        <v>1</v>
+      </c>
+      <c r="H38" s="54">
+        <v>1</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="18"/>
+      <c r="AO38" s="18"/>
+      <c r="AP38" s="18"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="32"/>
+      <c r="AS38" s="32"/>
+      <c r="AT38" s="32"/>
+      <c r="AU38" s="32"/>
+      <c r="AV38" s="32"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="18"/>
+      <c r="BA38" s="20"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="18"/>
+      <c r="BD38" s="18"/>
+      <c r="BE38" s="18"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="22"/>
+      <c r="BH38" s="22"/>
+      <c r="BI38" s="22"/>
+      <c r="BJ38" s="22"/>
+      <c r="BK38" s="22"/>
+      <c r="BL38" s="18"/>
+      <c r="BM38" s="18"/>
+      <c r="BN38" s="18"/>
+      <c r="BO38" s="18"/>
+      <c r="BP38" s="23"/>
+      <c r="BQ38" s="17"/>
+      <c r="BS38" s="18"/>
+      <c r="BT38" s="18"/>
+      <c r="BU38" s="18"/>
+      <c r="BV38" s="85"/>
+      <c r="BW38" s="85"/>
+      <c r="BX38" s="85"/>
+      <c r="BY38" s="85"/>
+      <c r="BZ38" s="85"/>
+      <c r="CA38" s="18"/>
+      <c r="CB38" s="18"/>
+      <c r="CC38" s="18"/>
+      <c r="CD38" s="18"/>
+      <c r="CE38" s="18"/>
+      <c r="CF38" s="17"/>
+      <c r="CH38" s="18"/>
+      <c r="CI38" s="18"/>
+      <c r="CJ38" s="18"/>
+      <c r="CK38" s="88"/>
+      <c r="CL38" s="88"/>
+      <c r="CM38" s="88"/>
+      <c r="CN38" s="88"/>
+      <c r="CO38" s="92"/>
+      <c r="CP38" s="92"/>
+      <c r="CQ38" s="18"/>
+      <c r="CR38" s="18"/>
+      <c r="CS38" s="18"/>
+      <c r="CT38" s="23"/>
+      <c r="CU38" s="17"/>
+      <c r="CV38" s="18"/>
+      <c r="CW38" s="18"/>
+      <c r="CX38" s="18"/>
+      <c r="CY38" s="18"/>
+      <c r="CZ38" s="93"/>
+      <c r="DA38" s="93"/>
+      <c r="DB38" s="93"/>
+      <c r="DC38" s="93"/>
+      <c r="DD38" s="93"/>
+      <c r="DE38" s="18"/>
+      <c r="DF38" s="18"/>
+      <c r="DG38" s="18"/>
+      <c r="DH38" s="18"/>
+      <c r="DI38" s="18"/>
+    </row>
+    <row r="39" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="41">
+        <v>4.2</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="66">
+        <f t="shared" si="11"/>
+        <v>45332</v>
+      </c>
+      <c r="F39" s="69">
+        <f t="shared" si="10"/>
+        <v>45333</v>
+      </c>
+      <c r="G39" s="71">
+        <v>1</v>
+      </c>
+      <c r="H39" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="I39" s="49"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="32"/>
+      <c r="AS39" s="32"/>
+      <c r="AT39" s="32"/>
+      <c r="AU39" s="32"/>
+      <c r="AV39" s="32"/>
+      <c r="AW39" s="18"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="18"/>
+      <c r="AZ39" s="18"/>
+      <c r="BA39" s="20"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="18"/>
+      <c r="BD39" s="18"/>
+      <c r="BE39" s="18"/>
+      <c r="BF39" s="18"/>
+      <c r="BG39" s="22"/>
+      <c r="BH39" s="22"/>
+      <c r="BI39" s="22"/>
+      <c r="BJ39" s="22"/>
+      <c r="BK39" s="22"/>
+      <c r="BL39" s="18"/>
+      <c r="BM39" s="18"/>
+      <c r="BN39" s="18"/>
+      <c r="BO39" s="18"/>
+      <c r="BP39" s="23"/>
+      <c r="BQ39" s="17"/>
+      <c r="BR39" s="18"/>
+      <c r="BS39" s="18"/>
+      <c r="BT39" s="18"/>
+      <c r="BU39" s="18"/>
+      <c r="BV39" s="85"/>
+      <c r="BW39" s="85"/>
+      <c r="BX39" s="85"/>
+      <c r="BY39" s="85"/>
+      <c r="BZ39" s="85"/>
+      <c r="CA39" s="18"/>
+      <c r="CB39" s="18"/>
+      <c r="CC39" s="18"/>
+      <c r="CD39" s="18"/>
+      <c r="CE39" s="23"/>
+      <c r="CG39" s="18"/>
+      <c r="CH39" s="18"/>
+      <c r="CI39" s="18"/>
+      <c r="CJ39" s="18"/>
+      <c r="CK39" s="88"/>
+      <c r="CL39" s="88"/>
+      <c r="CM39" s="88"/>
+      <c r="CN39" s="88"/>
+      <c r="CO39" s="88"/>
+      <c r="CP39" s="18"/>
+      <c r="CQ39" s="92"/>
+      <c r="CR39" s="92"/>
+      <c r="CS39" s="18"/>
+      <c r="CT39" s="18"/>
+      <c r="CU39" s="17"/>
+      <c r="CV39" s="18"/>
+      <c r="CW39" s="18"/>
+      <c r="CX39" s="18"/>
+      <c r="CY39" s="18"/>
+      <c r="CZ39" s="93"/>
+      <c r="DA39" s="93"/>
+      <c r="DB39" s="93"/>
+      <c r="DC39" s="93"/>
+      <c r="DD39" s="93"/>
+      <c r="DE39" s="18"/>
+      <c r="DF39" s="18"/>
+      <c r="DG39" s="18"/>
+      <c r="DH39" s="18"/>
+      <c r="DI39" s="18"/>
+    </row>
+    <row r="40" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="66">
+        <f t="shared" si="11"/>
+        <v>45334</v>
+      </c>
+      <c r="F40" s="69">
+        <f t="shared" si="10"/>
+        <v>45335</v>
+      </c>
+      <c r="G40" s="71">
+        <v>1</v>
+      </c>
+      <c r="H40" s="54">
+        <v>1</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="18"/>
+      <c r="AO40" s="18"/>
+      <c r="AP40" s="18"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="18"/>
+      <c r="AX40" s="18"/>
+      <c r="AY40" s="18"/>
+      <c r="AZ40" s="18"/>
+      <c r="BA40" s="20"/>
+      <c r="BB40" s="17"/>
+      <c r="BC40" s="18"/>
+      <c r="BD40" s="18"/>
+      <c r="BE40" s="18"/>
+      <c r="BF40" s="18"/>
+      <c r="BG40" s="22"/>
+      <c r="BH40" s="22"/>
+      <c r="BI40" s="22"/>
+      <c r="BJ40" s="22"/>
+      <c r="BK40" s="22"/>
+      <c r="BL40" s="18"/>
+      <c r="BM40" s="18"/>
+      <c r="BN40" s="18"/>
+      <c r="BO40" s="18"/>
+      <c r="BP40" s="23"/>
+      <c r="BQ40" s="17"/>
+      <c r="BR40" s="18"/>
+      <c r="BS40" s="18"/>
+      <c r="BT40" s="18"/>
+      <c r="BU40" s="18"/>
+      <c r="BV40" s="85"/>
+      <c r="BW40" s="85"/>
+      <c r="BX40" s="85"/>
+      <c r="BY40" s="85"/>
+      <c r="BZ40" s="85"/>
+      <c r="CA40" s="18"/>
+      <c r="CB40" s="18"/>
+      <c r="CC40" s="18"/>
+      <c r="CD40" s="18"/>
+      <c r="CE40" s="23"/>
+      <c r="CF40" s="17"/>
+      <c r="CG40" s="18"/>
+      <c r="CH40" s="18"/>
+      <c r="CI40" s="18"/>
+      <c r="CJ40" s="18"/>
+      <c r="CK40" s="88"/>
+      <c r="CL40" s="88"/>
+      <c r="CM40" s="88"/>
+      <c r="CN40" s="88"/>
+      <c r="CO40" s="88"/>
+      <c r="CP40" s="18"/>
+      <c r="CQ40" s="18"/>
+      <c r="CR40" s="18"/>
+      <c r="CS40" s="174"/>
+      <c r="CT40" s="174"/>
+      <c r="CU40" s="17"/>
+      <c r="CV40" s="18"/>
+      <c r="CW40" s="18"/>
+      <c r="CX40" s="18"/>
+      <c r="CY40" s="18"/>
+      <c r="CZ40" s="93"/>
+      <c r="DA40" s="93"/>
+      <c r="DB40" s="93"/>
+      <c r="DC40" s="93"/>
+      <c r="DD40" s="93"/>
+      <c r="DE40" s="18"/>
+      <c r="DF40" s="18"/>
+      <c r="DG40" s="18"/>
+      <c r="DH40" s="18"/>
+      <c r="DI40" s="18"/>
+    </row>
+    <row r="41" spans="2:113" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>317</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="66">
+        <f t="shared" si="11"/>
+        <v>45336</v>
+      </c>
+      <c r="F41" s="69">
+        <f t="shared" si="10"/>
+        <v>45337</v>
+      </c>
+      <c r="G41" s="72">
+        <v>1</v>
+      </c>
+      <c r="H41" s="56">
+        <v>0.97</v>
+      </c>
+      <c r="I41" s="50"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="25"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="33"/>
+      <c r="AT41" s="33"/>
+      <c r="AU41" s="33"/>
+      <c r="AV41" s="33"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="26"/>
+      <c r="AZ41" s="26"/>
+      <c r="BA41" s="28"/>
+      <c r="BB41" s="25"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="26"/>
+      <c r="BF41" s="26"/>
+      <c r="BG41" s="30"/>
+      <c r="BH41" s="30"/>
+      <c r="BI41" s="30"/>
+      <c r="BJ41" s="30"/>
+      <c r="BK41" s="30"/>
+      <c r="BL41" s="26"/>
+      <c r="BM41" s="26"/>
+      <c r="BN41" s="26"/>
+      <c r="BO41" s="26"/>
+      <c r="BP41" s="31"/>
+      <c r="BQ41" s="25"/>
+      <c r="BR41" s="26"/>
+      <c r="BS41" s="26"/>
+      <c r="BT41" s="26"/>
+      <c r="BU41" s="26"/>
+      <c r="BV41" s="86"/>
+      <c r="BW41" s="86"/>
+      <c r="BX41" s="86"/>
+      <c r="BY41" s="86"/>
+      <c r="BZ41" s="86"/>
+      <c r="CA41" s="26"/>
+      <c r="CB41" s="26"/>
+      <c r="CC41" s="26"/>
+      <c r="CD41" s="26"/>
+      <c r="CE41" s="31"/>
+      <c r="CF41" s="25"/>
+      <c r="CG41" s="26"/>
+      <c r="CH41" s="26"/>
+      <c r="CI41" s="26"/>
+      <c r="CJ41" s="26"/>
+      <c r="CK41" s="88"/>
+      <c r="CL41" s="88"/>
+      <c r="CM41" s="88"/>
+      <c r="CN41" s="88"/>
+      <c r="CO41" s="88"/>
+      <c r="CP41" s="18"/>
+      <c r="CQ41" s="18"/>
+      <c r="CR41" s="18"/>
+      <c r="CS41" s="18"/>
+      <c r="CT41" s="18"/>
+      <c r="CU41" s="96"/>
+      <c r="CV41" s="96"/>
+      <c r="CW41" s="26"/>
+      <c r="CX41" s="26"/>
+      <c r="CY41" s="26"/>
+      <c r="CZ41" s="93"/>
+      <c r="DA41" s="93"/>
+      <c r="DB41" s="93"/>
+      <c r="DC41" s="93"/>
+      <c r="DD41" s="93"/>
+      <c r="DE41" s="18"/>
+      <c r="DF41" s="18"/>
+      <c r="DG41" s="18"/>
+      <c r="DH41" s="18"/>
+      <c r="DI41" s="18"/>
+    </row>
+    <row r="42" spans="2:113" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="83">
+        <v>5</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="46" t="str">
+        <f t="shared" ref="G42" si="12">IF(F42-E42=0,"",F42-E42)</f>
+        <v/>
+      </c>
+      <c r="H42" s="55"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="14"/>
+      <c r="AZ42" s="14"/>
+      <c r="BA42" s="15"/>
+      <c r="BB42" s="13"/>
+      <c r="BC42" s="14"/>
+      <c r="BD42" s="14"/>
+      <c r="BE42" s="14"/>
+      <c r="BF42" s="14"/>
+      <c r="BG42" s="14"/>
+      <c r="BH42" s="14"/>
+      <c r="BI42" s="14"/>
+      <c r="BJ42" s="14"/>
+      <c r="BK42" s="14"/>
+      <c r="BL42" s="14"/>
+      <c r="BM42" s="14"/>
+      <c r="BN42" s="14"/>
+      <c r="BO42" s="14"/>
+      <c r="BP42" s="16"/>
+      <c r="BQ42" s="13"/>
+      <c r="BR42" s="14"/>
+      <c r="BS42" s="14"/>
+      <c r="BT42" s="14"/>
+      <c r="BU42" s="14"/>
+      <c r="BV42" s="14"/>
+      <c r="BW42" s="14"/>
+      <c r="BX42" s="14"/>
+      <c r="BY42" s="14"/>
+      <c r="BZ42" s="14"/>
+      <c r="CA42" s="14"/>
+      <c r="CB42" s="14"/>
+      <c r="CC42" s="14"/>
+      <c r="CD42" s="14"/>
+      <c r="CE42" s="16"/>
+      <c r="CF42" s="13"/>
+      <c r="CG42" s="14"/>
+      <c r="CH42" s="14"/>
+      <c r="CI42" s="14"/>
+      <c r="CJ42" s="14"/>
+      <c r="CK42" s="88"/>
+      <c r="CL42" s="88"/>
+      <c r="CM42" s="88"/>
+      <c r="CN42" s="88"/>
+      <c r="CO42" s="88"/>
+      <c r="CP42" s="14"/>
+      <c r="CQ42" s="14"/>
+      <c r="CR42" s="14"/>
+      <c r="CS42" s="14"/>
+      <c r="CT42" s="16"/>
+      <c r="CU42" s="13"/>
+      <c r="CV42" s="14"/>
+      <c r="CW42" s="14"/>
+      <c r="CX42" s="14"/>
+      <c r="CY42" s="14"/>
+      <c r="CZ42" s="14"/>
+      <c r="DA42" s="14"/>
+      <c r="DB42" s="14"/>
+      <c r="DC42" s="14"/>
+      <c r="DD42" s="14"/>
+      <c r="DE42" s="14"/>
+      <c r="DF42" s="14"/>
+      <c r="DG42" s="14"/>
+      <c r="DH42" s="14"/>
+      <c r="DI42" s="16"/>
+    </row>
+    <row r="43" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="83">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C43" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="68">
+        <f>F41+1</f>
+        <v>45338</v>
+      </c>
+      <c r="F43" s="70">
+        <f>E43+1</f>
+        <v>45339</v>
+      </c>
+      <c r="G43" s="72">
+        <f>IF(F43-E43=0,"",F43-E43)</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="56">
+        <v>1</v>
+      </c>
+      <c r="I43" s="50"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="25"/>
+      <c r="AN43" s="26"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="26"/>
+      <c r="AR43" s="33"/>
+      <c r="AS43" s="33"/>
+      <c r="AT43" s="33"/>
+      <c r="AU43" s="33"/>
+      <c r="AV43" s="33"/>
+      <c r="AW43" s="26"/>
+      <c r="AX43" s="26"/>
+      <c r="AY43" s="26"/>
+      <c r="AZ43" s="26"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="25"/>
+      <c r="BC43" s="26"/>
+      <c r="BD43" s="26"/>
+      <c r="BE43" s="26"/>
+      <c r="BF43" s="26"/>
+      <c r="BG43" s="30"/>
+      <c r="BH43" s="30"/>
+      <c r="BI43" s="30"/>
+      <c r="BJ43" s="30"/>
+      <c r="BK43" s="30"/>
+      <c r="BL43" s="26"/>
+      <c r="BM43" s="26"/>
+      <c r="BN43" s="26"/>
+      <c r="BO43" s="26"/>
+      <c r="BP43" s="31"/>
+      <c r="BQ43" s="25"/>
+      <c r="BR43" s="26"/>
+      <c r="BS43" s="26"/>
+      <c r="BT43" s="26"/>
+      <c r="BU43" s="26"/>
+      <c r="BV43" s="86"/>
+      <c r="BW43" s="86"/>
+      <c r="BX43" s="86"/>
+      <c r="BY43" s="86"/>
+      <c r="BZ43" s="86"/>
+      <c r="CA43" s="26"/>
+      <c r="CB43" s="26"/>
+      <c r="CC43" s="26"/>
+      <c r="CD43" s="26"/>
+      <c r="CE43" s="31"/>
+      <c r="CF43" s="25"/>
+      <c r="CG43" s="26"/>
+      <c r="CH43" s="26"/>
+      <c r="CI43" s="26"/>
+      <c r="CJ43" s="26"/>
+      <c r="CK43" s="90"/>
+      <c r="CL43" s="90"/>
+      <c r="CM43" s="90"/>
+      <c r="CN43" s="90"/>
+      <c r="CO43" s="90"/>
+      <c r="CP43" s="26"/>
+      <c r="CQ43" s="26"/>
+      <c r="CR43" s="26"/>
+      <c r="CS43" s="26"/>
+      <c r="CT43" s="31"/>
+      <c r="CU43" s="26"/>
+      <c r="CV43" s="26"/>
+      <c r="CW43" s="96"/>
+      <c r="CX43" s="96"/>
+      <c r="CY43" s="26"/>
+      <c r="CZ43" s="95"/>
+      <c r="DA43" s="95"/>
+      <c r="DB43" s="95"/>
+      <c r="DC43" s="95"/>
+      <c r="DD43" s="95"/>
+      <c r="DE43" s="26"/>
+      <c r="DF43" s="26"/>
+      <c r="DG43" s="26"/>
+      <c r="DH43" s="26"/>
+      <c r="DI43" s="31"/>
+    </row>
+    <row r="44" spans="2:113" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="83">
+        <v>5.2</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="68">
+        <f>F43+1</f>
+        <v>45340</v>
+      </c>
+      <c r="F44" s="70">
+        <f>E44+3</f>
+        <v>45343</v>
+      </c>
+      <c r="G44" s="72">
+        <f>IF(F44-E44=0,"",F44-E44)</f>
+        <v>3</v>
+      </c>
+      <c r="H44" s="56">
+        <v>1</v>
+      </c>
+      <c r="I44" s="50"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="33"/>
+      <c r="AS44" s="33"/>
+      <c r="AT44" s="33"/>
+      <c r="AU44" s="33"/>
+      <c r="AV44" s="33"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="26"/>
+      <c r="AZ44" s="26"/>
+      <c r="BA44" s="28"/>
+      <c r="BB44" s="25"/>
+      <c r="BC44" s="26"/>
+      <c r="BD44" s="26"/>
+      <c r="BE44" s="26"/>
+      <c r="BF44" s="26"/>
+      <c r="BG44" s="30"/>
+      <c r="BH44" s="30"/>
+      <c r="BI44" s="30"/>
+      <c r="BJ44" s="30"/>
+      <c r="BK44" s="30"/>
+      <c r="BL44" s="26"/>
+      <c r="BM44" s="26"/>
+      <c r="BN44" s="26"/>
+      <c r="BO44" s="26"/>
+      <c r="BP44" s="31"/>
+      <c r="BQ44" s="25"/>
+      <c r="BR44" s="26"/>
+      <c r="BS44" s="26"/>
+      <c r="BT44" s="26"/>
+      <c r="BU44" s="26"/>
+      <c r="BV44" s="86"/>
+      <c r="BW44" s="86"/>
+      <c r="BX44" s="86"/>
+      <c r="BY44" s="86"/>
+      <c r="BZ44" s="86"/>
+      <c r="CA44" s="26"/>
+      <c r="CB44" s="26"/>
+      <c r="CC44" s="26"/>
+      <c r="CD44" s="26"/>
+      <c r="CE44" s="31"/>
+      <c r="CF44" s="25"/>
+      <c r="CG44" s="26"/>
+      <c r="CH44" s="26"/>
+      <c r="CI44" s="26"/>
+      <c r="CJ44" s="26"/>
+      <c r="CK44" s="90"/>
+      <c r="CL44" s="90"/>
+      <c r="CM44" s="90"/>
+      <c r="CN44" s="90"/>
+      <c r="CO44" s="90"/>
+      <c r="CP44" s="26"/>
+      <c r="CQ44" s="26"/>
+      <c r="CR44" s="26"/>
+      <c r="CS44" s="26"/>
+      <c r="CT44" s="31"/>
+      <c r="CU44" s="25"/>
+      <c r="CV44" s="25"/>
+      <c r="CW44" s="25"/>
+      <c r="CX44" s="25"/>
+      <c r="CY44" s="96"/>
+      <c r="CZ44" s="96"/>
+      <c r="DA44" s="96"/>
+      <c r="DB44" s="95"/>
+      <c r="DC44" s="95"/>
+      <c r="DD44" s="95"/>
+      <c r="DE44" s="26"/>
+      <c r="DF44" s="26"/>
+      <c r="DG44" s="26"/>
+      <c r="DH44" s="26"/>
+      <c r="DI44" s="31"/>
+    </row>
+    <row r="49" spans="3:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="CF7:CJ7"/>
+    <mergeCell ref="CK7:CO7"/>
+    <mergeCell ref="CP7:CT7"/>
+    <mergeCell ref="CU7:CY7"/>
+    <mergeCell ref="CZ7:DD7"/>
+    <mergeCell ref="DE7:DI7"/>
+    <mergeCell ref="BB7:BF7"/>
+    <mergeCell ref="BG7:BK7"/>
+    <mergeCell ref="BL7:BP7"/>
+    <mergeCell ref="BQ7:BU7"/>
+    <mergeCell ref="BV7:BZ7"/>
+    <mergeCell ref="CA7:CE7"/>
+    <mergeCell ref="CU6:DI6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="AR7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="I6:W6"/>
+    <mergeCell ref="X6:AL6"/>
+    <mergeCell ref="AM6:BA6"/>
+    <mergeCell ref="BB6:BP6"/>
+    <mergeCell ref="BQ6:CE6"/>
+    <mergeCell ref="CF6:CT6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H9:H44">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="3" tint="0.59999389629810485"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="21" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C566B4DC-FEF1-C54E-95F2-8E67971160C5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6615,21 +12531,21 @@
       <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="57.796875" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="57.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M2" s="106" t="s">
         <v>63</v>
       </c>
@@ -6655,7 +12571,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="98" t="s">
         <v>63</v>
       </c>
@@ -6703,7 +12619,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="99" t="s">
         <v>71</v>
       </c>
@@ -6749,7 +12665,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="100"/>
       <c r="C5" s="98" t="s">
         <v>78</v>
@@ -6786,16 +12702,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="163"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="162"/>
       <c r="G6" s="101" t="s">
         <v>190</v>
       </c>
@@ -6825,7 +12741,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M7" s="107" t="s">
         <v>101</v>
       </c>
@@ -6849,7 +12765,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="98" t="s">
         <v>63</v>
       </c>
@@ -6897,7 +12813,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="99" t="s">
         <v>83</v>
       </c>
@@ -6943,7 +12859,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="100"/>
       <c r="C10" s="98" t="s">
         <v>78</v>
@@ -6980,16 +12896,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="163"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
       <c r="G11" s="101" t="s">
         <v>190</v>
       </c>
@@ -7019,7 +12935,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M12" s="107" t="s">
         <v>126</v>
       </c>
@@ -7043,7 +12959,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="98" t="s">
         <v>63</v>
       </c>
@@ -7091,7 +13007,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="99" t="s">
         <v>89</v>
       </c>
@@ -7137,7 +13053,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="100"/>
       <c r="C15" s="98" t="s">
         <v>78</v>
@@ -7152,16 +13068,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="162"/>
       <c r="G16" s="101" t="s">
         <v>190</v>
       </c>
@@ -7169,7 +13085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="98" t="s">
         <v>63</v>
       </c>
@@ -7195,7 +13111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="99" t="s">
         <v>95</v>
       </c>
@@ -7219,7 +13135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="100"/>
       <c r="C20" s="98" t="s">
         <v>78</v>
@@ -7234,16 +13150,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="165" t="s">
+      <c r="C21" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="162"/>
       <c r="G21" s="101" t="s">
         <v>190</v>
       </c>
@@ -7251,7 +13167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="98" t="s">
         <v>63</v>
       </c>
@@ -7277,7 +13193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="99" t="s">
         <v>101</v>
       </c>
@@ -7301,7 +13217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="100"/>
       <c r="C27" s="98" t="s">
         <v>78</v>
@@ -7316,16 +13232,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="164" t="s">
+      <c r="C28" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="163"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="162"/>
       <c r="G28" s="103" t="s">
         <v>191</v>
       </c>
@@ -7333,7 +13249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="98" t="s">
         <v>63</v>
       </c>
@@ -7359,7 +13275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="99" t="s">
         <v>107</v>
       </c>
@@ -7383,7 +13299,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="100"/>
       <c r="C32" s="98" t="s">
         <v>78</v>
@@ -7398,16 +13314,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="164" t="s">
+      <c r="C33" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="163"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="162"/>
       <c r="G33" s="103" t="s">
         <v>191</v>
       </c>
@@ -7415,7 +13331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="98" t="s">
         <v>63</v>
       </c>
@@ -7441,7 +13357,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99" t="s">
         <v>113</v>
       </c>
@@ -7465,7 +13381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="100"/>
       <c r="C37" s="98" t="s">
         <v>78</v>
@@ -7480,16 +13396,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="163"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="162"/>
       <c r="G38" s="103" t="s">
         <v>191</v>
       </c>
@@ -7497,7 +13413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="98" t="s">
         <v>63</v>
       </c>
@@ -7523,7 +13439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="99" t="s">
         <v>119</v>
       </c>
@@ -7547,7 +13463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="100"/>
       <c r="C42" s="98" t="s">
         <v>78</v>
@@ -7562,16 +13478,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="164" t="s">
+      <c r="C43" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="162"/>
-      <c r="E43" s="162"/>
-      <c r="F43" s="163"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="162"/>
       <c r="G43" s="103" t="s">
         <v>191</v>
       </c>
@@ -7579,16 +13495,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="164" t="s">
+      <c r="C44" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="163"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="162"/>
       <c r="G44" s="103" t="s">
         <v>191</v>
       </c>
@@ -7596,16 +13512,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="164" t="s">
+      <c r="C45" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="163"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="162"/>
       <c r="G45" s="103" t="s">
         <v>191</v>
       </c>
@@ -7613,7 +13529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="98" t="s">
         <v>63</v>
       </c>
@@ -7639,7 +13555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
         <v>126</v>
       </c>
@@ -7663,7 +13579,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="100"/>
       <c r="C51" s="98" t="s">
         <v>78</v>
@@ -7678,16 +13594,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="161" t="s">
+      <c r="C52" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
-      <c r="F52" s="163"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="162"/>
       <c r="G52" s="105" t="s">
         <v>192</v>
       </c>
@@ -7695,7 +13611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="98" t="s">
         <v>63</v>
       </c>
@@ -7721,7 +13637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="99" t="s">
         <v>132</v>
       </c>
@@ -7745,7 +13661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="100"/>
       <c r="C56" s="98" t="s">
         <v>78</v>
@@ -7760,16 +13676,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="161" t="s">
+      <c r="C57" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="163"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="162"/>
       <c r="G57" s="105" t="s">
         <v>193</v>
       </c>
@@ -7777,7 +13693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="98" t="s">
         <v>63</v>
       </c>
@@ -7803,7 +13719,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="99" t="s">
         <v>138</v>
       </c>
@@ -7827,7 +13743,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="100"/>
       <c r="C61" s="98" t="s">
         <v>78</v>
@@ -7842,16 +13758,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="161" t="s">
+      <c r="C62" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
-      <c r="F62" s="163"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="162"/>
       <c r="G62" s="105" t="s">
         <v>193</v>
       </c>
@@ -7859,7 +13775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="98" t="s">
         <v>63</v>
       </c>
@@ -7885,7 +13801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="99" t="s">
         <v>144</v>
       </c>
@@ -7909,7 +13825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="100"/>
       <c r="C66" s="98" t="s">
         <v>78</v>
@@ -7924,16 +13840,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="161" t="s">
+      <c r="C67" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="162"/>
-      <c r="E67" s="162"/>
-      <c r="F67" s="163"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="161"/>
+      <c r="F67" s="162"/>
       <c r="G67" s="105" t="s">
         <v>193</v>
       </c>
@@ -7941,16 +13857,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="161" t="s">
+      <c r="C68" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="162"/>
-      <c r="E68" s="162"/>
-      <c r="F68" s="163"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="161"/>
+      <c r="F68" s="162"/>
       <c r="G68" s="105" t="s">
         <v>193</v>
       </c>
@@ -7958,16 +13874,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="161" t="s">
+      <c r="C69" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="D69" s="162"/>
-      <c r="E69" s="162"/>
-      <c r="F69" s="163"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="161"/>
+      <c r="F69" s="162"/>
       <c r="G69" s="105" t="s">
         <v>193</v>
       </c>
@@ -7977,12 +13893,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C67:F67"/>
     <mergeCell ref="C68:F68"/>
@@ -7993,13 +13903,19 @@
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5217D9-0622-3145-AA86-FB7E72964142}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8010,23 +13926,23 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="112" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.2">
       <c r="B1" s="35" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
         <v>194</v>
       </c>
@@ -8046,7 +13962,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="115">
         <v>1</v>
       </c>
@@ -8066,7 +13982,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="115">
         <v>2</v>
       </c>
@@ -8086,7 +14002,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="115">
         <v>3</v>
       </c>
@@ -8106,7 +14022,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="115">
         <v>4</v>
       </c>
@@ -8126,7 +14042,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="115">
         <v>5</v>
       </c>
@@ -8146,7 +14062,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="115">
         <v>6</v>
       </c>
@@ -8166,7 +14082,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="115">
         <v>7</v>
       </c>
@@ -8186,7 +14102,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="115">
         <v>8</v>
       </c>
@@ -8206,7 +14122,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="115">
         <v>9</v>
       </c>
@@ -8226,7 +14142,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="115">
         <v>10</v>
       </c>
@@ -8246,7 +14162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="115">
         <v>11</v>
       </c>
@@ -8266,7 +14182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="115">
         <v>12</v>
       </c>
@@ -8286,7 +14202,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="115">
         <v>13</v>
       </c>
@@ -8306,14 +14222,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="112"/>
       <c r="D17" s="112"/>
       <c r="E17" s="112"/>
       <c r="F17" s="112"/>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="114" t="s">
         <v>27</v>
       </c>
@@ -8321,7 +14237,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
         <v>209</v>
       </c>
@@ -8329,7 +14245,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="114" t="s">
         <v>210</v>
       </c>
@@ -8337,7 +14253,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="114" t="s">
         <v>204</v>
       </c>
@@ -8351,104 +14267,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7561CE-49FA-B244-BF54-4EA0DFFBB170}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:M26"/>
+  <dimension ref="B6:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.296875" customWidth="1"/>
-    <col min="9" max="9" width="13.296875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="122"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="122"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="168" t="s">
+    <row r="6" spans="2:11" ht="25" x14ac:dyDescent="0.2">
+      <c r="C6" s="167" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="122"/>
-      <c r="B7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="122"/>
-      <c r="B8" s="123"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+    </row>
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
       <c r="C8" s="113" t="s">
         <v>220</v>
       </c>
       <c r="D8" s="116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E8" s="117"/>
       <c r="F8" s="117"/>
@@ -8457,12 +14318,8 @@
       <c r="I8" s="117"/>
       <c r="J8" s="117"/>
       <c r="K8" s="118"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" s="113"/>
       <c r="D9" s="116"/>
       <c r="E9" s="117"/>
@@ -8472,12 +14329,8 @@
       <c r="I9" s="117"/>
       <c r="J9" s="117"/>
       <c r="K9" s="118"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
+    </row>
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="119"/>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
@@ -8487,97 +14340,81 @@
       <c r="I10" s="120"/>
       <c r="J10" s="120"/>
       <c r="K10" s="120"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="166" t="s">
+    </row>
+    <row r="11" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="165" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="170" t="s">
+      <c r="D11" s="169" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="170" t="s">
+      <c r="E11" s="170"/>
+      <c r="F11" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="171"/>
-      <c r="H11" s="170" t="s">
+      <c r="G11" s="170"/>
+      <c r="H11" s="169" t="s">
         <v>224</v>
       </c>
-      <c r="I11" s="171"/>
-      <c r="J11" s="170" t="s">
+      <c r="I11" s="170"/>
+      <c r="J11" s="169" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="171"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="166" t="s">
+      <c r="K11" s="170"/>
+    </row>
+    <row r="12" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="166"/>
+      <c r="D12" s="165" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="166" t="s">
+      <c r="E12" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="166" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="166" t="s">
+      <c r="F12" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="H12" s="166" t="s">
-        <v>232</v>
-      </c>
-      <c r="I12" s="166" t="s">
+      <c r="G12" s="165" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="165" t="s">
         <v>233</v>
       </c>
-      <c r="J12" s="166" t="s">
-        <v>229</v>
-      </c>
-      <c r="K12" s="166" t="s">
+      <c r="I12" s="165" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-    </row>
-    <row r="14" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
+      <c r="K12" s="165" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="168"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+    </row>
+    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="C14" s="121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H14" s="121" t="s">
         <v>35</v>
@@ -8586,31 +14423,27 @@
         <v>35</v>
       </c>
       <c r="J14" s="121" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K14" s="121" t="s">
-        <v>286</v>
-      </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-    </row>
-    <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="122"/>
-      <c r="B15" s="122"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="C15" s="121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F15" s="121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H15" s="121" t="s">
         <v>36</v>
@@ -8619,31 +14452,27 @@
         <v>36</v>
       </c>
       <c r="J15" s="121" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K15" s="121" t="s">
-        <v>295</v>
-      </c>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-    </row>
-    <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="C16" s="121" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E16" s="121" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F16" s="121" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="G16" s="121" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H16" s="121" t="s">
         <v>36</v>
@@ -8651,32 +14480,28 @@
       <c r="I16" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="124">
+      <c r="J16" s="123">
         <v>45058</v>
       </c>
       <c r="K16" s="121" t="s">
-        <v>286</v>
-      </c>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-    </row>
-    <row r="17" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.2">
       <c r="C17" s="121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G17" s="121" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H17" s="121" t="s">
         <v>41</v>
@@ -8684,32 +14509,28 @@
       <c r="I17" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="124">
+      <c r="J17" s="123">
         <v>45150</v>
       </c>
       <c r="K17" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-    </row>
-    <row r="18" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.2">
       <c r="C18" s="121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D18" s="121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E18" s="121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F18" s="121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G18" s="121" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H18" s="121" t="s">
         <v>42</v>
@@ -8717,32 +14538,28 @@
       <c r="I18" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="124" t="s">
-        <v>290</v>
+      <c r="J18" s="123" t="s">
+        <v>292</v>
       </c>
       <c r="K18" s="121" t="s">
-        <v>286</v>
-      </c>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-    </row>
-    <row r="19" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="122"/>
-      <c r="B19" s="122"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="45" x14ac:dyDescent="0.2">
       <c r="C19" s="121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E19" s="121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F19" s="121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H19" s="121" t="s">
         <v>43</v>
@@ -8750,131 +14567,115 @@
       <c r="I19" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="124" t="s">
-        <v>291</v>
+      <c r="J19" s="123" t="s">
+        <v>293</v>
       </c>
       <c r="K19" s="121" t="s">
-        <v>286</v>
-      </c>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-    </row>
-    <row r="20" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="122"/>
-      <c r="B20" s="122"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="60" x14ac:dyDescent="0.2">
       <c r="C20" s="121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E20" s="121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F20" s="121" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H20" s="121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I20" s="121" t="s">
-        <v>287</v>
-      </c>
-      <c r="J20" s="124">
+        <v>289</v>
+      </c>
+      <c r="J20" s="123">
         <v>45324</v>
       </c>
       <c r="K20" s="121" t="s">
-        <v>296</v>
-      </c>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-    </row>
-    <row r="21" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="122"/>
-      <c r="B21" s="122"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="60" x14ac:dyDescent="0.2">
       <c r="C21" s="121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E21" s="121" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F21" s="121" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H21" s="121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I21" s="121" t="s">
-        <v>287</v>
-      </c>
-      <c r="J21" s="124">
+        <v>289</v>
+      </c>
+      <c r="J21" s="123">
         <v>45567</v>
       </c>
       <c r="K21" s="121" t="s">
-        <v>296</v>
-      </c>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-    </row>
-    <row r="22" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="122"/>
-      <c r="B22" s="122"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="60" x14ac:dyDescent="0.2">
       <c r="C22" s="121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D22" s="121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E22" s="121" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F22" s="121" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H22" s="121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I22" s="121" t="s">
-        <v>287</v>
-      </c>
-      <c r="J22" s="124" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="J22" s="123" t="s">
+        <v>294</v>
       </c>
       <c r="K22" s="121" t="s">
-        <v>296</v>
-      </c>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-    </row>
-    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="30" x14ac:dyDescent="0.2">
       <c r="C23" s="121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E23" s="121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="121" t="s">
         <v>57</v>
@@ -8882,30 +14683,28 @@
       <c r="I23" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="124" t="s">
-        <v>293</v>
+      <c r="J23" s="123" t="s">
+        <v>295</v>
       </c>
       <c r="K23" s="121" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="122"/>
-      <c r="M23" s="122"/>
-    </row>
-    <row r="24" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="60" x14ac:dyDescent="0.2">
       <c r="C24" s="121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E24" s="121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H24" s="121" t="s">
         <v>48</v>
@@ -8913,30 +14712,28 @@
       <c r="I24" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="124">
+      <c r="J24" s="123">
         <v>45507</v>
       </c>
       <c r="K24" s="121" t="s">
-        <v>295</v>
-      </c>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-    </row>
-    <row r="25" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="30" x14ac:dyDescent="0.2">
       <c r="C25" s="121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E25" s="121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F25" s="121" t="s">
         <v>197</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H25" s="121" t="s">
         <v>35</v>
@@ -8944,28 +14741,28 @@
       <c r="I25" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="124" t="s">
-        <v>294</v>
+      <c r="J25" s="123" t="s">
+        <v>296</v>
       </c>
       <c r="K25" s="121" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="45" x14ac:dyDescent="0.2">
       <c r="C26" s="121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E26" s="121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F26" s="121" t="s">
         <v>197</v>
       </c>
       <c r="G26" s="121" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H26" s="121" t="s">
         <v>56</v>
@@ -8973,11 +14770,11 @@
       <c r="I26" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="124" t="s">
-        <v>285</v>
+      <c r="J26" s="123" t="s">
+        <v>287</v>
       </c>
       <c r="K26" s="121" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/07 Cronograma de Trabajo/Cronograma_actividades.xlsx
+++ b/07 Cronograma de Trabajo/Cronograma_actividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\construccion\documentacion-construccion-evolucion\07 Cronograma de Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85157E4-CC5D-426C-897C-42D2A1597CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48098F30-3514-4125-940A-9B615FF8B72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3732" windowWidth="17280" windowHeight="10500" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma de Actividades" sheetId="2" r:id="rId1"/>
@@ -720,9 +720,6 @@
     <t>¿Por qué?</t>
   </si>
   <si>
-    <t>Destinatario</t>
-  </si>
-  <si>
     <t>Método de Comunicación</t>
   </si>
   <si>
@@ -937,6 +934,9 @@
   </si>
   <si>
     <t>Equipo de Desarrollo</t>
+  </si>
+  <si>
+    <t>¿A quién va dirigido?</t>
   </si>
 </sst>
 </file>
@@ -2302,6 +2302,47 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2319,8 +2360,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2339,54 +2378,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,125 +2697,125 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="128" t="s">
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="127"/>
-      <c r="AM6" s="129" t="s">
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="149"/>
+      <c r="AJ6" s="149"/>
+      <c r="AK6" s="149"/>
+      <c r="AL6" s="150"/>
+      <c r="AM6" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="126"/>
-      <c r="AP6" s="126"/>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="126"/>
-      <c r="AZ6" s="126"/>
-      <c r="BA6" s="127"/>
-      <c r="BB6" s="130" t="s">
+      <c r="AN6" s="149"/>
+      <c r="AO6" s="149"/>
+      <c r="AP6" s="149"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="149"/>
+      <c r="AZ6" s="149"/>
+      <c r="BA6" s="150"/>
+      <c r="BB6" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="BC6" s="126"/>
-      <c r="BD6" s="126"/>
-      <c r="BE6" s="126"/>
-      <c r="BF6" s="126"/>
-      <c r="BG6" s="126"/>
-      <c r="BH6" s="126"/>
-      <c r="BI6" s="126"/>
-      <c r="BJ6" s="126"/>
-      <c r="BK6" s="126"/>
-      <c r="BL6" s="126"/>
-      <c r="BM6" s="126"/>
-      <c r="BN6" s="126"/>
-      <c r="BO6" s="126"/>
-      <c r="BP6" s="127"/>
-      <c r="BQ6" s="141" t="s">
+      <c r="BC6" s="149"/>
+      <c r="BD6" s="149"/>
+      <c r="BE6" s="149"/>
+      <c r="BF6" s="149"/>
+      <c r="BG6" s="149"/>
+      <c r="BH6" s="149"/>
+      <c r="BI6" s="149"/>
+      <c r="BJ6" s="149"/>
+      <c r="BK6" s="149"/>
+      <c r="BL6" s="149"/>
+      <c r="BM6" s="149"/>
+      <c r="BN6" s="149"/>
+      <c r="BO6" s="149"/>
+      <c r="BP6" s="150"/>
+      <c r="BQ6" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="BR6" s="142"/>
-      <c r="BS6" s="142"/>
-      <c r="BT6" s="142"/>
-      <c r="BU6" s="142"/>
-      <c r="BV6" s="142"/>
-      <c r="BW6" s="142"/>
-      <c r="BX6" s="142"/>
-      <c r="BY6" s="142"/>
-      <c r="BZ6" s="142"/>
-      <c r="CA6" s="142"/>
-      <c r="CB6" s="142"/>
-      <c r="CC6" s="142"/>
-      <c r="CD6" s="142"/>
-      <c r="CE6" s="143"/>
-      <c r="CF6" s="148" t="s">
+      <c r="BR6" s="139"/>
+      <c r="BS6" s="139"/>
+      <c r="BT6" s="139"/>
+      <c r="BU6" s="139"/>
+      <c r="BV6" s="139"/>
+      <c r="BW6" s="139"/>
+      <c r="BX6" s="139"/>
+      <c r="BY6" s="139"/>
+      <c r="BZ6" s="139"/>
+      <c r="CA6" s="139"/>
+      <c r="CB6" s="139"/>
+      <c r="CC6" s="139"/>
+      <c r="CD6" s="139"/>
+      <c r="CE6" s="140"/>
+      <c r="CF6" s="125" t="s">
         <v>217</v>
       </c>
-      <c r="CG6" s="149"/>
-      <c r="CH6" s="149"/>
-      <c r="CI6" s="149"/>
-      <c r="CJ6" s="149"/>
-      <c r="CK6" s="149"/>
-      <c r="CL6" s="149"/>
-      <c r="CM6" s="149"/>
-      <c r="CN6" s="149"/>
-      <c r="CO6" s="149"/>
-      <c r="CP6" s="149"/>
-      <c r="CQ6" s="149"/>
-      <c r="CR6" s="149"/>
-      <c r="CS6" s="149"/>
-      <c r="CT6" s="150"/>
-      <c r="CU6" s="155" t="s">
+      <c r="CG6" s="126"/>
+      <c r="CH6" s="126"/>
+      <c r="CI6" s="126"/>
+      <c r="CJ6" s="126"/>
+      <c r="CK6" s="126"/>
+      <c r="CL6" s="126"/>
+      <c r="CM6" s="126"/>
+      <c r="CN6" s="126"/>
+      <c r="CO6" s="126"/>
+      <c r="CP6" s="126"/>
+      <c r="CQ6" s="126"/>
+      <c r="CR6" s="126"/>
+      <c r="CS6" s="126"/>
+      <c r="CT6" s="127"/>
+      <c r="CU6" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="CV6" s="156"/>
-      <c r="CW6" s="156"/>
-      <c r="CX6" s="156"/>
-      <c r="CY6" s="156"/>
-      <c r="CZ6" s="156"/>
-      <c r="DA6" s="156"/>
-      <c r="DB6" s="156"/>
-      <c r="DC6" s="156"/>
-      <c r="DD6" s="156"/>
-      <c r="DE6" s="156"/>
-      <c r="DF6" s="156"/>
-      <c r="DG6" s="156"/>
-      <c r="DH6" s="156"/>
-      <c r="DI6" s="157"/>
+      <c r="CV6" s="133"/>
+      <c r="CW6" s="133"/>
+      <c r="CX6" s="133"/>
+      <c r="CY6" s="133"/>
+      <c r="CZ6" s="133"/>
+      <c r="DA6" s="133"/>
+      <c r="DB6" s="133"/>
+      <c r="DC6" s="133"/>
+      <c r="DD6" s="133"/>
+      <c r="DE6" s="133"/>
+      <c r="DF6" s="133"/>
+      <c r="DG6" s="133"/>
+      <c r="DH6" s="133"/>
+      <c r="DI6" s="134"/>
     </row>
     <row r="7" spans="2:113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -2839,153 +2839,153 @@
       <c r="H7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="131" t="s">
+      <c r="I7" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="134" t="s">
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="134" t="s">
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="135" t="s">
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="147"/>
+      <c r="X7" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="133"/>
-      <c r="AC7" s="136" t="s">
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="132"/>
-      <c r="AG7" s="133"/>
-      <c r="AH7" s="136" t="s">
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="147"/>
+      <c r="AH7" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="AI7" s="132"/>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="133"/>
-      <c r="AM7" s="137" t="s">
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="146"/>
+      <c r="AL7" s="147"/>
+      <c r="AM7" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="132"/>
-      <c r="AO7" s="132"/>
-      <c r="AP7" s="132"/>
-      <c r="AQ7" s="133"/>
-      <c r="AR7" s="138" t="s">
+      <c r="AN7" s="146"/>
+      <c r="AO7" s="146"/>
+      <c r="AP7" s="146"/>
+      <c r="AQ7" s="147"/>
+      <c r="AR7" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AS7" s="132"/>
-      <c r="AT7" s="132"/>
-      <c r="AU7" s="132"/>
-      <c r="AV7" s="133"/>
-      <c r="AW7" s="138" t="s">
+      <c r="AS7" s="146"/>
+      <c r="AT7" s="146"/>
+      <c r="AU7" s="146"/>
+      <c r="AV7" s="147"/>
+      <c r="AW7" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="AX7" s="132"/>
-      <c r="AY7" s="132"/>
-      <c r="AZ7" s="132"/>
-      <c r="BA7" s="133"/>
-      <c r="BB7" s="139" t="s">
+      <c r="AX7" s="146"/>
+      <c r="AY7" s="146"/>
+      <c r="AZ7" s="146"/>
+      <c r="BA7" s="147"/>
+      <c r="BB7" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="BC7" s="132"/>
-      <c r="BD7" s="132"/>
-      <c r="BE7" s="132"/>
-      <c r="BF7" s="133"/>
-      <c r="BG7" s="140" t="s">
+      <c r="BC7" s="146"/>
+      <c r="BD7" s="146"/>
+      <c r="BE7" s="146"/>
+      <c r="BF7" s="147"/>
+      <c r="BG7" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="BH7" s="132"/>
-      <c r="BI7" s="132"/>
-      <c r="BJ7" s="132"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="140" t="s">
+      <c r="BH7" s="146"/>
+      <c r="BI7" s="146"/>
+      <c r="BJ7" s="146"/>
+      <c r="BK7" s="147"/>
+      <c r="BL7" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="132"/>
-      <c r="BN7" s="132"/>
-      <c r="BO7" s="132"/>
-      <c r="BP7" s="133"/>
-      <c r="BQ7" s="144" t="s">
+      <c r="BM7" s="146"/>
+      <c r="BN7" s="146"/>
+      <c r="BO7" s="146"/>
+      <c r="BP7" s="147"/>
+      <c r="BQ7" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="BR7" s="145"/>
-      <c r="BS7" s="145"/>
-      <c r="BT7" s="145"/>
-      <c r="BU7" s="146"/>
-      <c r="BV7" s="147" t="s">
+      <c r="BR7" s="142"/>
+      <c r="BS7" s="142"/>
+      <c r="BT7" s="142"/>
+      <c r="BU7" s="143"/>
+      <c r="BV7" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="BW7" s="145"/>
-      <c r="BX7" s="145"/>
-      <c r="BY7" s="145"/>
-      <c r="BZ7" s="146"/>
-      <c r="CA7" s="147" t="s">
+      <c r="BW7" s="142"/>
+      <c r="BX7" s="142"/>
+      <c r="BY7" s="142"/>
+      <c r="BZ7" s="143"/>
+      <c r="CA7" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="CB7" s="145"/>
-      <c r="CC7" s="145"/>
-      <c r="CD7" s="145"/>
-      <c r="CE7" s="146"/>
-      <c r="CF7" s="151" t="s">
+      <c r="CB7" s="142"/>
+      <c r="CC7" s="142"/>
+      <c r="CD7" s="142"/>
+      <c r="CE7" s="143"/>
+      <c r="CF7" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="152"/>
-      <c r="CH7" s="152"/>
-      <c r="CI7" s="152"/>
-      <c r="CJ7" s="153"/>
-      <c r="CK7" s="154" t="s">
+      <c r="CG7" s="129"/>
+      <c r="CH7" s="129"/>
+      <c r="CI7" s="129"/>
+      <c r="CJ7" s="130"/>
+      <c r="CK7" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="CL7" s="152"/>
-      <c r="CM7" s="152"/>
-      <c r="CN7" s="152"/>
-      <c r="CO7" s="153"/>
-      <c r="CP7" s="154" t="s">
+      <c r="CL7" s="129"/>
+      <c r="CM7" s="129"/>
+      <c r="CN7" s="129"/>
+      <c r="CO7" s="130"/>
+      <c r="CP7" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="CQ7" s="152"/>
-      <c r="CR7" s="152"/>
-      <c r="CS7" s="152"/>
-      <c r="CT7" s="153"/>
-      <c r="CU7" s="158" t="s">
+      <c r="CQ7" s="129"/>
+      <c r="CR7" s="129"/>
+      <c r="CS7" s="129"/>
+      <c r="CT7" s="130"/>
+      <c r="CU7" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="CV7" s="159"/>
-      <c r="CW7" s="159"/>
-      <c r="CX7" s="159"/>
-      <c r="CY7" s="160"/>
-      <c r="CZ7" s="158" t="s">
+      <c r="CV7" s="136"/>
+      <c r="CW7" s="136"/>
+      <c r="CX7" s="136"/>
+      <c r="CY7" s="137"/>
+      <c r="CZ7" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="DA7" s="159"/>
-      <c r="DB7" s="159"/>
-      <c r="DC7" s="159"/>
-      <c r="DD7" s="160"/>
-      <c r="DE7" s="158" t="s">
+      <c r="DA7" s="136"/>
+      <c r="DB7" s="136"/>
+      <c r="DC7" s="136"/>
+      <c r="DD7" s="137"/>
+      <c r="DE7" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="DF7" s="159"/>
-      <c r="DG7" s="159"/>
-      <c r="DH7" s="159"/>
-      <c r="DI7" s="160"/>
+      <c r="DF7" s="136"/>
+      <c r="DG7" s="136"/>
+      <c r="DH7" s="136"/>
+      <c r="DI7" s="137"/>
     </row>
     <row r="8" spans="2:113" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
@@ -6561,19 +6561,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CF6:CT6"/>
-    <mergeCell ref="CF7:CJ7"/>
-    <mergeCell ref="CK7:CO7"/>
-    <mergeCell ref="CP7:CT7"/>
-    <mergeCell ref="CU6:DI6"/>
-    <mergeCell ref="CU7:CY7"/>
-    <mergeCell ref="CZ7:DD7"/>
-    <mergeCell ref="DE7:DI7"/>
-    <mergeCell ref="BQ6:CE6"/>
-    <mergeCell ref="BQ7:BU7"/>
-    <mergeCell ref="BV7:BZ7"/>
-    <mergeCell ref="CA7:CE7"/>
-    <mergeCell ref="BL7:BP7"/>
     <mergeCell ref="I6:W6"/>
     <mergeCell ref="X6:AL6"/>
     <mergeCell ref="AM6:BA6"/>
@@ -6589,6 +6576,19 @@
     <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="BB7:BF7"/>
     <mergeCell ref="BG7:BK7"/>
+    <mergeCell ref="BQ6:CE6"/>
+    <mergeCell ref="BQ7:BU7"/>
+    <mergeCell ref="BV7:BZ7"/>
+    <mergeCell ref="CA7:CE7"/>
+    <mergeCell ref="BL7:BP7"/>
+    <mergeCell ref="CF6:CT6"/>
+    <mergeCell ref="CF7:CJ7"/>
+    <mergeCell ref="CK7:CO7"/>
+    <mergeCell ref="CP7:CT7"/>
+    <mergeCell ref="CU6:DI6"/>
+    <mergeCell ref="CU7:CY7"/>
+    <mergeCell ref="CZ7:DD7"/>
+    <mergeCell ref="DE7:DI7"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H30">
     <cfRule type="dataBar" priority="12">
@@ -6790,7 +6790,7 @@
       <c r="B6" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="165" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="162"/>
@@ -6984,7 +6984,7 @@
       <c r="B11" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="165" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="162"/>
@@ -7156,7 +7156,7 @@
       <c r="B16" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="165" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="162"/>
@@ -7238,7 +7238,7 @@
       <c r="B21" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="165" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="162"/>
@@ -7320,7 +7320,7 @@
       <c r="B28" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="161" t="s">
+      <c r="C28" s="164" t="s">
         <v>106</v>
       </c>
       <c r="D28" s="162"/>
@@ -7402,7 +7402,7 @@
       <c r="B33" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="161" t="s">
+      <c r="C33" s="164" t="s">
         <v>112</v>
       </c>
       <c r="D33" s="162"/>
@@ -7484,7 +7484,7 @@
       <c r="B38" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="161" t="s">
+      <c r="C38" s="164" t="s">
         <v>118</v>
       </c>
       <c r="D38" s="162"/>
@@ -7566,7 +7566,7 @@
       <c r="B43" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="161" t="s">
+      <c r="C43" s="164" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="162"/>
@@ -7583,7 +7583,7 @@
       <c r="B44" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="161" t="s">
+      <c r="C44" s="164" t="s">
         <v>123</v>
       </c>
       <c r="D44" s="162"/>
@@ -7600,7 +7600,7 @@
       <c r="B45" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="161" t="s">
+      <c r="C45" s="164" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="162"/>
@@ -7682,7 +7682,7 @@
       <c r="B52" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="165" t="s">
+      <c r="C52" s="161" t="s">
         <v>131</v>
       </c>
       <c r="D52" s="162"/>
@@ -7764,7 +7764,7 @@
       <c r="B57" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="165" t="s">
+      <c r="C57" s="161" t="s">
         <v>137</v>
       </c>
       <c r="D57" s="162"/>
@@ -7846,7 +7846,7 @@
       <c r="B62" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="165" t="s">
+      <c r="C62" s="161" t="s">
         <v>143</v>
       </c>
       <c r="D62" s="162"/>
@@ -7928,7 +7928,7 @@
       <c r="B67" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="165" t="s">
+      <c r="C67" s="161" t="s">
         <v>149</v>
       </c>
       <c r="D67" s="162"/>
@@ -7945,7 +7945,7 @@
       <c r="B68" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="165" t="s">
+      <c r="C68" s="161" t="s">
         <v>151</v>
       </c>
       <c r="D68" s="162"/>
@@ -7962,7 +7962,7 @@
       <c r="B69" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="165" t="s">
+      <c r="C69" s="161" t="s">
         <v>153</v>
       </c>
       <c r="D69" s="162"/>
@@ -7977,6 +7977,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C67:F67"/>
     <mergeCell ref="C68:F68"/>
@@ -7987,12 +7993,6 @@
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8358,8 +8358,8 @@
   </sheetPr>
   <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8448,7 +8448,7 @@
         <v>220</v>
       </c>
       <c r="D8" s="116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" s="117"/>
       <c r="F8" s="117"/>
@@ -8526,22 +8526,22 @@
         <v>227</v>
       </c>
       <c r="F12" s="166" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" s="166" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="166" t="s">
+      <c r="H12" s="166" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="166" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="166" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="166" t="s">
-        <v>233</v>
-      </c>
-      <c r="I12" s="166" t="s">
-        <v>234</v>
-      </c>
-      <c r="J12" s="166" t="s">
+      <c r="K12" s="166" t="s">
         <v>230</v>
-      </c>
-      <c r="K12" s="166" t="s">
-        <v>231</v>
       </c>
       <c r="L12" s="122"/>
       <c r="M12" s="122"/>
@@ -8565,19 +8565,19 @@
       <c r="A14" s="122"/>
       <c r="B14" s="122"/>
       <c r="C14" s="121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" s="121" t="s">
         <v>35</v>
@@ -8586,10 +8586,10 @@
         <v>35</v>
       </c>
       <c r="J14" s="121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K14" s="121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
@@ -8598,19 +8598,19 @@
       <c r="A15" s="122"/>
       <c r="B15" s="122"/>
       <c r="C15" s="121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="121" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="121" t="s">
         <v>277</v>
-      </c>
-      <c r="G15" s="121" t="s">
-        <v>278</v>
       </c>
       <c r="H15" s="121" t="s">
         <v>36</v>
@@ -8619,10 +8619,10 @@
         <v>36</v>
       </c>
       <c r="J15" s="121" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K15" s="121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L15" s="122"/>
       <c r="M15" s="122"/>
@@ -8631,19 +8631,19 @@
       <c r="A16" s="122"/>
       <c r="B16" s="122"/>
       <c r="C16" s="121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" s="121" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G16" s="121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H16" s="121" t="s">
         <v>36</v>
@@ -8655,7 +8655,7 @@
         <v>45058</v>
       </c>
       <c r="K16" s="121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L16" s="122"/>
       <c r="M16" s="122"/>
@@ -8664,19 +8664,19 @@
       <c r="A17" s="122"/>
       <c r="B17" s="122"/>
       <c r="C17" s="121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F17" s="121" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G17" s="121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H17" s="121" t="s">
         <v>41</v>
@@ -8688,7 +8688,7 @@
         <v>45150</v>
       </c>
       <c r="K17" s="121" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L17" s="122"/>
       <c r="M17" s="122"/>
@@ -8697,19 +8697,19 @@
       <c r="A18" s="122"/>
       <c r="B18" s="122"/>
       <c r="C18" s="121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" s="121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="121" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F18" s="121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G18" s="121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H18" s="121" t="s">
         <v>42</v>
@@ -8718,10 +8718,10 @@
         <v>42</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K18" s="121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L18" s="122"/>
       <c r="M18" s="122"/>
@@ -8730,19 +8730,19 @@
       <c r="A19" s="122"/>
       <c r="B19" s="122"/>
       <c r="C19" s="121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E19" s="121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F19" s="121" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H19" s="121" t="s">
         <v>43</v>
@@ -8751,10 +8751,10 @@
         <v>43</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K19" s="121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L19" s="122"/>
       <c r="M19" s="122"/>
@@ -8763,31 +8763,31 @@
       <c r="A20" s="122"/>
       <c r="B20" s="122"/>
       <c r="C20" s="121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E20" s="121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F20" s="121" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H20" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I20" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J20" s="124">
         <v>45324</v>
       </c>
       <c r="K20" s="121" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L20" s="122"/>
       <c r="M20" s="122"/>
@@ -8796,31 +8796,31 @@
       <c r="A21" s="122"/>
       <c r="B21" s="122"/>
       <c r="C21" s="121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E21" s="121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F21" s="121" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H21" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I21" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J21" s="124">
         <v>45567</v>
       </c>
       <c r="K21" s="121" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L21" s="122"/>
       <c r="M21" s="122"/>
@@ -8829,31 +8829,31 @@
       <c r="A22" s="122"/>
       <c r="B22" s="122"/>
       <c r="C22" s="121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="121" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E22" s="121" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F22" s="121" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H22" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I22" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J22" s="124" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K22" s="121" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L22" s="122"/>
       <c r="M22" s="122"/>
@@ -8862,19 +8862,19 @@
       <c r="A23" s="122"/>
       <c r="B23" s="122"/>
       <c r="C23" s="121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" s="121" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H23" s="121" t="s">
         <v>57</v>
@@ -8883,29 +8883,29 @@
         <v>57</v>
       </c>
       <c r="J23" s="124" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K23" s="121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L23" s="122"/>
       <c r="M23" s="122"/>
     </row>
     <row r="24" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="C24" s="121" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E24" s="121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H24" s="121" t="s">
         <v>48</v>
@@ -8917,26 +8917,26 @@
         <v>45507</v>
       </c>
       <c r="K24" s="121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L24" s="122"/>
       <c r="M24" s="122"/>
     </row>
     <row r="25" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="C25" s="121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" s="121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F25" s="121" t="s">
         <v>197</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H25" s="121" t="s">
         <v>35</v>
@@ -8945,27 +8945,27 @@
         <v>35</v>
       </c>
       <c r="J25" s="124" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K25" s="121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="C26" s="121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E26" s="121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F26" s="121" t="s">
         <v>197</v>
       </c>
       <c r="G26" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H26" s="121" t="s">
         <v>56</v>
@@ -8974,10 +8974,10 @@
         <v>56</v>
       </c>
       <c r="J26" s="124" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" s="121" t="s">
         <v>286</v>
-      </c>
-      <c r="K26" s="121" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
